--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_143.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_143.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33043-d78076-Reviews-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>158</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Courtyard-By-Marriott-Costa-Mesa-South-Coast-Metro.h15885.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_143.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_143.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="722">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2098 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r575052209-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>33043</t>
+  </si>
+  <si>
+    <t>78076</t>
+  </si>
+  <si>
+    <t>575052209</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Convenient Location and Attractive Property</t>
+  </si>
+  <si>
+    <t>A decent property in a convenient location.  Easy in/out onto the access road.  I was there 5 nights and didn't experience any problems.  The patio that faced the pool was nice.  Grounds were very well maintained.Only complaints were that the room had a musty smell...probably from the AC unit.  This was fixed with a candle.  Also, they charge for parking, which I thought was a bit excessive since it was a suburban location.  Maybe that's the norm in CA?  Not sure.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r572671487-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>572671487</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>Awesome customer setvixe</t>
+  </si>
+  <si>
+    <t>Stayed here two night for work a few miles down the street. At check in, Pauline was great. Super polite, personable, helpful, and engaging. Most places I’ve stayed just want to check you in and get back to what ever they’ve got going on. She took the time to have a conversation with me which was kind of nice to not feel rushed.The room was the usual room for the Courtyards. It was clean and had a pleasant smell. Ac unit was quiet and never woke me up once when it kicked on. The bed was a bit on the firm side but still comfortable. Overall appearance was nice. For someone who travels regularly, the customer services is what makes or breaks a visit for the chain hotels. This was by far my most pleasant experience. Thanks again. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Stayed here two night for work a few miles down the street. At check in, Pauline was great. Super polite, personable, helpful, and engaging. Most places I’ve stayed just want to check you in and get back to what ever they’ve got going on. She took the time to have a conversation with me which was kind of nice to not feel rushed.The room was the usual room for the Courtyards. It was clean and had a pleasant smell. Ac unit was quiet and never woke me up once when it kicked on. The bed was a bit on the firm side but still comfortable. Overall appearance was nice. For someone who travels regularly, the customer services is what makes or breaks a visit for the chain hotels. This was by far my most pleasant experience. Thanks again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r560145110-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>560145110</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>Good Business Hotel - recently refreshed, great rates for the area</t>
+  </si>
+  <si>
+    <t>Booked for last minute business travel, great rate for same day booking.   Free in-room and lobby internet.  Hotel recently refreshed, all new including lobby, halls and rooms themselves.   Front desk on check in and check out could not have been nicer or more helpful.   Check in was a breeze, delivered on the requested items (feather pillows, higher floor).  Very nice fluffy towels, new shower head.   Would stay there again,MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>CYSCM, Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded February 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2018</t>
+  </si>
+  <si>
+    <t>Booked for last minute business travel, great rate for same day booking.   Free in-room and lobby internet.  Hotel recently refreshed, all new including lobby, halls and rooms themselves.   Front desk on check in and check out could not have been nicer or more helpful.   Check in was a breeze, delivered on the requested items (feather pillows, higher floor).  Very nice fluffy towels, new shower head.   Would stay there again,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r525260716-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>525260716</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>A fine gem in Costa Mesa!</t>
+  </si>
+  <si>
+    <t>Another amazing stay at the Courtyard Costa Mesa. Just a few minutes from the beach, this is gem! Front desk staff was amazing and made the check in painless and enjoyable! Whaaaat?? Yes, enjoyable! The surrounding area has everything to offer. Shopping and plenty o' food choices within minutes just west on Harbour Blvd. towards the beach. Beach area is only 5 to 10 minutes. Balcony rooms overlooking the pool are wonderful.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>CYSCM, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Another amazing stay at the Courtyard Costa Mesa. Just a few minutes from the beach, this is gem! Front desk staff was amazing and made the check in painless and enjoyable! Whaaaat?? Yes, enjoyable! The surrounding area has everything to offer. Shopping and plenty o' food choices within minutes just west on Harbour Blvd. towards the beach. Beach area is only 5 to 10 minutes. Balcony rooms overlooking the pool are wonderful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r515336296-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>515336296</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>Industrial Santa Ana</t>
+  </si>
+  <si>
+    <t>I am at this hotel, which is in Santa Ana, right now.  My husband booked it after I had asked him to book the Marriot Courtyard in Irvine.  He tried to change the reservation a few minutes later, and Marriot refused, so we are stuck here.  It is an industrial area of Santa Ana, surrounded by mattress outlets and fast food chains.  It is 4.7 miles from Costa Mesa, so not sure why it's called Costa Mesa.  It is almost 7 miles from the beach.  Very disappointed...  Think carefully before you click confirm, because there is no going back if you made a mistake.  Their customer service is unforgiving.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>CYSCM, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded August 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2017</t>
+  </si>
+  <si>
+    <t>I am at this hotel, which is in Santa Ana, right now.  My husband booked it after I had asked him to book the Marriot Courtyard in Irvine.  He tried to change the reservation a few minutes later, and Marriot refused, so we are stuck here.  It is an industrial area of Santa Ana, surrounded by mattress outlets and fast food chains.  It is 4.7 miles from Costa Mesa, so not sure why it's called Costa Mesa.  It is almost 7 miles from the beach.  Very disappointed...  Think carefully before you click confirm, because there is no going back if you made a mistake.  Their customer service is unforgiving.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r500543552-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>500543552</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights and had no issues. Lobby and guest room were very clean. Check in process was easy. I did mobile check in and my room key was ready when I arrived. Although I requested a room close to the elevator, my room was located at the very end of the hallway, furthest from elevator. Housekeeping staff was very friendly. Not sure why they charge $10/night for parking as the area seems to be industrial/business parks.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>CYSCM, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights and had no issues. Lobby and guest room were very clean. Check in process was easy. I did mobile check in and my room key was ready when I arrived. Although I requested a room close to the elevator, my room was located at the very end of the hallway, furthest from elevator. Housekeeping staff was very friendly. Not sure why they charge $10/night for parking as the area seems to be industrial/business parks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r489722658-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>489722658</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Conveniently Located in the Heart of Orange County</t>
+  </si>
+  <si>
+    <t>Clean, comfortable and... it's a Courtyard! Predictable quality and conveniences. Staff was pleasant and the room was enjoyable. Bed was wonderful and the snack bar was well-stocked. Conveniently located in the heart of Orange County.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r488196857-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>488196857</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel with Recent Upgrades</t>
+  </si>
+  <si>
+    <t>The staff was nice and very friendly. The hotel is clean and appears to have been recently updated.  Not a lot of hotels in the area.  The only downside of this hotel is no free breakfast,  Starbucks is the onsite restaurant vendor so there is a reasonably priced Starbucks breakfast and coffee, wine and snacks are available in the evening</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r483915757-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>483915757</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>The place to stay if you are going to a show at The Observatory!!</t>
+  </si>
+  <si>
+    <t>Was in town for a show at The Observatory and a quick day at Disneyland and very glad this was my choice. Hotel is within a easy walking distance from the venue so you can skip the cost and hassle of trying to park at the venue and make a stay cation of out it!  Attempted to check in early but was certain I may not be able to due to it being early and busy but I was nicely greeted upon arrival and was asked to wait only about 20 minutes before my room was available. Rooms were very nice and looked recently renovated.  Not to many dining options nearby so you may have to plan a bit ahead for a late night bite to eat. We decided to skip the drive and parking to Disney and took an uber to and from.  So glad I did as it was only a $10ish ride each way and get dropped off and picked up at the door step to Disney, definitely the way to go!!!  Did have a minor billing issue I noticed a few days after my stay but I called in and they were apologetic and fixed issue immediately. The whole staff was great friendly in all my encounters with the and look forward to spending the night here again soon when in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Was in town for a show at The Observatory and a quick day at Disneyland and very glad this was my choice. Hotel is within a easy walking distance from the venue so you can skip the cost and hassle of trying to park at the venue and make a stay cation of out it!  Attempted to check in early but was certain I may not be able to due to it being early and busy but I was nicely greeted upon arrival and was asked to wait only about 20 minutes before my room was available. Rooms were very nice and looked recently renovated.  Not to many dining options nearby so you may have to plan a bit ahead for a late night bite to eat. We decided to skip the drive and parking to Disney and took an uber to and from.  So glad I did as it was only a $10ish ride each way and get dropped off and picked up at the door step to Disney, definitely the way to go!!!  Did have a minor billing issue I noticed a few days after my stay but I called in and they were apologetic and fixed issue immediately. The whole staff was great friendly in all my encounters with the and look forward to spending the night here again soon when in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r474142249-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>474142249</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Pretty Property with helpful, kind staff</t>
+  </si>
+  <si>
+    <t>Stayed here during a biz trip and found it very comfortable.  Nice property, pretty strong fitness room, and beautiful pool area.  I also liked that there's an excellent diner (Suzy's Diner) walking distance away.  Great place for breakfast or lunch.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r473284650-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>473284650</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Great Lobby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No idea how the pool or gym are... but there is free WIFI and a great lobby bar and cafe. BTW, Libby has Starbucks. Major win! Room was fine but not spectacular - a bit dated and carpet needs replaced. Staff was exceptional ally friendly. Would stay again. </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r469169952-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>469169952</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Perfect Business Hotel</t>
+  </si>
+  <si>
+    <t>Comfortable and always consistent. This chain always performs as expected.  Rooms clean, safe and comfortable.  The market available for snacks and the restaurant available for food and drinks.  This hotel is located within driving distance of the beach, shopping and amusement parks. I've been here a few times and would gladly stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r456823357-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>456823357</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>Last minute sleepover</t>
+  </si>
+  <si>
+    <t>This property is situated in a commercial/business park area. Lower than usual rate BUT they charge a $100 room deposit, front desk states it's due to a local concert hall that attracts Guests who get rowdy and trash the rooms and they require the large deposit. Beds comfy room a good size, not too many toiletries but they were able to give me a toothbrush and paste, since I forgot mine from home. Donut star down the street has great donuts.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>CYSCM, Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded February 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2017</t>
+  </si>
+  <si>
+    <t>This property is situated in a commercial/business park area. Lower than usual rate BUT they charge a $100 room deposit, front desk states it's due to a local concert hall that attracts Guests who get rowdy and trash the rooms and they require the large deposit. Beds comfy room a good size, not too many toiletries but they were able to give me a toothbrush and paste, since I forgot mine from home. Donut star down the street has great donuts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r447540855-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>447540855</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>nicer than expected</t>
+  </si>
+  <si>
+    <t>everything was nicer than I had anticipated.  Good bed, quiet, clean, nice towels, ...plenty of parking right by the door to the stairs, check-in was fast, good view of interior yard/pool, good heater, ....</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r445042027-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>445042027</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t>Comfortable &amp; convenient</t>
+  </si>
+  <si>
+    <t>Great staff.  Eric at the front desk was charming.  He gave us good recommendations of local restaurant.  The bistro barista was friendly.  Our room was spacious and the bed luxurious.  I think the pool will be great after they finish refurbishing it.MoreShow less</t>
+  </si>
+  <si>
+    <t>CYSCM, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Great staff.  Eric at the front desk was charming.  He gave us good recommendations of local restaurant.  The bistro barista was friendly.  Our room was spacious and the bed luxurious.  I think the pool will be great after they finish refurbishing it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r421242614-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>421242614</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Facilities</t>
+  </si>
+  <si>
+    <t>Small gym. No bike to train just 3 treadmill of course busy early in the morning. Place looks very old, smelly particularly on the rooms. Air conditioning is really bad, very noise actually I turned it off so I could sleep. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Small gym. No bike to train just 3 treadmill of course busy early in the morning. Place looks very old, smelly particularly on the rooms. Air conditioning is really bad, very noise actually I turned it off so I could sleep. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r420971693-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>420971693</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Courtyard</t>
+  </si>
+  <si>
+    <t>I spent one night there and it was a pleasant stay. It is a convenient location for John Wayne Airport and there are several restaurants within a couple of miles.  The hotel is nice and the staff that I interacted were superb  Eric B. checked me in and provide excellent local information as well as an excellent restaurant recommendation and he needs to be recognized.  The only negative comment I have is that the rooms did not have a book with Hotel information and they also did not provide a channel guide for TV.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r419235272-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>419235272</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Not good</t>
+  </si>
+  <si>
+    <t>Planned for numerous VPs to stay at this hotel because always thought it was nice. Not the case. They complained of:•	toilets flooding with gunk overnight•	bugs in bed•	blood on curtains Needless to stay, we will not be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Alisa F, Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Planned for numerous VPs to stay at this hotel because always thought it was nice. Not the case. They complained of:•	toilets flooding with gunk overnight•	bugs in bed•	blood on curtains Needless to stay, we will not be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r401526115-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>401526115</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>DELIGHTFUL STAY! WILL STAY AGAIN</t>
+  </si>
+  <si>
+    <t>We were at first a bit hesitant due to poor accessibility to freeways but after a day or two we loved it. We will always stay here when a room to accommodate 5 is needed. The room was clean, and the pool was warm and clean with supply of beach towels.  ( They do need to enforce the posted rule of no children under 14yrs without adult at the pool.. I called the front desk, Paulina, about 4 noisy kids all under 14yrs but nothing was done). Starbucks available in the lobby 24 /7 was also awesome. We liked that there were two separate rooms, so the night owls did not affect the sleepers ! SATISFIEDMoreShow less</t>
+  </si>
+  <si>
+    <t>We were at first a bit hesitant due to poor accessibility to freeways but after a day or two we loved it. We will always stay here when a room to accommodate 5 is needed. The room was clean, and the pool was warm and clean with supply of beach towels.  ( They do need to enforce the posted rule of no children under 14yrs without adult at the pool.. I called the front desk, Paulina, about 4 noisy kids all under 14yrs but nothing was done). Starbucks available in the lobby 24 /7 was also awesome. We liked that there were two separate rooms, so the night owls did not affect the sleepers ! SATISFIEDMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r400338072-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>400338072</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Wonderful hotel</t>
+  </si>
+  <si>
+    <t>We loved this hotel.  For the price, value and location it was hard to beat.  Every staff member we met was friendly, outgoing and went out of their way to help.  Plenty of free parking, and quality internet.  Definately will stay here next time we are in the area</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r399257727-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>399257727</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Fantastic staff, comfortable accomodations</t>
+  </si>
+  <si>
+    <t>I was visiting the area for a workshop and selected this hotel for its location in relationship to the workshop venue.  The hotel is in the midst of an industrial area so nowhere to walk for dining or shopping really but it's close to everything by car or uber.  About 20 minutes from John Wayne airport.  I requested a room facing the side parking lot to cut down on the street noise from Harbor Blvd.  The room was spacious and I had the best two nights of sleep I literally can remember.The staff was incredibly helpful.  There were four of us in our group spread across different arrival and departure times.  Some of our party had flight arrival issues, one wasn't able to get there at all and we needed to reorganize room sharing.  The staff, with whom we were on a first name basis in a matter of hours, was incredibly helpful throughout our entire stay.It felt like more of a business hotel in that it was quiet and we did not see many families however I think it would be a good choice for any type of traveler and a cheaper hotel option for seeing some of the family attractions in the area such as Disney.There is a small market in the lobby to buy food and supplies and a cafe for all meals and cocktails (though the cocktails were a bit pricey!).MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>I was visiting the area for a workshop and selected this hotel for its location in relationship to the workshop venue.  The hotel is in the midst of an industrial area so nowhere to walk for dining or shopping really but it's close to everything by car or uber.  About 20 minutes from John Wayne airport.  I requested a room facing the side parking lot to cut down on the street noise from Harbor Blvd.  The room was spacious and I had the best two nights of sleep I literally can remember.The staff was incredibly helpful.  There were four of us in our group spread across different arrival and departure times.  Some of our party had flight arrival issues, one wasn't able to get there at all and we needed to reorganize room sharing.  The staff, with whom we were on a first name basis in a matter of hours, was incredibly helpful throughout our entire stay.It felt like more of a business hotel in that it was quiet and we did not see many families however I think it would be a good choice for any type of traveler and a cheaper hotel option for seeing some of the family attractions in the area such as Disney.There is a small market in the lobby to buy food and supplies and a cafe for all meals and cocktails (though the cocktails were a bit pricey!).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r378865107-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>378865107</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>"Basketball tournament "</t>
+  </si>
+  <si>
+    <t>We stayed at the courtyard in Santa Ana for my daughters basketball tournament. We got a great  group rate. My only complaint that i have is at check in they did not informed us we had a continental breakfast included with our group rate and the times it was available. Before heading out my daughter wanted a bagel so we went to the restaurant and the super nice young lady with a bright smile; she knew or had an idea we were with the group and she gave us all the information and times for the continental breakfast super helpful. We had missed the continental breakfast that day since it was only available for 1 hour and we were not informed but she apologized and was able to give us a bagel very nice of her. She has great customer service. The next morning we made it to the continental breakfast there was a lot of variety of items. Great hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the courtyard in Santa Ana for my daughters basketball tournament. We got a great  group rate. My only complaint that i have is at check in they did not informed us we had a continental breakfast included with our group rate and the times it was available. Before heading out my daughter wanted a bagel so we went to the restaurant and the super nice young lady with a bright smile; she knew or had an idea we were with the group and she gave us all the information and times for the continental breakfast super helpful. We had missed the continental breakfast that day since it was only available for 1 hour and we were not informed but she apologized and was able to give us a bagel very nice of her. She has great customer service. The next morning we made it to the continental breakfast there was a lot of variety of items. Great hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r375495681-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>375495681</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>Good Experience and value</t>
+  </si>
+  <si>
+    <t>I've stayed here twice for business and have had a good experience.  I consider this a value hotel and so have adjusted my expectations accordingly.  The beds was comfortable and room was clean.  I would return.  I would say the main opportunities are bath related.  They give you those little bottles of shampoo and conditioner as most hotels do.  The issue here is that they are opaque and impossible to tell how much liquid is in them.  I found that they can be near empty since the housekeepers can't tell either.  The bottle for each (including lotion) are all the same color and I found extra lotion but no conditioner.  With long hair this is not good.  I left a note (and tip)  for housekeeping to leave leave more conditioner and upon return I had even more lotion and again, no conditioner.  I had to call the front desk for it.  Kind of a basic training opportunity for simply paying attention to details.  The other complaint is those tiny hair dryers. You know, the built in type. Clearly not spec-ed out with women in mind. Good luck trying to style your hair and plan on about 15 minutes. Guys, if you think this is petty, just ask your wife and daughters. And BTW, if you're all traveling together, you'll be waiting for them to finish. It matters!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>snasa, Front Office Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>I've stayed here twice for business and have had a good experience.  I consider this a value hotel and so have adjusted my expectations accordingly.  The beds was comfortable and room was clean.  I would return.  I would say the main opportunities are bath related.  They give you those little bottles of shampoo and conditioner as most hotels do.  The issue here is that they are opaque and impossible to tell how much liquid is in them.  I found that they can be near empty since the housekeepers can't tell either.  The bottle for each (including lotion) are all the same color and I found extra lotion but no conditioner.  With long hair this is not good.  I left a note (and tip)  for housekeeping to leave leave more conditioner and upon return I had even more lotion and again, no conditioner.  I had to call the front desk for it.  Kind of a basic training opportunity for simply paying attention to details.  The other complaint is those tiny hair dryers. You know, the built in type. Clearly not spec-ed out with women in mind. Good luck trying to style your hair and plan on about 15 minutes. Guys, if you think this is petty, just ask your wife and daughters. And BTW, if you're all traveling together, you'll be waiting for them to finish. It matters!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r374930651-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>374930651</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>This hotel is our go-to place when we are in town visiting family.  The location is central to all the necessary shopping/dining/excursions/freeways.  The staff are always friendly and accommodating.  The rooms are clean and comfortable, and noise is usually never a problem.  Some of the rooms facing Harbor Blvd can let in some of the road noise, but it dies down overnight.  On one occasion we requested a room away from the street and the front desk was more than happy to move us.  There is a bistro in the lobby, serving Starbucks coffee if that's your thing.  Food options are quite tasty, we usually sit down for a quick breakfast before heading out for the day.  Sitting areas inside and outside are comfortable, pool is good size, hot tub as well.  All the usual Marriott chain amenities here.  My husband and I settle in nicely here whether we're staying for a few days or an entire week.  I definitely recommend to anyone in the area... for business or vacation, or just needing a place to stretch out when visiting family.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>This hotel is our go-to place when we are in town visiting family.  The location is central to all the necessary shopping/dining/excursions/freeways.  The staff are always friendly and accommodating.  The rooms are clean and comfortable, and noise is usually never a problem.  Some of the rooms facing Harbor Blvd can let in some of the road noise, but it dies down overnight.  On one occasion we requested a room away from the street and the front desk was more than happy to move us.  There is a bistro in the lobby, serving Starbucks coffee if that's your thing.  Food options are quite tasty, we usually sit down for a quick breakfast before heading out for the day.  Sitting areas inside and outside are comfortable, pool is good size, hot tub as well.  All the usual Marriott chain amenities here.  My husband and I settle in nicely here whether we're staying for a few days or an entire week.  I definitely recommend to anyone in the area... for business or vacation, or just needing a place to stretch out when visiting family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r369261663-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>369261663</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>Lack of hot water hurts review.</t>
+  </si>
+  <si>
+    <t>This is the second time I have stayed at this hotel, and will probably be my last. It is in a great location and the room was great, but the lack of hot water between 6AM and 7AM was not explainable. It took a long time to get hot water in the sink to shave. The only way I could keep hot water to rinse my razor was to leave the hot water on, letting it run wasting precious water.MoreShow less</t>
+  </si>
+  <si>
+    <t>snasa, Front Office Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>This is the second time I have stayed at this hotel, and will probably be my last. It is in a great location and the room was great, but the lack of hot water between 6AM and 7AM was not explainable. It took a long time to get hot water in the sink to shave. The only way I could keep hot water to rinse my razor was to leave the hot water on, letting it run wasting precious water.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r368762308-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>368762308</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>It would have been a 4 1/2 star but..</t>
+  </si>
+  <si>
+    <t>It would have been a 4 1/2 star but...My hotel stay for 2 nights were prepaid by Orbitz.com. They took my credit card for incidentals. At the time of check out, I was told, I was "OK" since it was prepaid.Few weeks later while looking at my credit card charges, I saw ANOTHER charge of the same amount!!! I have called my credit card for dispute and they themselves saw 2 payments of the same kind.So be very careful. Asked for a receipt for $0 balance at the time of check-out!!! Buyer's beware!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>snasa, Front Office Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded May 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2016</t>
+  </si>
+  <si>
+    <t>It would have been a 4 1/2 star but...My hotel stay for 2 nights were prepaid by Orbitz.com. They took my credit card for incidentals. At the time of check out, I was told, I was "OK" since it was prepaid.Few weeks later while looking at my credit card charges, I saw ANOTHER charge of the same amount!!! I have called my credit card for dispute and they themselves saw 2 payments of the same kind.So be very careful. Asked for a receipt for $0 balance at the time of check-out!!! Buyer's beware!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r368001528-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>368001528</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Nice and convenient to beach</t>
+  </si>
+  <si>
+    <t>The staff upon check-in was very polite and helpful. The hotel was nicely decorated and up-to-date on the decor. The bed was one of the most comfortable beds I have ever slept in. The bathroom was also very nice. The balcony was small but enjoyable. Room service was very quick and I enjoyed the pizzas  that I had ordered. I would highly recommend this hotel to anyone that wanted to stay near the beach or travel there with their family. Also the hotel is wonderful for business trips.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r349992977-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>349992977</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Best pricing but</t>
+  </si>
+  <si>
+    <t>Best price by a lot for our stay here.  Rooms are great, nice TV and free wifi.  But a few things annoyed me.  The iron leaked.  Coffee was sparse only got two decaf pouches.  There is no room service.  The bar has only two stools, so most people have to order at the counter and sit at a table.  Two tiny tvs.  Limited choices for dinner cooked in a turbo oven.  Although the hamburger I had was really good.  Salads are great and humongous.  So although prices are great next time I'll choose a hotel with a great bar and a full restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>snasa, Front Office Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Best price by a lot for our stay here.  Rooms are great, nice TV and free wifi.  But a few things annoyed me.  The iron leaked.  Coffee was sparse only got two decaf pouches.  There is no room service.  The bar has only two stools, so most people have to order at the counter and sit at a table.  Two tiny tvs.  Limited choices for dinner cooked in a turbo oven.  Although the hamburger I had was really good.  Salads are great and humongous.  So although prices are great next time I'll choose a hotel with a great bar and a full restaurant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r348162941-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>348162941</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Good deal</t>
+  </si>
+  <si>
+    <t>Really enjoyed the stay here on a business trip coming from Germany. nice rooms with good beds and a very good service team. Breakfast was also good - nearby Mall is just amazing. Looking forward to come back and jump into the pool again. Thanks!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r347614994-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>347614994</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Nice landscaped hotel</t>
+  </si>
+  <si>
+    <t>Pros - clean looking, starbucks coffee, bistro, nic I staff, nice landscape (saw some orange trees around the property, which takes you back to the days when the area was agricultural growing oranges. I find that even though it is built next a major street, it seems  more   quiet of the many courtyard marriotts in the area. Many courtyards are built sandwiched between a freeway and a major street or a mall.  So, you get double the noise. This courtyard is in an industrial center.Cons - you have to drive out of your way to get to the major shops and restaurants. There is way too much furniture polish or cleaning solutions in the lobby - the smell is so strong, it permeates the entire first floor. If you have allergies to perfumed smells, this is not your place. The laundry room has no table, its just 2 machine units and a trash can. I saw one person at the front desk during busy times instead of two. The computer terminals and the slow software needs an upgrade. The keyboard is way too small,  it looks like it was made for grade school not adults.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pros - clean looking, starbucks coffee, bistro, nic I staff, nice landscape (saw some orange trees around the property, which takes you back to the days when the area was agricultural growing oranges. I find that even though it is built next a major street, it seems  more   quiet of the many courtyard marriotts in the area. Many courtyards are built sandwiched between a freeway and a major street or a mall.  So, you get double the noise. This courtyard is in an industrial center.Cons - you have to drive out of your way to get to the major shops and restaurants. There is way too much furniture polish or cleaning solutions in the lobby - the smell is so strong, it permeates the entire first floor. If you have allergies to perfumed smells, this is not your place. The laundry room has no table, its just 2 machine units and a trash can. I saw one person at the front desk during busy times instead of two. The computer terminals and the slow software needs an upgrade. The keyboard is way too small,  it looks like it was made for grade school not adults.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r339488984-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>339488984</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>Quick Holiday Trip</t>
+  </si>
+  <si>
+    <t>This little hotel was great for our purpose.  We needed a quiet safe place to stay near SNA.  The room was clean and cheap and very quiet.  the surrounding area is a business park so the evening traffic was minimal and it was easy to find. FREE PARKING - most the hotels we looked at had outrageous parking prices.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r328079687-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>328079687</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>Not really ok</t>
+  </si>
+  <si>
+    <t>Location was ok, breakfast expensive, bier expensive, gym from the 80's and the pool was cold. Rooms where a bit old but clean.  The icemachine outside my room was way to loud. It was a short drive to shopping and beaches.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>snasa, Front Office Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded November 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2015</t>
+  </si>
+  <si>
+    <t>Location was ok, breakfast expensive, bier expensive, gym from the 80's and the pool was cold. Rooms where a bit old but clean.  The icemachine outside my room was way to loud. It was a short drive to shopping and beaches.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r326131968-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>326131968</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Clean hotel, good location!</t>
+  </si>
+  <si>
+    <t>This Courtyard is very clean and quiet. The location is great; close to John Wayne airport, Newport Beach, and many restaurants. Our room was very comfortable. There is also plenty of free parking around the property. Overall, a great stay!</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r318762008-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>318762008</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>My friend and I stayed here for a concert we attended at the Constellation Room.  I love that it was walking distance from the venue and it was the nicest hotel around.  Though there isn't much to do around the area.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r317662824-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>317662824</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t>Nice setup for a Courtyard</t>
+  </si>
+  <si>
+    <t>This is a clean spacious hotel with remodeled lobby and rooms, but it is still an older hotel.
+The room is big and I like the California King Size bed with plenty of room to stretch out.  Both sides of the bed are equipped with electrical outlets which is convenient.  My room had a pull out bed built into the couch.  It also had a small balcony that overlooked the courtyard and pool.  
+The desk is extra spacious with plenty of room to spread out and work.   Multiple AC outlets are available in the lamp to connect your devices.The free wifi is zippy and had decent download speeds.  It is the typical Marriott wifi setup and authentication.  
+The TV multimedia outlets are accessible to plugin your own media.  HDMI, RCA, and USB are all available on the LG 40in screen.  
+The Courtyard provides you with a small refrigerator in the cabinet to keep stuff cool, but no microwave to warm things up.  
+The closet is decently sized and is able to accomodate one valet.  I like that there are hooks available to hang your clothes on.  
+The bathroom had a regular tub with a shower.  The shower head is nice and big and has great pressure which unusual for California.  
+The structure is rather flimsy and sound travels throught the thin walls and floors easily.  It is better to be on a higher floor and not deal with overhead noise....This is a clean spacious hotel with remodeled lobby and rooms, but it is still an older hotel.The room is big and I like the California King Size bed with plenty of room to stretch out.  Both sides of the bed are equipped with electrical outlets which is convenient.  My room had a pull out bed built into the couch.  It also had a small balcony that overlooked the courtyard and pool.  The desk is extra spacious with plenty of room to spread out and work.   Multiple AC outlets are available in the lamp to connect your devices.The free wifi is zippy and had decent download speeds.  It is the typical Marriott wifi setup and authentication.  The TV multimedia outlets are accessible to plugin your own media.  HDMI, RCA, and USB are all available on the LG 40in screen.  The Courtyard provides you with a small refrigerator in the cabinet to keep stuff cool, but no microwave to warm things up.  The closet is decently sized and is able to accomodate one valet.  I like that there are hooks available to hang your clothes on.  The bathroom had a regular tub with a shower.  The shower head is nice and big and has great pressure which unusual for California.  The structure is rather flimsy and sound travels throught the thin walls and floors easily.  It is better to be on a higher floor and not deal with overhead noise.  Overall this was a nice setup and I was pleased with the service and room.  The Courtyard has always been a pretty good value and this is no different.  Enjoy :)MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a clean spacious hotel with remodeled lobby and rooms, but it is still an older hotel.
+The room is big and I like the California King Size bed with plenty of room to stretch out.  Both sides of the bed are equipped with electrical outlets which is convenient.  My room had a pull out bed built into the couch.  It also had a small balcony that overlooked the courtyard and pool.  
+The desk is extra spacious with plenty of room to spread out and work.   Multiple AC outlets are available in the lamp to connect your devices.The free wifi is zippy and had decent download speeds.  It is the typical Marriott wifi setup and authentication.  
+The TV multimedia outlets are accessible to plugin your own media.  HDMI, RCA, and USB are all available on the LG 40in screen.  
+The Courtyard provides you with a small refrigerator in the cabinet to keep stuff cool, but no microwave to warm things up.  
+The closet is decently sized and is able to accomodate one valet.  I like that there are hooks available to hang your clothes on.  
+The bathroom had a regular tub with a shower.  The shower head is nice and big and has great pressure which unusual for California.  
+The structure is rather flimsy and sound travels throught the thin walls and floors easily.  It is better to be on a higher floor and not deal with overhead noise....This is a clean spacious hotel with remodeled lobby and rooms, but it is still an older hotel.The room is big and I like the California King Size bed with plenty of room to stretch out.  Both sides of the bed are equipped with electrical outlets which is convenient.  My room had a pull out bed built into the couch.  It also had a small balcony that overlooked the courtyard and pool.  The desk is extra spacious with plenty of room to spread out and work.   Multiple AC outlets are available in the lamp to connect your devices.The free wifi is zippy and had decent download speeds.  It is the typical Marriott wifi setup and authentication.  The TV multimedia outlets are accessible to plugin your own media.  HDMI, RCA, and USB are all available on the LG 40in screen.  The Courtyard provides you with a small refrigerator in the cabinet to keep stuff cool, but no microwave to warm things up.  The closet is decently sized and is able to accomodate one valet.  I like that there are hooks available to hang your clothes on.  The bathroom had a regular tub with a shower.  The shower head is nice and big and has great pressure which unusual for California.  The structure is rather flimsy and sound travels throught the thin walls and floors easily.  It is better to be on a higher floor and not deal with overhead noise.  Overall this was a nice setup and I was pleased with the service and room.  The Courtyard has always been a pretty good value and this is no different.  Enjoy :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r317327769-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>317327769</t>
+  </si>
+  <si>
+    <t>10/09/2015</t>
+  </si>
+  <si>
+    <t>Not bad but it could be better</t>
+  </si>
+  <si>
+    <t>I stayed 5 days , the location of the hotel is very good as it is 5 miles from Newport, 6 miles from Huntington Beach, 5 miles from Anahiem conference center, 5 minutes from the wander full south cost plaza .. The room is standees nothing special. I was suppose that the breakfast and coffee is not for free. Last year I stayed in courtyard hotel and I remember that the breakfast and coffee was completely. I stayed after that at the Hilton Huntington Beach which is better than this hotel with only extra $40 per night. The room rate is expensive for what you get. MoreShow less</t>
+  </si>
+  <si>
+    <t>snasa, Front Office Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded October 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2015</t>
+  </si>
+  <si>
+    <t>I stayed 5 days , the location of the hotel is very good as it is 5 miles from Newport, 6 miles from Huntington Beach, 5 miles from Anahiem conference center, 5 minutes from the wander full south cost plaza .. The room is standees nothing special. I was suppose that the breakfast and coffee is not for free. Last year I stayed in courtyard hotel and I remember that the breakfast and coffee was completely. I stayed after that at the Hilton Huntington Beach which is better than this hotel with only extra $40 per night. The room rate is expensive for what you get. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r297391937-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>297391937</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Nice property and great staff</t>
+  </si>
+  <si>
+    <t>We visited while in the area on a combined family and work trip.  The hotel was well located and easy to find.  If you come in late, you may have difficulty with parking, but the surface lot was very convenient.  The staff was very welcoming and quickly provided us with room keys and information on breakfast, hotel amenities, etc.  Our room was large and clean.  If in the area, we would stay here again.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r293444193-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>293444193</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Too noisy!!</t>
+  </si>
+  <si>
+    <t>This was as close to Newport as we could get. Having stayed often in marriotts I was disappointed with this one. Our room was on the road side and the noise was unbelievable. We were woken up before 6am with traffic noise. Also the wifi didn't work. Even when we upgraded to the $5/day, we didn't have a connection unless we were in the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded July 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2015</t>
+  </si>
+  <si>
+    <t>This was as close to Newport as we could get. Having stayed often in marriotts I was disappointed with this one. Our room was on the road side and the noise was unbelievable. We were woken up before 6am with traffic noise. Also the wifi didn't work. Even when we upgraded to the $5/day, we didn't have a connection unless we were in the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r288669286-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>288669286</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>great customer service</t>
+  </si>
+  <si>
+    <t>Asked for quiet room and got one.  Unfortunately, the family (or families) next to and across the hall were terrible.  Kids running, yelling, crying and no parents to be found.  Dealt with it for a couple hours since it was early evening.  But I was concerned their behavior would continue late into night.I called the front desk and spoke to Rafael.  Said no problem and would bring me the keys to new room.  He was there within 10 minutes!  Lifesaver, as I got a very quiet room and slept well.Hotel is clean, plenty of parking and a good location for me, as I attended concert withing walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Asked for quiet room and got one.  Unfortunately, the family (or families) next to and across the hall were terrible.  Kids running, yelling, crying and no parents to be found.  Dealt with it for a couple hours since it was early evening.  But I was concerned their behavior would continue late into night.I called the front desk and spoke to Rafael.  Said no problem and would bring me the keys to new room.  He was there within 10 minutes!  Lifesaver, as I got a very quiet room and slept well.Hotel is clean, plenty of parking and a good location for me, as I attended concert withing walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r278202894-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>278202894</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Ok, and convenient</t>
+  </si>
+  <si>
+    <t>Not the best Courtyard, but the location and price were right.Bistro bar is one of the better ones, with really nice staff.Rooms are ok, nicer ones face the courtyard and overlook the pool.Elevators are really slow.  This is a major problem in the morning when they are all jammed with housekeeping staff and their carts.  Try a lower floor and use the stairs, but tat is a pain when you have rolling bags.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Not the best Courtyard, but the location and price were right.Bistro bar is one of the better ones, with really nice staff.Rooms are ok, nicer ones face the courtyard and overlook the pool.Elevators are really slow.  This is a major problem in the morning when they are all jammed with housekeeping staff and their carts.  Try a lower floor and use the stairs, but tat is a pain when you have rolling bags.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r277117494-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>277117494</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Good Choice near enough UCI</t>
+  </si>
+  <si>
+    <t>My son and his team stayed here recently for a soccer tournament taking place at UC Irvine. This hotel was easily $50 less than the hotels we found within 3 miles of the college. It sits 6 miles away, but it is an easy freeway ride to the school if you are visiting, and has free parking which many closer hotels charge for. Just take the 73S, and exit before the first toll exit. You don't need a pass or pay a fee, as long as you exit before the toll road begins. 
+The hotel itself was comfortable but not fancy, with a nice pool/outdoor courtyard perfect for the kids to run around and play in. There is a good gym, and a very nice lobby with a cafe and lots of seating. There is a kids menu on request, so be sure to ask. The breakfast actually cost less than the I-Hop we ended up at the day before, and was good.  They even serve Starbucks coffee. 
+If you want to venture out there are many restaurants within a mile or two but none walkable. We were focused on kid friendly (Applebee's, Sonic's, fast food).  
+The room was clean and ours was large. The staff was nice. We used the Marriott app to check in and told them we would be there around 11:00. Our room key was waiting even though it was officially still a few hours until...My son and his team stayed here recently for a soccer tournament taking place at UC Irvine. This hotel was easily $50 less than the hotels we found within 3 miles of the college. It sits 6 miles away, but it is an easy freeway ride to the school if you are visiting, and has free parking which many closer hotels charge for. Just take the 73S, and exit before the first toll exit. You don't need a pass or pay a fee, as long as you exit before the toll road begins.  The hotel itself was comfortable but not fancy, with a nice pool/outdoor courtyard perfect for the kids to run around and play in. There is a good gym, and a very nice lobby with a cafe and lots of seating. There is a kids menu on request, so be sure to ask. The breakfast actually cost less than the I-Hop we ended up at the day before, and was good.  They even serve Starbucks coffee. If you want to venture out there are many restaurants within a mile or two but none walkable. We were focused on kid friendly (Applebee's, Sonic's, fast food).  The room was clean and ours was large. The staff was nice. We used the Marriott app to check in and told them we would be there around 11:00. Our room key was waiting even though it was officially still a few hours until checkin.  It all worked great. I wouldn't hesitate to stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>My son and his team stayed here recently for a soccer tournament taking place at UC Irvine. This hotel was easily $50 less than the hotels we found within 3 miles of the college. It sits 6 miles away, but it is an easy freeway ride to the school if you are visiting, and has free parking which many closer hotels charge for. Just take the 73S, and exit before the first toll exit. You don't need a pass or pay a fee, as long as you exit before the toll road begins. 
+The hotel itself was comfortable but not fancy, with a nice pool/outdoor courtyard perfect for the kids to run around and play in. There is a good gym, and a very nice lobby with a cafe and lots of seating. There is a kids menu on request, so be sure to ask. The breakfast actually cost less than the I-Hop we ended up at the day before, and was good.  They even serve Starbucks coffee. 
+If you want to venture out there are many restaurants within a mile or two but none walkable. We were focused on kid friendly (Applebee's, Sonic's, fast food).  
+The room was clean and ours was large. The staff was nice. We used the Marriott app to check in and told them we would be there around 11:00. Our room key was waiting even though it was officially still a few hours until...My son and his team stayed here recently for a soccer tournament taking place at UC Irvine. This hotel was easily $50 less than the hotels we found within 3 miles of the college. It sits 6 miles away, but it is an easy freeway ride to the school if you are visiting, and has free parking which many closer hotels charge for. Just take the 73S, and exit before the first toll exit. You don't need a pass or pay a fee, as long as you exit before the toll road begins.  The hotel itself was comfortable but not fancy, with a nice pool/outdoor courtyard perfect for the kids to run around and play in. There is a good gym, and a very nice lobby with a cafe and lots of seating. There is a kids menu on request, so be sure to ask. The breakfast actually cost less than the I-Hop we ended up at the day before, and was good.  They even serve Starbucks coffee. If you want to venture out there are many restaurants within a mile or two but none walkable. We were focused on kid friendly (Applebee's, Sonic's, fast food).  The room was clean and ours was large. The staff was nice. We used the Marriott app to check in and told them we would be there around 11:00. Our room key was waiting even though it was officially still a few hours until checkin.  It all worked great. I wouldn't hesitate to stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r274320994-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>274320994</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>Nice property, kind of in the middle of nowhere!</t>
+  </si>
+  <si>
+    <t>Usually stay at the Costa Mesa Marriott, but was looking for something a bit more budget conscious. Nice enough property, seems a little older, and could use a freshening. Not much around it, as it is really in Santa Ana, not Costa Mesa.Quick two night stay, no problems, could have really used a room not facing a main thoroughfare.MoreShow less</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Usually stay at the Costa Mesa Marriott, but was looking for something a bit more budget conscious. Nice enough property, seems a little older, and could use a freshening. Not much around it, as it is really in Santa Ana, not Costa Mesa.Quick two night stay, no problems, could have really used a room not facing a main thoroughfare.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r269056119-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>269056119</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Very pleasant stay</t>
+  </si>
+  <si>
+    <t>I stayed here for one night whilst in town to see a concert at the Observatory (just a few blocks away). We had 2 rooms total.We arrived early and enquired about checking in prior to the standard time of 3pm. The receptionist was really helpful and allowed us to check in just after 12pm, and managed to put our rooms next to each other which was awesome.The parking was widely available when we got there, but when we went out and came back later that evening, it got really full. We did find a space after driving around the hotel to the back. This was not a huge problem for us though, just worth a mention.The room was roomy and clean, the bed was super comfortable and the bathroom was spacious and clean. The room also had an iron and ironing board which was great.The main lobby was a very pleasant area to sit and relax in when we met some friends who were also staying in the same hotel.Overall a very pleasant experience. Would stay here again if I was visiting the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for one night whilst in town to see a concert at the Observatory (just a few blocks away). We had 2 rooms total.We arrived early and enquired about checking in prior to the standard time of 3pm. The receptionist was really helpful and allowed us to check in just after 12pm, and managed to put our rooms next to each other which was awesome.The parking was widely available when we got there, but when we went out and came back later that evening, it got really full. We did find a space after driving around the hotel to the back. This was not a huge problem for us though, just worth a mention.The room was roomy and clean, the bed was super comfortable and the bathroom was spacious and clean. The room also had an iron and ironing board which was great.The main lobby was a very pleasant area to sit and relax in when we met some friends who were also staying in the same hotel.Overall a very pleasant experience. Would stay here again if I was visiting the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r261286342-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>261286342</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>We got to spin a "Wheel of Fortune" thing at check-in!</t>
+  </si>
+  <si>
+    <t>I love when you get to be pleasantly surprised checking into hotels.As platinum members, we were upgraded to a suite, always a plus, plus they had this wheel thing and we earned more bonus points.Front desk staff was super friendly too.Bed was super comfortable, and it was nice having a separate room with a couch to work on in the morning.The only complaint was the constant flashing of the fire alarm in front of the bed that woke up both my husband and I several times through the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded March 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2015</t>
+  </si>
+  <si>
+    <t>I love when you get to be pleasantly surprised checking into hotels.As platinum members, we were upgraded to a suite, always a plus, plus they had this wheel thing and we earned more bonus points.Front desk staff was super friendly too.Bed was super comfortable, and it was nice having a separate room with a couch to work on in the morning.The only complaint was the constant flashing of the fire alarm in front of the bed that woke up both my husband and I several times through the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r260584923-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>260584923</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>Simple overnight</t>
+  </si>
+  <si>
+    <t>I am not a demanding traveler. I expect cleanliness, reasonable comfort, simple but pleasing decor, and easy access to simple foods. On the other hand, I am also a demading traveler in that I seek openable windows or balcony doors, and siting such that I can leave the curtains open and wake up to sky and (ideally) treetops. And in a new geography (which this was for me) I care about the complexity of the route from/to the airport, and the traffic patterns at the hotel entry. All good at this property. And the pluses included an elegant bathroom (with near-instant hot water), a convenient interior stairwell and an unusually appealing pool. [I rarely use hotel pools. And I didn't have the time to try this one. But it was tempting.] The hotels near the airport would have been closer to my local destinations. But this property was a far better choice for me... everything I needed, and consistent with the leisure nature of the trip.
+Location... I didn't click the location-rating button because the suitability depends totally on travel agenda. Others may describe the location as "in the middle of nowhere". And I certainly wouldn't book here without a car. But restaurants and stores are reasonably accessible. And the "nowhere" aspect is part of the relative quiet of this property in the general Southern California buzzyness. As a quiet base, it was great.
+Bistro food - I only tried...I am not a demanding traveler. I expect cleanliness, reasonable comfort, simple but pleasing decor, and easy access to simple foods. On the other hand, I am also a demading traveler in that I seek openable windows or balcony doors, and siting such that I can leave the curtains open and wake up to sky and (ideally) treetops. And in a new geography (which this was for me) I care about the complexity of the route from/to the airport, and the traffic patterns at the hotel entry. All good at this property. And the pluses included an elegant bathroom (with near-instant hot water), a convenient interior stairwell and an unusually appealing pool. [I rarely use hotel pools. And I didn't have the time to try this one. But it was tempting.] The hotels near the airport would have been closer to my local destinations. But this property was a far better choice for me... everything I needed, and consistent with the leisure nature of the trip.Location... I didn't click the location-rating button because the suitability depends totally on travel agenda. Others may describe the location as "in the middle of nowhere". And I certainly wouldn't book here without a car. But restaurants and stores are reasonably accessible. And the "nowhere" aspect is part of the relative quiet of this property in the general Southern California buzzyness. As a quiet base, it was great.Bistro food - I only tried breakfast. Yes, "overpriced". But good, and quick, and convenient, and eaten in a very pleasant morning-light space.MoreShow less</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded March 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2015</t>
+  </si>
+  <si>
+    <t>I am not a demanding traveler. I expect cleanliness, reasonable comfort, simple but pleasing decor, and easy access to simple foods. On the other hand, I am also a demading traveler in that I seek openable windows or balcony doors, and siting such that I can leave the curtains open and wake up to sky and (ideally) treetops. And in a new geography (which this was for me) I care about the complexity of the route from/to the airport, and the traffic patterns at the hotel entry. All good at this property. And the pluses included an elegant bathroom (with near-instant hot water), a convenient interior stairwell and an unusually appealing pool. [I rarely use hotel pools. And I didn't have the time to try this one. But it was tempting.] The hotels near the airport would have been closer to my local destinations. But this property was a far better choice for me... everything I needed, and consistent with the leisure nature of the trip.
+Location... I didn't click the location-rating button because the suitability depends totally on travel agenda. Others may describe the location as "in the middle of nowhere". And I certainly wouldn't book here without a car. But restaurants and stores are reasonably accessible. And the "nowhere" aspect is part of the relative quiet of this property in the general Southern California buzzyness. As a quiet base, it was great.
+Bistro food - I only tried...I am not a demanding traveler. I expect cleanliness, reasonable comfort, simple but pleasing decor, and easy access to simple foods. On the other hand, I am also a demading traveler in that I seek openable windows or balcony doors, and siting such that I can leave the curtains open and wake up to sky and (ideally) treetops. And in a new geography (which this was for me) I care about the complexity of the route from/to the airport, and the traffic patterns at the hotel entry. All good at this property. And the pluses included an elegant bathroom (with near-instant hot water), a convenient interior stairwell and an unusually appealing pool. [I rarely use hotel pools. And I didn't have the time to try this one. But it was tempting.] The hotels near the airport would have been closer to my local destinations. But this property was a far better choice for me... everything I needed, and consistent with the leisure nature of the trip.Location... I didn't click the location-rating button because the suitability depends totally on travel agenda. Others may describe the location as "in the middle of nowhere". And I certainly wouldn't book here without a car. But restaurants and stores are reasonably accessible. And the "nowhere" aspect is part of the relative quiet of this property in the general Southern California buzzyness. As a quiet base, it was great.Bistro food - I only tried breakfast. Yes, "overpriced". But good, and quick, and convenient, and eaten in a very pleasant morning-light space.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r255927656-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>255927656</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay. Personell upon check in was very friendly and helpful. Nice lobby area with a little 'market place'. Our room was quite spacious, with a little couch to sit on. Comfortable bed and shower. Conveniently located (you will need a car, though) close to South Coast Plaza and Newport Beach and beyond.Wifi in the room is of excellent quality.Nice hotel, would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded March 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2015</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay. Personell upon check in was very friendly and helpful. Nice lobby area with a little 'market place'. Our room was quite spacious, with a little couch to sit on. Comfortable bed and shower. Conveniently located (you will need a car, though) close to South Coast Plaza and Newport Beach and beyond.Wifi in the room is of excellent quality.Nice hotel, would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r253607772-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>253607772</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>Great service - Will Stay Here Again</t>
+  </si>
+  <si>
+    <t>We recently stayed here for 3 nights. The location on Harbor Blvd. gives good access to eateries. It is about 10-15 minutes north of Newport and Huntington Beaches. There is a restaurant in the hotel and there is a small convenience cubby which sells drinks, food - and the food prepared fresh! The room was clear, the bed was comfortable - the linens were fresh and clean which was nice. The few staff members that we interacted with were helpful - include a flat screen tv and a tub.People at the front desk was very pleasant and helpful. He represented the hotel well.  Ask for a high floor, away from the elevators, an inside room to avoid highway noise - facing the pool.We would definitely recommend this for business and vacation travelers!!!.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded February 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2015</t>
+  </si>
+  <si>
+    <t>We recently stayed here for 3 nights. The location on Harbor Blvd. gives good access to eateries. It is about 10-15 minutes north of Newport and Huntington Beaches. There is a restaurant in the hotel and there is a small convenience cubby which sells drinks, food - and the food prepared fresh! The room was clear, the bed was comfortable - the linens were fresh and clean which was nice. The few staff members that we interacted with were helpful - include a flat screen tv and a tub.People at the front desk was very pleasant and helpful. He represented the hotel well.  Ask for a high floor, away from the elevators, an inside room to avoid highway noise - facing the pool.We would definitely recommend this for business and vacation travelers!!!.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r246265742-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>246265742</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Perfect Hotel for Big Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel has a lot of courtyard space for big family to hang out. Lovely setting at the lobby with more hangout space/TV. Rooms are spacious snd very clean. Cafe staff were very helpful. They let me buy a cup of tea after closing through the front desk cashier. I was pleasantly surprise. They even let me extend my check out for an extra hour without giving me a hard time. I had a peaceful and relaxing weekend here. Will certainly come back again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r234451144-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>234451144</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Great hotel but something's off</t>
+  </si>
+  <si>
+    <t>This hotel was super convenient for my work trip and my early AM trip to Newport Beach . It's modern and nice but I had to document a few issues. 1- room had a funny odor like urine but could've been the cleaner used2- I had left a clean room and returned to new towels and a un flushed "used" toilet3. I was on the ground floor directly next to the exterior door which seems to be a perk for ease of coming and going but was anything but when I was up all night as guest would come and go and I heard each one like they were in my bed!4. Front desk was not able to check me out because my flight was early ( had to leave at 330 am) but advertised 24 hours Breakfast was awesome and starbucks coffee in house was great . Also can't stress enough that the locations was great !!MoreShow less</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded October 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was super convenient for my work trip and my early AM trip to Newport Beach . It's modern and nice but I had to document a few issues. 1- room had a funny odor like urine but could've been the cleaner used2- I had left a clean room and returned to new towels and a un flushed "used" toilet3. I was on the ground floor directly next to the exterior door which seems to be a perk for ease of coming and going but was anything but when I was up all night as guest would come and go and I heard each one like they were in my bed!4. Front desk was not able to check me out because my flight was early ( had to leave at 330 am) but advertised 24 hours Breakfast was awesome and starbucks coffee in house was great . Also can't stress enough that the locations was great !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r227586176-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>227586176</t>
+  </si>
+  <si>
+    <t>09/07/2014</t>
+  </si>
+  <si>
+    <t>Convenient, Current &amp; Cost Effective</t>
+  </si>
+  <si>
+    <t>This is a convenient hotel that is great for the business professional that likes straight forward, clean and cost effective lodging for a business trip.  Their lobby is updated and access to the hotel is easy just off the 405 freeway.  My only complaint from my recent stay was that the cnn channel on the tv did not work.  I called the front desk and received a less than eager response from someone at the front desk.  The TV's in the rooms are very nice, but without cnn it does me no good!  At the same time, I would say that the front desk staff when I checked in was really great.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded September 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2014</t>
+  </si>
+  <si>
+    <t>This is a convenient hotel that is great for the business professional that likes straight forward, clean and cost effective lodging for a business trip.  Their lobby is updated and access to the hotel is easy just off the 405 freeway.  My only complaint from my recent stay was that the cnn channel on the tv did not work.  I called the front desk and received a less than eager response from someone at the front desk.  The TV's in the rooms are very nice, but without cnn it does me no good!  At the same time, I would say that the front desk staff when I checked in was really great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r226750903-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>226750903</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Does the job</t>
+  </si>
+  <si>
+    <t>Stayed here for a business trip. Centrally located to Fountain Valley. Close to John Wayne Airport. Rooms are clean. Exercise room is top notch. Service was excellent. Free Wi-Fi and parking. Even the food at the bistro was good. Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for a business trip. Centrally located to Fountain Valley. Close to John Wayne Airport. Rooms are clean. Exercise room is top notch. Service was excellent. Free Wi-Fi and parking. Even the food at the bistro was good. Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r221890748-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>221890748</t>
+  </si>
+  <si>
+    <t>08/14/2014</t>
+  </si>
+  <si>
+    <t>Really like this hotel</t>
+  </si>
+  <si>
+    <t>I recently stayed here for 4 nights over 2 separate stays.  Ask for an inside room to avoid highway noise.  Very comfortable beds, and an excellent shower experience.  Most of the staff, especially the guy at the front desk whose name begins with "R," are very pleasant.  He is an awesome customer service rep.The only negative was that one day our room wasn't cleaned until 4:30 PM, and the next day until 5:15 PM.  This cut into our getting ready for the evening.MoreShow less</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded August 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2014</t>
+  </si>
+  <si>
+    <t>I recently stayed here for 4 nights over 2 separate stays.  Ask for an inside room to avoid highway noise.  Very comfortable beds, and an excellent shower experience.  Most of the staff, especially the guy at the front desk whose name begins with "R," are very pleasant.  He is an awesome customer service rep.The only negative was that one day our room wasn't cleaned until 4:30 PM, and the next day until 5:15 PM.  This cut into our getting ready for the evening.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r219144501-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>219144501</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>Good houskeeping. Respectful staff</t>
+  </si>
+  <si>
+    <t>We stayed here on our family vacation. It was very clean. I had a quiet room with a balcony. It does come with a coffee maker or you can go downstairs and get a Starbucks ( which i personally thought was awesome). The staff respected my things when they came in and cleaned. Loved that they had the idea of a pull out couch however my boys complained in wasn't very comfortable and one even slept on the floor to avoid it. The front desk made a very quick check in check out. Oh and I have to say we love swimming in the salt water pool. Soft water.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here on our family vacation. It was very clean. I had a quiet room with a balcony. It does come with a coffee maker or you can go downstairs and get a Starbucks ( which i personally thought was awesome). The staff respected my things when they came in and cleaned. Loved that they had the idea of a pull out couch however my boys complained in wasn't very comfortable and one even slept on the floor to avoid it. The front desk made a very quick check in check out. Oh and I have to say we love swimming in the salt water pool. Soft water.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r218231910-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>218231910</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>very nice hotel, friendly staff</t>
+  </si>
+  <si>
+    <t>We appreciate the clean hotel, and friendly staff at this Courtyard.   The pool is salt water, and was clean and enjoyable.   This hotel is located close to the airport, but charged less reward points than the Courtyard that is right by the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded July 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2014</t>
+  </si>
+  <si>
+    <t>We appreciate the clean hotel, and friendly staff at this Courtyard.   The pool is salt water, and was clean and enjoyable.   This hotel is located close to the airport, but charged less reward points than the Courtyard that is right by the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r200735689-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>200735689</t>
+  </si>
+  <si>
+    <t>04/11/2014</t>
+  </si>
+  <si>
+    <t>Could be a 4 for location of near by businesses, however price high</t>
+  </si>
+  <si>
+    <t>Business trip brought me here... a decent location related to other nearby hotels, and close to the business park. Hotel is clean, staff is nice, however no restaurant on site for supper... just a small counter type grill for simple sandwiches, etc..  The only real downfall is the price is too high for this hotel (Avg. 119-189).. this place in comparison is about a 99.-129 type hotel. Caters to business in the area and a better option than say the vagabond and quality in down the block.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded April 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2014</t>
+  </si>
+  <si>
+    <t>Business trip brought me here... a decent location related to other nearby hotels, and close to the business park. Hotel is clean, staff is nice, however no restaurant on site for supper... just a small counter type grill for simple sandwiches, etc..  The only real downfall is the price is too high for this hotel (Avg. 119-189).. this place in comparison is about a 99.-129 type hotel. Caters to business in the area and a better option than say the vagabond and quality in down the block.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r197708459-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>197708459</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>Noisy, very average</t>
+  </si>
+  <si>
+    <t>Average Courtyard, located near my meetings.  The problem with the hotel was the very noisy street which was horrible for getting any rest.  Traffic was very loud and it was difficult to sleep. Staff was ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded March 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2014</t>
+  </si>
+  <si>
+    <t>Average Courtyard, located near my meetings.  The problem with the hotel was the very noisy street which was horrible for getting any rest.  Traffic was very loud and it was difficult to sleep. Staff was ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r197553090-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>197553090</t>
+  </si>
+  <si>
+    <t>03/15/2014</t>
+  </si>
+  <si>
+    <t>Horrible to have guest rooms near a lobby when they know they have a wedding reception</t>
+  </si>
+  <si>
+    <t>The point of a hotel is a place to sleep. Yet knowing they had a wedding reception booked for their lobby, they gave us (non wedding guests) the room closest to the lobby. Guess how much sleep I got? And all the manager said was "they are winding down" as people are yelling and screaming and I still not asleep. Awful!MoreShow less</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded March 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2014</t>
+  </si>
+  <si>
+    <t>The point of a hotel is a place to sleep. Yet knowing they had a wedding reception booked for their lobby, they gave us (non wedding guests) the room closest to the lobby. Guess how much sleep I got? And all the manager said was "they are winding down" as people are yelling and screaming and I still not asleep. Awful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r193864687-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>193864687</t>
+  </si>
+  <si>
+    <t>02/12/2014</t>
+  </si>
+  <si>
+    <t>Quick and Easy</t>
+  </si>
+  <si>
+    <t>The room was clear, the bed was comfortable, and the few staff members that I interacted with were helpful.  My stay was a quick business trip: I arrived late in the day, slept, had a small breakfast at the coffee shop in the lobby (I Starbucks if I remember correctly), and left early the next morning.  Nothing was "WOW," but that's not what I was looking for.  I wanted quick and easy, and that's what it was.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded February 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2014</t>
+  </si>
+  <si>
+    <t>The room was clear, the bed was comfortable, and the few staff members that I interacted with were helpful.  My stay was a quick business trip: I arrived late in the day, slept, had a small breakfast at the coffee shop in the lobby (I Starbucks if I remember correctly), and left early the next morning.  Nothing was "WOW," but that's not what I was looking for.  I wanted quick and easy, and that's what it was.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r187931803-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>187931803</t>
+  </si>
+  <si>
+    <t>12/17/2013</t>
+  </si>
+  <si>
+    <t>Middle of the road Courtyard</t>
+  </si>
+  <si>
+    <t>It's a fairly typical Courtyard. No deal breaker problems, but not stellar either. Fine for all practical purposes.  Usually there is a small mini fridge in rooms at Courtyards, not in my room here.
+The room had a little bit of an old,  dank smell. Not oppressive but certainly not great.  
+Staff was nice and professional.  Especially housekeeping,  My room was missing a luggage stand, when I tried calling the front desk twice with no answer either time. I walked out into the hallway and the housekeeper busy cleaning a room,  found an extra one in a room and gave it to me.  
+(you can judge for yourself about them not answering the front desk phone at 3:30 in the afternoon on a Tuesday, I let it ring at least 8 times each attempt).
+Not very pleased that they've removed the whirlpool to move the fitness room closer to the pool . I'm sure most people might like it, I'm not a fan.
+One issue I noticed is that doors sound as loud as thunder claps.  Not sure whether it's just guests slamming the doors or that the construction of the property is substandard where you can hear everything going on.  I did also  clearly hear conversations outside in the parking lot while I had the TV on. So I am leaning towards the latter.
+WiFi was slow,  as were the business center computers.   This is probably my biggest complaint.....It's a fairly typical Courtyard. No deal breaker problems, but not stellar either. Fine for all practical purposes.  Usually there is a small mini fridge in rooms at Courtyards, not in my room here.The room had a little bit of an old,  dank smell. Not oppressive but certainly not great.  Staff was nice and professional.  Especially housekeeping,  My room was missing a luggage stand, when I tried calling the front desk twice with no answer either time. I walked out into the hallway and the housekeeper busy cleaning a room,  found an extra one in a room and gave it to me.  (you can judge for yourself about them not answering the front desk phone at 3:30 in the afternoon on a Tuesday, I let it ring at least 8 times each attempt).Not very pleased that they've removed the whirlpool to move the fitness room closer to the pool . I'm sure most people might like it, I'm not a fan.One issue I noticed is that doors sound as loud as thunder claps.  Not sure whether it's just guests slamming the doors or that the construction of the property is substandard where you can hear everything going on.  I did also  clearly hear conversations outside in the parking lot while I had the TV on. So I am leaning towards the latter.WiFi was slow,  as were the business center computers.   This is probably my biggest complaint.. as many people are here for business and  need the WiFi working well.  Overall fine,  not the worst by far,  and not the best.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>It's a fairly typical Courtyard. No deal breaker problems, but not stellar either. Fine for all practical purposes.  Usually there is a small mini fridge in rooms at Courtyards, not in my room here.
+The room had a little bit of an old,  dank smell. Not oppressive but certainly not great.  
+Staff was nice and professional.  Especially housekeeping,  My room was missing a luggage stand, when I tried calling the front desk twice with no answer either time. I walked out into the hallway and the housekeeper busy cleaning a room,  found an extra one in a room and gave it to me.  
+(you can judge for yourself about them not answering the front desk phone at 3:30 in the afternoon on a Tuesday, I let it ring at least 8 times each attempt).
+Not very pleased that they've removed the whirlpool to move the fitness room closer to the pool . I'm sure most people might like it, I'm not a fan.
+One issue I noticed is that doors sound as loud as thunder claps.  Not sure whether it's just guests slamming the doors or that the construction of the property is substandard where you can hear everything going on.  I did also  clearly hear conversations outside in the parking lot while I had the TV on. So I am leaning towards the latter.
+WiFi was slow,  as were the business center computers.   This is probably my biggest complaint.....It's a fairly typical Courtyard. No deal breaker problems, but not stellar either. Fine for all practical purposes.  Usually there is a small mini fridge in rooms at Courtyards, not in my room here.The room had a little bit of an old,  dank smell. Not oppressive but certainly not great.  Staff was nice and professional.  Especially housekeeping,  My room was missing a luggage stand, when I tried calling the front desk twice with no answer either time. I walked out into the hallway and the housekeeper busy cleaning a room,  found an extra one in a room and gave it to me.  (you can judge for yourself about them not answering the front desk phone at 3:30 in the afternoon on a Tuesday, I let it ring at least 8 times each attempt).Not very pleased that they've removed the whirlpool to move the fitness room closer to the pool . I'm sure most people might like it, I'm not a fan.One issue I noticed is that doors sound as loud as thunder claps.  Not sure whether it's just guests slamming the doors or that the construction of the property is substandard where you can hear everything going on.  I did also  clearly hear conversations outside in the parking lot while I had the TV on. So I am leaning towards the latter.WiFi was slow,  as were the business center computers.   This is probably my biggest complaint.. as many people are here for business and  need the WiFi working well.  Overall fine,  not the worst by far,  and not the best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r184537618-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>184537618</t>
+  </si>
+  <si>
+    <t>11/12/2013</t>
+  </si>
+  <si>
+    <t>Very nice place to stay in!</t>
+  </si>
+  <si>
+    <t>Good location, great prices and friendly staff. The coffee/breakfast bar is awesome with very friendly staff. The only annoying thing (which probably applies to all hotels) is the their overpriced items at the 24 hour market. I took a bottle of water and nyquil and I got slapped with a $12 charge. Would stay there again!</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r181193045-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>181193045</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>We booked this hotel for a concert in LA,preferring to stay in Orange County.I  always try to book a Marriott as they rarely disappoint,and this one was no exception.Very nice ,very clean,great staff and good parking.As usual we prefer a top floor and we stayed on the fourth floor.The area was a little industrial which means it was very quiet at night,even daytime wasn't very noisy.We would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r179233000-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>179233000</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>Improved since some earlier lower ratings</t>
+  </si>
+  <si>
+    <t>I think this is a solid 4 out of 5 - not sure what the issues were from earlier lower ratings but I guess some things were improved.
+Location is great, just off the beaten path from the hectic South Coast Plaza area but still close enough to be convenient.  Right on the border of Costa Mesa and Santa Ana, but feels relatively safe being surround by mostly corporate buildings.  A good value for the price.
+The guy at the front desk was efficient and polite.  Lobby area had free popcorn and free iced cucumber water available near the Bistro which is a nice touch.
+I think a lot of people requested upper level rooms away from the elevators, since a whole bunch of guests were jam packed into my end of the floor, and the hotel couldn't have been more than 1/4 occupied.  Due to poor construction, I heard everything from everyone - all the hallway noise, doors slamming (very loud - you'd think people would have some courtesy to close their doors a little softer), and I heard everything room the unit next to me - the guy coughing/clearing his throat, conversations, TV noise, plumbing noise, drawers closing - everything.  Very thin walls.
+Other than the noise, I had a quiet experience once everyone went to bed.  I was on the fourth floor facing the pool so no outside noise all night - lots of landscaping and garbage...I think this is a solid 4 out of 5 - not sure what the issues were from earlier lower ratings but I guess some things were improved.Location is great, just off the beaten path from the hectic South Coast Plaza area but still close enough to be convenient.  Right on the border of Costa Mesa and Santa Ana, but feels relatively safe being surround by mostly corporate buildings.  A good value for the price.The guy at the front desk was efficient and polite.  Lobby area had free popcorn and free iced cucumber water available near the Bistro which is a nice touch.I think a lot of people requested upper level rooms away from the elevators, since a whole bunch of guests were jam packed into my end of the floor, and the hotel couldn't have been more than 1/4 occupied.  Due to poor construction, I heard everything from everyone - all the hallway noise, doors slamming (very loud - you'd think people would have some courtesy to close their doors a little softer), and I heard everything room the unit next to me - the guy coughing/clearing his throat, conversations, TV noise, plumbing noise, drawers closing - everything.  Very thin walls.Other than the noise, I had a quiet experience once everyone went to bed.  I was on the fourth floor facing the pool so no outside noise all night - lots of landscaping and garbage truck noise in the morning though.I must say the bed sheets were the freshest I've experienced in a while from a Marriott branded property - I've stayed at a half dozen recently and there was always some musty smell or head smell.  The linens were fresh and clean which was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I think this is a solid 4 out of 5 - not sure what the issues were from earlier lower ratings but I guess some things were improved.
+Location is great, just off the beaten path from the hectic South Coast Plaza area but still close enough to be convenient.  Right on the border of Costa Mesa and Santa Ana, but feels relatively safe being surround by mostly corporate buildings.  A good value for the price.
+The guy at the front desk was efficient and polite.  Lobby area had free popcorn and free iced cucumber water available near the Bistro which is a nice touch.
+I think a lot of people requested upper level rooms away from the elevators, since a whole bunch of guests were jam packed into my end of the floor, and the hotel couldn't have been more than 1/4 occupied.  Due to poor construction, I heard everything from everyone - all the hallway noise, doors slamming (very loud - you'd think people would have some courtesy to close their doors a little softer), and I heard everything room the unit next to me - the guy coughing/clearing his throat, conversations, TV noise, plumbing noise, drawers closing - everything.  Very thin walls.
+Other than the noise, I had a quiet experience once everyone went to bed.  I was on the fourth floor facing the pool so no outside noise all night - lots of landscaping and garbage...I think this is a solid 4 out of 5 - not sure what the issues were from earlier lower ratings but I guess some things were improved.Location is great, just off the beaten path from the hectic South Coast Plaza area but still close enough to be convenient.  Right on the border of Costa Mesa and Santa Ana, but feels relatively safe being surround by mostly corporate buildings.  A good value for the price.The guy at the front desk was efficient and polite.  Lobby area had free popcorn and free iced cucumber water available near the Bistro which is a nice touch.I think a lot of people requested upper level rooms away from the elevators, since a whole bunch of guests were jam packed into my end of the floor, and the hotel couldn't have been more than 1/4 occupied.  Due to poor construction, I heard everything from everyone - all the hallway noise, doors slamming (very loud - you'd think people would have some courtesy to close their doors a little softer), and I heard everything room the unit next to me - the guy coughing/clearing his throat, conversations, TV noise, plumbing noise, drawers closing - everything.  Very thin walls.Other than the noise, I had a quiet experience once everyone went to bed.  I was on the fourth floor facing the pool so no outside noise all night - lots of landscaping and garbage truck noise in the morning though.I must say the bed sheets were the freshest I've experienced in a while from a Marriott branded property - I've stayed at a half dozen recently and there was always some musty smell or head smell.  The linens were fresh and clean which was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r178654942-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>178654942</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>Ideal stay for a suite</t>
+  </si>
+  <si>
+    <t>I stayed here two nights for business and I wish I would have stayed another 5 nights. This hotel is very clean and the staff are friendly. Staff memeber named Ho was very helpful with checking in. I would definitely recommend this for business and vacationing travelers. It's very close to Disney and Knotts. Also it is about 10-15 minutess north of Newport and Huntington Beaches.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r170945815-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>170945815</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>Wonderful surprise!</t>
+  </si>
+  <si>
+    <t>I gave my daughter a gift of a night at this hotel while she was attending a wedding.  It was freshly decorated, new lobby, and best of all, a very friendly staff.  The  staff went out of their way to provide a nice experience for this visit.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r170065530-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>170065530</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Very comfortable stay</t>
+  </si>
+  <si>
+    <t>Our group stayed here because the US surf competition kept us out of Huntington Beach. It was close to Huntington Beach, Newport Beach and LA. The rooms were clean and the service was usually very good. Maid service was good, but they often didn't show up until after 3 pm. It seems like they have too much work to do. We requested a refrigerator and microwave. We never got the microwave, but there was one available in the lobby 24/7. Parking was free and the pool was great. We also enjoyed the balcony, although we did not have chair for the first couple days of the trip. I would stay here again. Hint: ask for a refrigerator before you arrive.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our group stayed here because the US surf competition kept us out of Huntington Beach. It was close to Huntington Beach, Newport Beach and LA. The rooms were clean and the service was usually very good. Maid service was good, but they often didn't show up until after 3 pm. It seems like they have too much work to do. We requested a refrigerator and microwave. We never got the microwave, but there was one available in the lobby 24/7. Parking was free and the pool was great. We also enjoyed the balcony, although we did not have chair for the first couple days of the trip. I would stay here again. Hint: ask for a refrigerator before you arrive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r165828540-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>165828540</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>Nice place, middle of commercial area</t>
+  </si>
+  <si>
+    <t>Arrived about 1pm and was greated by an unfriendly clerk. She snickered when I asked if it was possible to check in. She said "check in is at 3" and stared me down. Not a good way to start. Drove about 5 miles to South Coast Plaza (thinking this place was near the South Coast Plaza as in the name) for lunch. Upon returning at 3:05 expecting the same wicked witch, I was pleasantly surprised to be greeted by Amanda. She got me to an upgraded room, pool view (larger 2 Q room over smaller 2 double bed room) and set the stay off right. Room was clean and updated. Pool as well. Spa was closed for repairs, appears to be permanent or at least for a long period of time. FYI.Wouldnt stay here again, too far from the beach, mall or anything else without driving a ways. But the condition was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>snasa, Property Coordinator at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded July 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2013</t>
+  </si>
+  <si>
+    <t>Arrived about 1pm and was greated by an unfriendly clerk. She snickered when I asked if it was possible to check in. She said "check in is at 3" and stared me down. Not a good way to start. Drove about 5 miles to South Coast Plaza (thinking this place was near the South Coast Plaza as in the name) for lunch. Upon returning at 3:05 expecting the same wicked witch, I was pleasantly surprised to be greeted by Amanda. She got me to an upgraded room, pool view (larger 2 Q room over smaller 2 double bed room) and set the stay off right. Room was clean and updated. Pool as well. Spa was closed for repairs, appears to be permanent or at least for a long period of time. FYI.Wouldnt stay here again, too far from the beach, mall or anything else without driving a ways. But the condition was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r161330849-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>161330849</t>
+  </si>
+  <si>
+    <t>05/20/2013</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>I really like this hotel. The front desk staff are very knowledgable about directions and made me feel like family. The rooms and hotel have recently been renovated and everything in the room was new. I liked having a balcony.They don't have a free breakfast but the restaurant serves the best breakfast it is better than getting the same boring buffet breakfast. It would be nice if they would have coffee in the lobby. The hotel is 5 minutes from the John Wayne airport and 10 minutes from the Huntington Beach Pier. I stayed here 12 days for business and definitely will go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>snasa, Property Coordinator at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded June 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2013</t>
+  </si>
+  <si>
+    <t>I really like this hotel. The front desk staff are very knowledgable about directions and made me feel like family. The rooms and hotel have recently been renovated and everything in the room was new. I liked having a balcony.They don't have a free breakfast but the restaurant serves the best breakfast it is better than getting the same boring buffet breakfast. It would be nice if they would have coffee in the lobby. The hotel is 5 minutes from the John Wayne airport and 10 minutes from the Huntington Beach Pier. I stayed here 12 days for business and definitely will go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r160326229-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>160326229</t>
+  </si>
+  <si>
+    <t>05/10/2013</t>
+  </si>
+  <si>
+    <t>Good Hotel Option</t>
+  </si>
+  <si>
+    <t>We chose this hotel because it was convenient to our morning appointment in Tustin. It was a good choice as the hotel was off the beaten path a little but easy to find with GPS. It had an attractive appearance outside and a nice décor in the lobby area. The grounds were also very attractive. The check-in experience was easy and efficient. The rooms were well maintained, comfortable and spacious. The bed was comfortable and enabled a good night's sleep. The WiFi worked well during our stay. The Bistro in the morning was a nice option for breakfast as the prices were reasonable with some good, healthy choices. The checkout was also very efficient. The rates were pretty good for the area. I would recommend this hotel to anyone needing a hotel in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose this hotel because it was convenient to our morning appointment in Tustin. It was a good choice as the hotel was off the beaten path a little but easy to find with GPS. It had an attractive appearance outside and a nice décor in the lobby area. The grounds were also very attractive. The check-in experience was easy and efficient. The rooms were well maintained, comfortable and spacious. The bed was comfortable and enabled a good night's sleep. The WiFi worked well during our stay. The Bistro in the morning was a nice option for breakfast as the prices were reasonable with some good, healthy choices. The checkout was also very efficient. The rates were pretty good for the area. I would recommend this hotel to anyone needing a hotel in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r158518548-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>158518548</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>Great, inexpensive hotel</t>
+  </si>
+  <si>
+    <t>this is a great hotel if you're going to a concert at The Observatory.  it's cross the street so no need to worry about parking or driving afterwards.  However note, that there's not much around as far as nightlife.The hotel has a nice lounge with beer, wine and some cocktails..the rooms have been re-done and are more modern.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>snasa, Property Coordinator at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded April 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2013</t>
+  </si>
+  <si>
+    <t>this is a great hotel if you're going to a concert at The Observatory.  it's cross the street so no need to worry about parking or driving afterwards.  However note, that there's not much around as far as nightlife.The hotel has a nice lounge with beer, wine and some cocktails..the rooms have been re-done and are more modern.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r150791778-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>150791778</t>
+  </si>
+  <si>
+    <t>01/27/2013</t>
+  </si>
+  <si>
+    <t>This place was BAD</t>
+  </si>
+  <si>
+    <t>Booked this through Priceline and I have used them about 10 times in past and have always been happy with the hotel. Well not this time, traveled with  just my daughter &amp; I and did not feel safe at all. They make the check in area look fresh and up to date, but once you leave that area boy does it change.  The pictures on there website are not true to the room either. Beds are very low to the ground and not comfortable, towels felt rough to touch , like they were well used. I booked and paid for 3 nights at this place &amp; checked out after 12 hrs......MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>snasa, Property Coordinator at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded February 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2013</t>
+  </si>
+  <si>
+    <t>Booked this through Priceline and I have used them about 10 times in past and have always been happy with the hotel. Well not this time, traveled with  just my daughter &amp; I and did not feel safe at all. They make the check in area look fresh and up to date, but once you leave that area boy does it change.  The pictures on there website are not true to the room either. Beds are very low to the ground and not comfortable, towels felt rough to touch , like they were well used. I booked and paid for 3 nights at this place &amp; checked out after 12 hrs......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r144699247-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>144699247</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Room was fine, but ammenities were lacking</t>
+  </si>
+  <si>
+    <t>1.  Room was very comfortable, but nothing special.  Everything worked and the hotel was very quiet.  We enjoyed our stay and did stay for 4 nights during mid-October.  Shower, TV, small desk and even a small patio overlooking the pool were very nice.
+2.  Whirlpool did not work for 4 days.  A sign was posted first two days and we had to tell management it was not working.  Whirlpool is indoors and was hot, but could not be turned on.  This was very disappointing since I am recovering from severe strained leg muscles.
+3. Never saw anyone use the outdoor pool.  We tried, but it was ice cold and not heated.  The ocean is only 5 miles away and was warmer than the hotel pool which was unswimmable.
+4.  Maid service was dodgy.  We were still in the room until 8:30 AM one morning and the maid came to the door.  We stated we were leaving in 2 minutes.  When we returned back to the room around 5PM, the room had never been cleaned and we needed to change and head out.  The maid was just getting to the room.  What happened here. We had to change in the public restroom downstairs.
+5.  Courtyard is the only Marriott chain we have seen that only has lobby coffee and morning's until 9AM and not all day and night.  All other times, you have to either make your own in your room...1.  Room was very comfortable, but nothing special.  Everything worked and the hotel was very quiet.  We enjoyed our stay and did stay for 4 nights during mid-October.  Shower, TV, small desk and even a small patio overlooking the pool were very nice.2.  Whirlpool did not work for 4 days.  A sign was posted first two days and we had to tell management it was not working.  Whirlpool is indoors and was hot, but could not be turned on.  This was very disappointing since I am recovering from severe strained leg muscles.3. Never saw anyone use the outdoor pool.  We tried, but it was ice cold and not heated.  The ocean is only 5 miles away and was warmer than the hotel pool which was unswimmable.4.  Maid service was dodgy.  We were still in the room until 8:30 AM one morning and the maid came to the door.  We stated we were leaving in 2 minutes.  When we returned back to the room around 5PM, the room had never been cleaned and we needed to change and head out.  The maid was just getting to the room.  What happened here. We had to change in the public restroom downstairs.5.  Courtyard is the only Marriott chain we have seen that only has lobby coffee and morning's until 9AM and not all day and night.  All other times, you have to either make your own in your room (Yuck!) or purchase it from the restaurant.  Not a good policy compared to other Marriott chains.  Courtyard never had complimentary food, but now has a bistro type restaurant that really doesn't cut it with us.  I like to eat, and the new Courtyard has done away with the buffet and gone to breakfast sandwiches and very light fare which also doesn't cut it with us.6.  The area is very nice with IKEA 1 mile away, and tons of restaurants, a Whole Foods, movies, Orange County Irvine convention center and tons of shopping and don't forget Newport Beach which is just a few minutes down the road and worthy of a visit anytime of the year with its niche restaurants and beautiful ocean views.7. We asked for a microwave and never received one even though the desk told us they could send one to our room.  Also, was asked for extra towels, since the small excercise room rarely had towels, we never received them.Overall average and didn't meet my needs.  I would select another hotel in the area, but the management appeared somewhat attentive but did not deliver for many circumstaces.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>1.  Room was very comfortable, but nothing special.  Everything worked and the hotel was very quiet.  We enjoyed our stay and did stay for 4 nights during mid-October.  Shower, TV, small desk and even a small patio overlooking the pool were very nice.
+2.  Whirlpool did not work for 4 days.  A sign was posted first two days and we had to tell management it was not working.  Whirlpool is indoors and was hot, but could not be turned on.  This was very disappointing since I am recovering from severe strained leg muscles.
+3. Never saw anyone use the outdoor pool.  We tried, but it was ice cold and not heated.  The ocean is only 5 miles away and was warmer than the hotel pool which was unswimmable.
+4.  Maid service was dodgy.  We were still in the room until 8:30 AM one morning and the maid came to the door.  We stated we were leaving in 2 minutes.  When we returned back to the room around 5PM, the room had never been cleaned and we needed to change and head out.  The maid was just getting to the room.  What happened here. We had to change in the public restroom downstairs.
+5.  Courtyard is the only Marriott chain we have seen that only has lobby coffee and morning's until 9AM and not all day and night.  All other times, you have to either make your own in your room...1.  Room was very comfortable, but nothing special.  Everything worked and the hotel was very quiet.  We enjoyed our stay and did stay for 4 nights during mid-October.  Shower, TV, small desk and even a small patio overlooking the pool were very nice.2.  Whirlpool did not work for 4 days.  A sign was posted first two days and we had to tell management it was not working.  Whirlpool is indoors and was hot, but could not be turned on.  This was very disappointing since I am recovering from severe strained leg muscles.3. Never saw anyone use the outdoor pool.  We tried, but it was ice cold and not heated.  The ocean is only 5 miles away and was warmer than the hotel pool which was unswimmable.4.  Maid service was dodgy.  We were still in the room until 8:30 AM one morning and the maid came to the door.  We stated we were leaving in 2 minutes.  When we returned back to the room around 5PM, the room had never been cleaned and we needed to change and head out.  The maid was just getting to the room.  What happened here. We had to change in the public restroom downstairs.5.  Courtyard is the only Marriott chain we have seen that only has lobby coffee and morning's until 9AM and not all day and night.  All other times, you have to either make your own in your room (Yuck!) or purchase it from the restaurant.  Not a good policy compared to other Marriott chains.  Courtyard never had complimentary food, but now has a bistro type restaurant that really doesn't cut it with us.  I like to eat, and the new Courtyard has done away with the buffet and gone to breakfast sandwiches and very light fare which also doesn't cut it with us.6.  The area is very nice with IKEA 1 mile away, and tons of restaurants, a Whole Foods, movies, Orange County Irvine convention center and tons of shopping and don't forget Newport Beach which is just a few minutes down the road and worthy of a visit anytime of the year with its niche restaurants and beautiful ocean views.7. We asked for a microwave and never received one even though the desk told us they could send one to our room.  Also, was asked for extra towels, since the small excercise room rarely had towels, we never received them.Overall average and didn't meet my needs.  I would select another hotel in the area, but the management appeared somewhat attentive but did not deliver for many circumstaces.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r144578181-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>144578181</t>
+  </si>
+  <si>
+    <t>Loved the pool area!</t>
+  </si>
+  <si>
+    <t>This hotel served it's purpose just fine for our stay. We loved the pool chaise lounge chairs with cushions. Hard to come by these days. Rooms didn't have the most recent package, but they are very clean and well kept. Thanks for a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel served it's purpose just fine for our stay. We loved the pool chaise lounge chairs with cushions. Hard to come by these days. Rooms didn't have the most recent package, but they are very clean and well kept. Thanks for a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r141945031-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>141945031</t>
+  </si>
+  <si>
+    <t>10/03/2012</t>
+  </si>
+  <si>
+    <t>nice hotel</t>
+  </si>
+  <si>
+    <t>A beautiful lobby great little restaurant with really good food.Stayed here 14 days. The front desk staff were so helpful with directions etc.Very cloce to Huntington Beach where I worked and also only a few miles from the South Coast mall. The rooms need a face lift very clean but carpet and furniture seemed old, They said in the fall they are going renovate all the rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>A beautiful lobby great little restaurant with really good food.Stayed here 14 days. The front desk staff were so helpful with directions etc.Very cloce to Huntington Beach where I worked and also only a few miles from the South Coast mall. The rooms need a face lift very clean but carpet and furniture seemed old, They said in the fall they are going renovate all the rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r134155546-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>134155546</t>
+  </si>
+  <si>
+    <t>07/11/2012</t>
+  </si>
+  <si>
+    <t>Excellent Accomodations for My Business Trip</t>
+  </si>
+  <si>
+    <t>Well managed, well maintained, clean and comfortable.  I even enjoyed an exceptionally nice whirlpool.  The maid service was prompt and thorough.  The location is a bit odd. Not close to much at al, but that helps keep things quiet.  Closest highway is I-405 so consider that if you use this place for business.  This would actually be a good location for a family trip to Disneyland (less than 10 miles).  I got a really good price on this stay, so my review also reflects my feelings about the deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>Well managed, well maintained, clean and comfortable.  I even enjoyed an exceptionally nice whirlpool.  The maid service was prompt and thorough.  The location is a bit odd. Not close to much at al, but that helps keep things quiet.  Closest highway is I-405 so consider that if you use this place for business.  This would actually be a good location for a family trip to Disneyland (less than 10 miles).  I got a really good price on this stay, so my review also reflects my feelings about the deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r133412461-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>133412461</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Stayed here with a group last summer and had a great stay. The staff was nice and very helpful. Hotel is conviently located near several attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here with a group last summer and had a great stay. The staff was nice and very helpful. Hotel is conviently located near several attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r130942250-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>130942250</t>
+  </si>
+  <si>
+    <t>05/30/2012</t>
+  </si>
+  <si>
+    <t>Courtyard is now the place to stay</t>
+  </si>
+  <si>
+    <t>While on a trip to Miami a few weeks back, I stumbled upon a cool set up to charge my phone. Little did I know it was a promotional spot to promote the redesigned courtyard. I liked the layout so much I booked my next trip at a courtyard and was happy I did. The costa Mesa location is in an ok spot but has great rooms and services. I get like I was in a much higher scale hotel  MoreShow less</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded June 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2012</t>
+  </si>
+  <si>
+    <t>While on a trip to Miami a few weeks back, I stumbled upon a cool set up to charge my phone. Little did I know it was a promotional spot to promote the redesigned courtyard. I liked the layout so much I booked my next trip at a courtyard and was happy I did. The costa Mesa location is in an ok spot but has great rooms and services. I get like I was in a much higher scale hotel  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r130176944-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>130176944</t>
+  </si>
+  <si>
+    <t>05/18/2012</t>
+  </si>
+  <si>
+    <t>Good value, comfortable</t>
+  </si>
+  <si>
+    <t>Stayed 5 nights on business and overall thought that it was a comfortable hotel for a good value. Hotel backs to an industrial area, but I found that made for a quiet setting in the evening.  Only a few blocks from 405 so it was in a convenient location for getting around Orange County area at a price less than the hotels around the John Wayne airport.  Ate breakfast in the cafe one morning which was a little pricey, but food was good.  Also ate at a bagel shop and an IHOP for around the same price.  Pool area was clean, as well at the hot tub area (had plenty of clean towels). My room was on the second floor overlooking the pool courtyard.  I a couple of nights were I could hear the couple staying in the room next door and heavy walking in the room above me, but only a few disruptions for an overall good stay in a clean hotel with clean property, and what seemed to be a safe neighborhood.  I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded May 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2012</t>
+  </si>
+  <si>
+    <t>Stayed 5 nights on business and overall thought that it was a comfortable hotel for a good value. Hotel backs to an industrial area, but I found that made for a quiet setting in the evening.  Only a few blocks from 405 so it was in a convenient location for getting around Orange County area at a price less than the hotels around the John Wayne airport.  Ate breakfast in the cafe one morning which was a little pricey, but food was good.  Also ate at a bagel shop and an IHOP for around the same price.  Pool area was clean, as well at the hot tub area (had plenty of clean towels). My room was on the second floor overlooking the pool courtyard.  I a couple of nights were I could hear the couple staying in the room next door and heavy walking in the room above me, but only a few disruptions for an overall good stay in a clean hotel with clean property, and what seemed to be a safe neighborhood.  I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r129731952-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>129731952</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>Very nice, industrial area</t>
+  </si>
+  <si>
+    <t>The hotel is very nice and clean with a very attractive lobby and bistro cafe. The guy who checked me in was personable and service was fine, unlike some of the reviews here. Property is clean. The room is attractive, though not quite as much so as the other Courtyard I recently stayed in on MacArthur. The room was well appointed, and the free wifi had the best speeds of many hotels I've stayed at in the area. The bed and pillows were very comfortable. There was some noise from Harbor Blve as I was staying in an outside-facing room. Not a whole lot to say, the hotel is quite competent and nice, but I didn't see anything that would put it up to five star rating. The area doesn't seem to be close to anything of great attraction, but if you are here for business it may be a good location depending upon where you are working.MoreShow less</t>
+  </si>
+  <si>
+    <t>snasa, General Manager at Courtyard by Marriott Costa Mesa South Coast Metro, responded to this reviewResponded May 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2012</t>
+  </si>
+  <si>
+    <t>The hotel is very nice and clean with a very attractive lobby and bistro cafe. The guy who checked me in was personable and service was fine, unlike some of the reviews here. Property is clean. The room is attractive, though not quite as much so as the other Courtyard I recently stayed in on MacArthur. The room was well appointed, and the free wifi had the best speeds of many hotels I've stayed at in the area. The bed and pillows were very comfortable. There was some noise from Harbor Blve as I was staying in an outside-facing room. Not a whole lot to say, the hotel is quite competent and nice, but I didn't see anything that would put it up to five star rating. The area doesn't seem to be close to anything of great attraction, but if you are here for business it may be a good location depending upon where you are working.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r118090637-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>118090637</t>
+  </si>
+  <si>
+    <t>09/13/2011</t>
+  </si>
+  <si>
+    <t>Modern, clean-cut lobby, comfortable rooms,  slow and unenthusiastic service</t>
+  </si>
+  <si>
+    <t>We stayed here at the end of the summer. Although we booked a room with a King bed for one night, by the time we arrived we received two queens instead, but the young lady checking us in was very apologetic and nice and we sure were tired. The next morning at about 9.30 we wanted to use the hot tub ( for some reason called spa) to relax our muscles a little before using a pool. Before heading there I checked a few things at the front desk, and extended for another night. He wasn't very friendly. I asked whether there were towels out there to which he said yes. The pool area was thrashed from the night before, pizza boxes, wet towels, beer cans, room service, etc. Nothing was cleaned up, no clean towels in sight. I called the front desk and he said he'd try and call for towels. After 20 minutes ( i swam in the cold pool expecting the towels) still nothing. I called from the poolside phone a number of times, no answer.  Then I called from my cell, the front desk picked up and I asked for the towels. He said he'd call it in again, but wasn't surprised when I mentioned they weren't there. About 40 minutes after I first requested them, the towels arrived by a cleaning lady pushing a giant trash bin, who left without taking a single plate or...We stayed here at the end of the summer. Although we booked a room with a King bed for one night, by the time we arrived we received two queens instead, but the young lady checking us in was very apologetic and nice and we sure were tired. The next morning at about 9.30 we wanted to use the hot tub ( for some reason called spa) to relax our muscles a little before using a pool. Before heading there I checked a few things at the front desk, and extended for another night. He wasn't very friendly. I asked whether there were towels out there to which he said yes. The pool area was thrashed from the night before, pizza boxes, wet towels, beer cans, room service, etc. Nothing was cleaned up, no clean towels in sight. I called the front desk and he said he'd try and call for towels. After 20 minutes ( i swam in the cold pool expecting the towels) still nothing. I called from the poolside phone a number of times, no answer.  Then I called from my cell, the front desk picked up and I asked for the towels. He said he'd call it in again, but wasn't surprised when I mentioned they weren't there. About 40 minutes after I first requested them, the towels arrived by a cleaning lady pushing a giant trash bin, who left without taking a single plate or wet towel. The hot tub, when turned on, became a giant bubble bath, courtesy of the bathers from the previous night. Although we enjoyed the pool, we hoped for a cleaner experience the next day.The next morning the poolside was clean, but without towels once again.While the hotel looks great, the pool area is updated, calm, and even gorgeous when cleaned up, the very low quality of service soured this otherwise nice two day stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here at the end of the summer. Although we booked a room with a King bed for one night, by the time we arrived we received two queens instead, but the young lady checking us in was very apologetic and nice and we sure were tired. The next morning at about 9.30 we wanted to use the hot tub ( for some reason called spa) to relax our muscles a little before using a pool. Before heading there I checked a few things at the front desk, and extended for another night. He wasn't very friendly. I asked whether there were towels out there to which he said yes. The pool area was thrashed from the night before, pizza boxes, wet towels, beer cans, room service, etc. Nothing was cleaned up, no clean towels in sight. I called the front desk and he said he'd try and call for towels. After 20 minutes ( i swam in the cold pool expecting the towels) still nothing. I called from the poolside phone a number of times, no answer.  Then I called from my cell, the front desk picked up and I asked for the towels. He said he'd call it in again, but wasn't surprised when I mentioned they weren't there. About 40 minutes after I first requested them, the towels arrived by a cleaning lady pushing a giant trash bin, who left without taking a single plate or...We stayed here at the end of the summer. Although we booked a room with a King bed for one night, by the time we arrived we received two queens instead, but the young lady checking us in was very apologetic and nice and we sure were tired. The next morning at about 9.30 we wanted to use the hot tub ( for some reason called spa) to relax our muscles a little before using a pool. Before heading there I checked a few things at the front desk, and extended for another night. He wasn't very friendly. I asked whether there were towels out there to which he said yes. The pool area was thrashed from the night before, pizza boxes, wet towels, beer cans, room service, etc. Nothing was cleaned up, no clean towels in sight. I called the front desk and he said he'd try and call for towels. After 20 minutes ( i swam in the cold pool expecting the towels) still nothing. I called from the poolside phone a number of times, no answer.  Then I called from my cell, the front desk picked up and I asked for the towels. He said he'd call it in again, but wasn't surprised when I mentioned they weren't there. About 40 minutes after I first requested them, the towels arrived by a cleaning lady pushing a giant trash bin, who left without taking a single plate or wet towel. The hot tub, when turned on, became a giant bubble bath, courtesy of the bathers from the previous night. Although we enjoyed the pool, we hoped for a cleaner experience the next day.The next morning the poolside was clean, but without towels once again.While the hotel looks great, the pool area is updated, calm, and even gorgeous when cleaned up, the very low quality of service soured this otherwise nice two day stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r117316496-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>117316496</t>
+  </si>
+  <si>
+    <t>08/27/2011</t>
+  </si>
+  <si>
+    <t>Stayed here when seeing a concert at the Galaxy</t>
+  </si>
+  <si>
+    <t>We were looking for a place to stay for a concert at the Galaxy.  The Courtyard was only about 4 blocks up the street so it worked out perfectly for the location.The hotel?  Absolutely no complaints.  The room was clean, check-in/check-out was flawless, and it was quiet (except for us maybe).It's in an odd part of town.  Kind of a cross between residential and professional buildings.  But for our purposes, it was the perfect place to stay.This is a 3-star hotel in a 5-star location (if you're going to see a show at the Galaxy).</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r114724805-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>114724805</t>
+  </si>
+  <si>
+    <t>06/24/2011</t>
+  </si>
+  <si>
+    <t>OK place to stay, nice garden &amp; pool area</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 weeks during a business trip. The room was clean and standard for a courtyard room. Almost all rooms that are facing the garden &amp; pool area have a balcony with a few chairs and a small table. The pool &amp; garden area is pretty nice with a lounge corner, several sets of chairs/table on the grass, palmtres and some small banana plants. Pool looked ok, was too cold for me to swim. Jazcuzzi is on the side in a covered / semi open area. Disappointing I found that there was no normal restaurant / breakfast buffet in the hotel.. Just a small snackcounter where small snacks at night and some breakfast could be bought. So not included in your room. Free wifi and a modern lobby with a sitting area. The 'gym' consists of 3 machines cramped in a small room. With the 'spa' I guess they refer to the jacuzzi. Nice hot water though. Free parking but the hotel is a bit in an area with just companies and offices, ideal if you have to be there, otherwise not too inviting maybe.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 weeks during a business trip. The room was clean and standard for a courtyard room. Almost all rooms that are facing the garden &amp; pool area have a balcony with a few chairs and a small table. The pool &amp; garden area is pretty nice with a lounge corner, several sets of chairs/table on the grass, palmtres and some small banana plants. Pool looked ok, was too cold for me to swim. Jazcuzzi is on the side in a covered / semi open area. Disappointing I found that there was no normal restaurant / breakfast buffet in the hotel.. Just a small snackcounter where small snacks at night and some breakfast could be bought. So not included in your room. Free wifi and a modern lobby with a sitting area. The 'gym' consists of 3 machines cramped in a small room. With the 'spa' I guess they refer to the jacuzzi. Nice hot water though. Free parking but the hotel is a bit in an area with just companies and offices, ideal if you have to be there, otherwise not too inviting maybe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r75105538-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>75105538</t>
+  </si>
+  <si>
+    <t>08/13/2010</t>
+  </si>
+  <si>
+    <t>Don't waste your money, there are other Marriott's you can get your points from.</t>
+  </si>
+  <si>
+    <t>This Courtyard was shoved in a location that was hard to find. The lobby was old and the rooms were also old, dusty and dirty. It was only a one night stay so I tolerated it. I will not use this hotel ever again.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r71485342-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>71485342</t>
+  </si>
+  <si>
+    <t>07/19/2010</t>
+  </si>
+  <si>
+    <t>Great service!</t>
+  </si>
+  <si>
+    <t>I arrived at 8am on a Monday and found I was too early for the IBM class I had to take.  Daniel at the front desk allowed me to check in at 8 in the moring!  That completely surprised me.  He continued to provide fantastic service to me for the remainder of the week including remembering my name.  The hotel is very nice and the pool is great.  I enjoyed my stay there.  Comfortable beds, fluffly pillows, etc.Complaints?  There buffet for $12.95 is a joke.  They serve a great variety of cold eggs and even colder sausage or what appearded to be french toast. I ended up at the IHOP down the street for $7.  The hotel is a bit out of the way, but nothing major.  It's about 3 miles to the major mall and there are great sushi restaurants nearby.  Also try a place across the street called 8 Steers.  Terrible name for a place with a great scallop dinner.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>I arrived at 8am on a Monday and found I was too early for the IBM class I had to take.  Daniel at the front desk allowed me to check in at 8 in the moring!  That completely surprised me.  He continued to provide fantastic service to me for the remainder of the week including remembering my name.  The hotel is very nice and the pool is great.  I enjoyed my stay there.  Comfortable beds, fluffly pillows, etc.Complaints?  There buffet for $12.95 is a joke.  They serve a great variety of cold eggs and even colder sausage or what appearded to be french toast. I ended up at the IHOP down the street for $7.  The hotel is a bit out of the way, but nothing major.  It's about 3 miles to the major mall and there are great sushi restaurants nearby.  Also try a place across the street called 8 Steers.  Terrible name for a place with a great scallop dinner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r67086747-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>67086747</t>
+  </si>
+  <si>
+    <t>06/10/2010</t>
+  </si>
+  <si>
+    <t>Nice but could use a little updating</t>
+  </si>
+  <si>
+    <t>The room was your normal Courtyard. Just needed a little work. Needed some paint. It was nice for what we used it for. Ive become used to better from Courtyard.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r36811153-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>36811153</t>
+  </si>
+  <si>
+    <t>08/05/2009</t>
+  </si>
+  <si>
+    <t>Hotel is well located and rooms are very confortable. If you are looking for a hotel with a good relation between price and quality this hotel is a good option. There is free parking and from hotel you arrive easily to any place in the city and local airport is within 10 minutes.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r30912420-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>30912420</t>
+  </si>
+  <si>
+    <t>05/27/2009</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>I found this hotel to offer many ammenities. After a long drive it was a quiet and relaxing place. Although the surrounding area is not the best, they had a nice pool and spa in the courtyard, fitness room, and the room itself was bright and clean.</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r29261768-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>29261768</t>
+  </si>
+  <si>
+    <t>05/03/2009</t>
+  </si>
+  <si>
+    <t>Good for the money</t>
+  </si>
+  <si>
+    <t>Stayed here one night.  Hotel is nice and clean.  . Coffee, mini refrigerator in room, free internet. The rate is very reasonable under $100 , good location if you have a car, 5 min to a grocery store, 10 min to South Coast Plaza (Mall). Our room is kind of noisy (cars from the street), so I slept with my ear plug and the bed linens look very old.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r13064085-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>13064085</t>
+  </si>
+  <si>
+    <t>01/28/2008</t>
+  </si>
+  <si>
+    <t>An Excellent Place to Stay</t>
+  </si>
+  <si>
+    <t>My husband and I originally booked a room at the Anaheim Econo Lodge.  After a terrible experience there, we found a room available the next day at the Marriott in Santa Ana.  This was a wonderful hotel.  The rooms were spotless.  The bed was very comfortable.  There was a modern digital thermostat which allowed us to keep the room temperature exactly as we liked.  There was always delicious fresh, free coffee at the check-in desk.  The staff was very friendly.   I can't say enough good things about this hotel.  It was an excellent value for the money.</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r12157734-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>12157734</t>
+  </si>
+  <si>
+    <t>12/31/2007</t>
+  </si>
+  <si>
+    <t>Nice except for thin walls.</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for one night in December 2007 while attending a concert at the nearby Galaxy Theatre. It's convenient to the 405 Fwy. Nice hotel but I found the room (king with a sleeper sofa) on the small side, although it was otherwise comfortable. Also we could hear quite a bit of noise from the hall and neighboring rooms. No mini fridge but I think that's typical for Courtyards. No free continental breakfast: they have a buffet breakfast which was good but expensive (almost $11.00). There's a small concession area near the front desk where you can buy snacks and even beer. I saw two fast food restaurants within walking distance but other restaurants require a short drive or a longer walk. Staff were polite, the grounds were clean. Note that the Marriott website calls this hotel the Courtyard Costa Mesa South Coast Metro but it's in Santa Ana, not Costa Mesa.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for one night in December 2007 while attending a concert at the nearby Galaxy Theatre. It's convenient to the 405 Fwy. Nice hotel but I found the room (king with a sleeper sofa) on the small side, although it was otherwise comfortable. Also we could hear quite a bit of noise from the hall and neighboring rooms. No mini fridge but I think that's typical for Courtyards. No free continental breakfast: they have a buffet breakfast which was good but expensive (almost $11.00). There's a small concession area near the front desk where you can buy snacks and even beer. I saw two fast food restaurants within walking distance but other restaurants require a short drive or a longer walk. Staff were polite, the grounds were clean. Note that the Marriott website calls this hotel the Courtyard Costa Mesa South Coast Metro but it's in Santa Ana, not Costa Mesa.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r11692087-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>11692087</t>
+  </si>
+  <si>
+    <t>12/19/2007</t>
+  </si>
+  <si>
+    <t>Nice, affordable stay</t>
+  </si>
+  <si>
+    <t>The hotel grounds are attractive and clean. Each day of my 5-night stay, I observed grounds staff engaged in a variety of tasks.  There is ample parking available on three sides of the property.  The location of the Courtyard Inn is central to various shopping and dining locations, as well as the airport.  It is essential to have a car, however, as it can be several blocks to a couple of miles to any shopping or dining. In addition, there is no shuttle for the airport, requiring an $18 cab fare each way.
+The staff at the hotel were great. Check-in personnel were helpful and friendly.  On the first day of my stay, I was tied up in preparing reports and asked that housekeeping only leave fresh towels; the housekeeping staff asked three times if I as sure that everything was okay. Each day following, housekeeping kept my room spotless.
+The room itself was typical Courtyard; a little small, but with several nice touches such as a large work area, ethernet internet access and a very comfortable bed. The thermostat seemed to have a mind of its own, however. Setting the controls for 71 degrees would result in a very cool room during the day and a rather warm room at night.
+The greatest difficulty I experienced had to do with noise. Street noise from traffic was very pronounced.  In addition, the room door did not filter sound from the...The hotel grounds are attractive and clean. Each day of my 5-night stay, I observed grounds staff engaged in a variety of tasks.  There is ample parking available on three sides of the property.  The location of the Courtyard Inn is central to various shopping and dining locations, as well as the airport.  It is essential to have a car, however, as it can be several blocks to a couple of miles to any shopping or dining. In addition, there is no shuttle for the airport, requiring an $18 cab fare each way.The staff at the hotel were great. Check-in personnel were helpful and friendly.  On the first day of my stay, I was tied up in preparing reports and asked that housekeeping only leave fresh towels; the housekeeping staff asked three times if I as sure that everything was okay. Each day following, housekeeping kept my room spotless.The room itself was typical Courtyard; a little small, but with several nice touches such as a large work area, ethernet internet access and a very comfortable bed. The thermostat seemed to have a mind of its own, however. Setting the controls for 71 degrees would result in a very cool room during the day and a rather warm room at night.The greatest difficulty I experienced had to do with noise. Street noise from traffic was very pronounced.  In addition, the room door did not filter sound from the hall very well. On two separate occasions, I answered a knock on my door only to find someone knocking at the door across the hall.  It was also possible to hear conversation in the hall from several doors away.Overall, I had a pleasant stay for a business trip.  If I were looking for a place to stay for a pleasure trip, I might look for something a little closer or upscale.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel grounds are attractive and clean. Each day of my 5-night stay, I observed grounds staff engaged in a variety of tasks.  There is ample parking available on three sides of the property.  The location of the Courtyard Inn is central to various shopping and dining locations, as well as the airport.  It is essential to have a car, however, as it can be several blocks to a couple of miles to any shopping or dining. In addition, there is no shuttle for the airport, requiring an $18 cab fare each way.
+The staff at the hotel were great. Check-in personnel were helpful and friendly.  On the first day of my stay, I was tied up in preparing reports and asked that housekeeping only leave fresh towels; the housekeeping staff asked three times if I as sure that everything was okay. Each day following, housekeeping kept my room spotless.
+The room itself was typical Courtyard; a little small, but with several nice touches such as a large work area, ethernet internet access and a very comfortable bed. The thermostat seemed to have a mind of its own, however. Setting the controls for 71 degrees would result in a very cool room during the day and a rather warm room at night.
+The greatest difficulty I experienced had to do with noise. Street noise from traffic was very pronounced.  In addition, the room door did not filter sound from the...The hotel grounds are attractive and clean. Each day of my 5-night stay, I observed grounds staff engaged in a variety of tasks.  There is ample parking available on three sides of the property.  The location of the Courtyard Inn is central to various shopping and dining locations, as well as the airport.  It is essential to have a car, however, as it can be several blocks to a couple of miles to any shopping or dining. In addition, there is no shuttle for the airport, requiring an $18 cab fare each way.The staff at the hotel were great. Check-in personnel were helpful and friendly.  On the first day of my stay, I was tied up in preparing reports and asked that housekeeping only leave fresh towels; the housekeeping staff asked three times if I as sure that everything was okay. Each day following, housekeeping kept my room spotless.The room itself was typical Courtyard; a little small, but with several nice touches such as a large work area, ethernet internet access and a very comfortable bed. The thermostat seemed to have a mind of its own, however. Setting the controls for 71 degrees would result in a very cool room during the day and a rather warm room at night.The greatest difficulty I experienced had to do with noise. Street noise from traffic was very pronounced.  In addition, the room door did not filter sound from the hall very well. On two separate occasions, I answered a knock on my door only to find someone knocking at the door across the hall.  It was also possible to hear conversation in the hall from several doors away.Overall, I had a pleasant stay for a business trip.  If I were looking for a place to stay for a pleasure trip, I might look for something a little closer or upscale.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r5222808-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>5222808</t>
+  </si>
+  <si>
+    <t>05/26/2006</t>
+  </si>
+  <si>
+    <t>Nice Original Courtyard</t>
+  </si>
+  <si>
+    <t>This particular Courtyard is one of the older, original prototype designed ones with the outdoor pool in the center courtyard along with a partially enclosed jacuzzi.I had not been to the hotel in several years and found it in very nice shape with what looked like a recent remodel.  For being at least 15 years old, the hotel looks sparkling.  Rooms, hallways and grounds were all perfect.  The only downsides here are that the rooms are very small, say, compared to a similarly priced Hilton Garden Inn, and the location is not exactly perfect.  There's nowhere to walk to - you're pretty much trapped at the hotel unless you want to get in the car.  For those who are traveling between San Diego and Los Angeles, it's a good stopping off point and it's very close to the 405 freeway, IKEA, and South Coast Plaza.  The staff was all wonderful with no exceptions.  I don't often see that at the moderately priced chains anymore so it was quite refreshing.  The onsite restaurant currently only serves breakfast, and for $8.95 it's not a bad buffet and very convenient.  As with all Courtyards, there is free internet access both in the rooms and in the lobby along with a free laser printer.  Marriott has also added the small "market" for sundries in the lobby which was nice to have.MoreShow less</t>
+  </si>
+  <si>
+    <t>This particular Courtyard is one of the older, original prototype designed ones with the outdoor pool in the center courtyard along with a partially enclosed jacuzzi.I had not been to the hotel in several years and found it in very nice shape with what looked like a recent remodel.  For being at least 15 years old, the hotel looks sparkling.  Rooms, hallways and grounds were all perfect.  The only downsides here are that the rooms are very small, say, compared to a similarly priced Hilton Garden Inn, and the location is not exactly perfect.  There's nowhere to walk to - you're pretty much trapped at the hotel unless you want to get in the car.  For those who are traveling between San Diego and Los Angeles, it's a good stopping off point and it's very close to the 405 freeway, IKEA, and South Coast Plaza.  The staff was all wonderful with no exceptions.  I don't often see that at the moderately priced chains anymore so it was quite refreshing.  The onsite restaurant currently only serves breakfast, and for $8.95 it's not a bad buffet and very convenient.  As with all Courtyards, there is free internet access both in the rooms and in the lobby along with a free laser printer.  Marriott has also added the small "market" for sundries in the lobby which was nice to have.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r4148129-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>4148129</t>
+  </si>
+  <si>
+    <t>11/27/2005</t>
+  </si>
+  <si>
+    <t>Easy access from the freeway but noisy</t>
+  </si>
+  <si>
+    <t>The room looked recently remodeled and the bed was comfortable but it didn’t seem to matter because the windows didn’t do much to block the sound of traffic from the busy street. Car alarms from the parking lot below also awoke us in the early a.m. hours. We were also given a “non-smoking” room but when we entered it, it smelled of smoke and there was an ash tray and matches on the desk. After our long trip, we were too tired to complain so that is partially our fault. If you hate the smell of smoke, make sure you verify that your room is located no where near smoking rooms during check in.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room looked recently remodeled and the bed was comfortable but it didn’t seem to matter because the windows didn’t do much to block the sound of traffic from the busy street. Car alarms from the parking lot below also awoke us in the early a.m. hours. We were also given a “non-smoking” room but when we entered it, it smelled of smoke and there was an ash tray and matches on the desk. After our long trip, we were too tired to complain so that is partially our fault. If you hate the smell of smoke, make sure you verify that your room is located no where near smoking rooms during check in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r3087206-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>3087206</t>
+  </si>
+  <si>
+    <t>01/25/2005</t>
+  </si>
+  <si>
+    <t>LOVED IT!!!</t>
+  </si>
+  <si>
+    <t>Our stay at this Courtyard this past weekend was excellent!! The room was clean, down to the shower tub, and room service was prompt. The hotel's location is ideal and the view was great b/c the room overlooked the gazebo and pool. The hotel's staff was very friendly and extremely helpful. We'd definitely come back here next time we're in town.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2740,5993 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>140</v>
+      </c>
+      <c r="X14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>163</v>
+      </c>
+      <c r="X17" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" t="s">
+        <v>171</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" t="s">
+        <v>190</v>
+      </c>
+      <c r="L21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>211</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>212</v>
+      </c>
+      <c r="X24" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" t="s">
+        <v>219</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>220</v>
+      </c>
+      <c r="O25" t="s">
+        <v>86</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" t="s">
+        <v>224</v>
+      </c>
+      <c r="K26" t="s">
+        <v>225</v>
+      </c>
+      <c r="L26" t="s">
+        <v>226</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>211</v>
+      </c>
+      <c r="O26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>227</v>
+      </c>
+      <c r="X26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>231</v>
+      </c>
+      <c r="J27" t="s">
+        <v>232</v>
+      </c>
+      <c r="K27" t="s">
+        <v>233</v>
+      </c>
+      <c r="L27" t="s">
+        <v>234</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27" t="s">
+        <v>235</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>236</v>
+      </c>
+      <c r="X27" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>240</v>
+      </c>
+      <c r="J28" t="s">
+        <v>241</v>
+      </c>
+      <c r="K28" t="s">
+        <v>242</v>
+      </c>
+      <c r="L28" t="s">
+        <v>243</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>211</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>245</v>
+      </c>
+      <c r="J29" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" t="s">
+        <v>247</v>
+      </c>
+      <c r="L29" t="s">
+        <v>248</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O29" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>249</v>
+      </c>
+      <c r="X29" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>253</v>
+      </c>
+      <c r="J30" t="s">
+        <v>254</v>
+      </c>
+      <c r="K30" t="s">
+        <v>255</v>
+      </c>
+      <c r="L30" t="s">
+        <v>256</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>220</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>257</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>258</v>
+      </c>
+      <c r="J31" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>220</v>
+      </c>
+      <c r="O31" t="s">
+        <v>171</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>263</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>264</v>
+      </c>
+      <c r="J32" t="s">
+        <v>265</v>
+      </c>
+      <c r="K32" t="s">
+        <v>266</v>
+      </c>
+      <c r="L32" t="s">
+        <v>267</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>268</v>
+      </c>
+      <c r="O32" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>269</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>270</v>
+      </c>
+      <c r="J33" t="s">
+        <v>271</v>
+      </c>
+      <c r="K33" t="s">
+        <v>272</v>
+      </c>
+      <c r="L33" t="s">
+        <v>273</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>274</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>275</v>
+      </c>
+      <c r="X33" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>279</v>
+      </c>
+      <c r="J34" t="s">
+        <v>280</v>
+      </c>
+      <c r="K34" t="s">
+        <v>281</v>
+      </c>
+      <c r="L34" t="s">
+        <v>282</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>283</v>
+      </c>
+      <c r="O34" t="s">
+        <v>235</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>285</v>
+      </c>
+      <c r="J35" t="s">
+        <v>286</v>
+      </c>
+      <c r="K35" t="s">
+        <v>287</v>
+      </c>
+      <c r="L35" t="s">
+        <v>288</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>289</v>
+      </c>
+      <c r="O35" t="s">
+        <v>235</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>291</v>
+      </c>
+      <c r="J36" t="s">
+        <v>292</v>
+      </c>
+      <c r="K36" t="s">
+        <v>293</v>
+      </c>
+      <c r="L36" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>283</v>
+      </c>
+      <c r="O36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>297</v>
+      </c>
+      <c r="J37" t="s">
+        <v>298</v>
+      </c>
+      <c r="K37" t="s">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s">
+        <v>300</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>283</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>301</v>
+      </c>
+      <c r="X37" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" t="s">
+        <v>306</v>
+      </c>
+      <c r="K38" t="s">
+        <v>307</v>
+      </c>
+      <c r="L38" t="s">
+        <v>308</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>309</v>
+      </c>
+      <c r="O38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>310</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>311</v>
+      </c>
+      <c r="J39" t="s">
+        <v>312</v>
+      </c>
+      <c r="K39" t="s">
+        <v>313</v>
+      </c>
+      <c r="L39" t="s">
+        <v>314</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>315</v>
+      </c>
+      <c r="O39" t="s">
+        <v>86</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>316</v>
+      </c>
+      <c r="X39" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>319</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>320</v>
+      </c>
+      <c r="J40" t="s">
+        <v>321</v>
+      </c>
+      <c r="K40" t="s">
+        <v>322</v>
+      </c>
+      <c r="L40" t="s">
+        <v>323</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>315</v>
+      </c>
+      <c r="O40" t="s">
+        <v>171</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>324</v>
+      </c>
+      <c r="X40" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>328</v>
+      </c>
+      <c r="J41" t="s">
+        <v>329</v>
+      </c>
+      <c r="K41" t="s">
+        <v>330</v>
+      </c>
+      <c r="L41" t="s">
+        <v>331</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>332</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>333</v>
+      </c>
+      <c r="X41" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>336</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>337</v>
+      </c>
+      <c r="J42" t="s">
+        <v>338</v>
+      </c>
+      <c r="K42" t="s">
+        <v>339</v>
+      </c>
+      <c r="L42" t="s">
+        <v>340</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>341</v>
+      </c>
+      <c r="O42" t="s">
+        <v>235</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>343</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>344</v>
+      </c>
+      <c r="J43" t="s">
+        <v>345</v>
+      </c>
+      <c r="K43" t="s">
+        <v>346</v>
+      </c>
+      <c r="L43" t="s">
+        <v>347</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>341</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>348</v>
+      </c>
+      <c r="X43" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>351</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>352</v>
+      </c>
+      <c r="J44" t="s">
+        <v>353</v>
+      </c>
+      <c r="K44" t="s">
+        <v>354</v>
+      </c>
+      <c r="L44" t="s">
+        <v>355</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>356</v>
+      </c>
+      <c r="O44" t="s">
+        <v>235</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>357</v>
+      </c>
+      <c r="X44" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>360</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>361</v>
+      </c>
+      <c r="J45" t="s">
+        <v>362</v>
+      </c>
+      <c r="K45" t="s">
+        <v>363</v>
+      </c>
+      <c r="L45" t="s">
+        <v>364</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>365</v>
+      </c>
+      <c r="O45" t="s">
+        <v>76</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>366</v>
+      </c>
+      <c r="X45" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>369</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>370</v>
+      </c>
+      <c r="J46" t="s">
+        <v>371</v>
+      </c>
+      <c r="K46" t="s">
+        <v>372</v>
+      </c>
+      <c r="L46" t="s">
+        <v>373</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>365</v>
+      </c>
+      <c r="O46" t="s">
+        <v>171</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>374</v>
+      </c>
+      <c r="X46" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>377</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>378</v>
+      </c>
+      <c r="J47" t="s">
+        <v>379</v>
+      </c>
+      <c r="K47" t="s">
+        <v>380</v>
+      </c>
+      <c r="L47" t="s">
+        <v>381</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>382</v>
+      </c>
+      <c r="O47" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>383</v>
+      </c>
+      <c r="X47" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>386</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>387</v>
+      </c>
+      <c r="J48" t="s">
+        <v>388</v>
+      </c>
+      <c r="K48" t="s">
+        <v>389</v>
+      </c>
+      <c r="L48" t="s">
+        <v>390</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>391</v>
+      </c>
+      <c r="O48" t="s">
+        <v>76</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>392</v>
+      </c>
+      <c r="X48" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>395</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>396</v>
+      </c>
+      <c r="J49" t="s">
+        <v>397</v>
+      </c>
+      <c r="K49" t="s">
+        <v>398</v>
+      </c>
+      <c r="L49" t="s">
+        <v>399</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>400</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>401</v>
+      </c>
+      <c r="J50" t="s">
+        <v>402</v>
+      </c>
+      <c r="K50" t="s">
+        <v>403</v>
+      </c>
+      <c r="L50" t="s">
+        <v>404</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>405</v>
+      </c>
+      <c r="X50" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>408</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>409</v>
+      </c>
+      <c r="J51" t="s">
+        <v>410</v>
+      </c>
+      <c r="K51" t="s">
+        <v>411</v>
+      </c>
+      <c r="L51" t="s">
+        <v>412</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>413</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>414</v>
+      </c>
+      <c r="X51" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>417</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>418</v>
+      </c>
+      <c r="J52" t="s">
+        <v>419</v>
+      </c>
+      <c r="K52" t="s">
+        <v>420</v>
+      </c>
+      <c r="L52" t="s">
+        <v>421</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>422</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>414</v>
+      </c>
+      <c r="X52" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>424</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>425</v>
+      </c>
+      <c r="J53" t="s">
+        <v>426</v>
+      </c>
+      <c r="K53" t="s">
+        <v>427</v>
+      </c>
+      <c r="L53" t="s">
+        <v>428</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>422</v>
+      </c>
+      <c r="O53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>429</v>
+      </c>
+      <c r="X53" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>432</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>433</v>
+      </c>
+      <c r="J54" t="s">
+        <v>434</v>
+      </c>
+      <c r="K54" t="s">
+        <v>435</v>
+      </c>
+      <c r="L54" t="s">
+        <v>436</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>437</v>
+      </c>
+      <c r="O54" t="s">
+        <v>86</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>438</v>
+      </c>
+      <c r="X54" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>441</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>442</v>
+      </c>
+      <c r="J55" t="s">
+        <v>443</v>
+      </c>
+      <c r="K55" t="s">
+        <v>444</v>
+      </c>
+      <c r="L55" t="s">
+        <v>445</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>446</v>
+      </c>
+      <c r="O55" t="s">
+        <v>76</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>447</v>
+      </c>
+      <c r="X55" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>450</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>451</v>
+      </c>
+      <c r="J56" t="s">
+        <v>452</v>
+      </c>
+      <c r="K56" t="s">
+        <v>453</v>
+      </c>
+      <c r="L56" t="s">
+        <v>454</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>455</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>456</v>
+      </c>
+      <c r="X56" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>459</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>460</v>
+      </c>
+      <c r="J57" t="s">
+        <v>461</v>
+      </c>
+      <c r="K57" t="s">
+        <v>462</v>
+      </c>
+      <c r="L57" t="s">
+        <v>463</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>464</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>465</v>
+      </c>
+      <c r="X57" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>468</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>469</v>
+      </c>
+      <c r="J58" t="s">
+        <v>470</v>
+      </c>
+      <c r="K58" t="s">
+        <v>471</v>
+      </c>
+      <c r="L58" t="s">
+        <v>472</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>473</v>
+      </c>
+      <c r="X58" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>476</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>477</v>
+      </c>
+      <c r="J59" t="s">
+        <v>478</v>
+      </c>
+      <c r="K59" t="s">
+        <v>479</v>
+      </c>
+      <c r="L59" t="s">
+        <v>480</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>481</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>482</v>
+      </c>
+      <c r="X59" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>485</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>486</v>
+      </c>
+      <c r="J60" t="s">
+        <v>487</v>
+      </c>
+      <c r="K60" t="s">
+        <v>488</v>
+      </c>
+      <c r="L60" t="s">
+        <v>489</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>490</v>
+      </c>
+      <c r="O60" t="s">
+        <v>171</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>492</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>493</v>
+      </c>
+      <c r="J61" t="s">
+        <v>494</v>
+      </c>
+      <c r="K61" t="s">
+        <v>495</v>
+      </c>
+      <c r="L61" t="s">
+        <v>496</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>497</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>498</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>499</v>
+      </c>
+      <c r="J62" t="s">
+        <v>500</v>
+      </c>
+      <c r="K62" t="s">
+        <v>501</v>
+      </c>
+      <c r="L62" t="s">
+        <v>502</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>497</v>
+      </c>
+      <c r="O62" t="s">
+        <v>86</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>503</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>504</v>
+      </c>
+      <c r="J63" t="s">
+        <v>505</v>
+      </c>
+      <c r="K63" t="s">
+        <v>506</v>
+      </c>
+      <c r="L63" t="s">
+        <v>507</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>508</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>510</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>511</v>
+      </c>
+      <c r="J64" t="s">
+        <v>512</v>
+      </c>
+      <c r="K64" t="s">
+        <v>513</v>
+      </c>
+      <c r="L64" t="s">
+        <v>514</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>515</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>516</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>517</v>
+      </c>
+      <c r="J65" t="s">
+        <v>518</v>
+      </c>
+      <c r="K65" t="s">
+        <v>519</v>
+      </c>
+      <c r="L65" t="s">
+        <v>520</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>521</v>
+      </c>
+      <c r="O65" t="s">
+        <v>171</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>522</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>523</v>
+      </c>
+      <c r="J66" t="s">
+        <v>524</v>
+      </c>
+      <c r="K66" t="s">
+        <v>525</v>
+      </c>
+      <c r="L66" t="s">
+        <v>526</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>515</v>
+      </c>
+      <c r="O66" t="s">
+        <v>86</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>528</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>529</v>
+      </c>
+      <c r="J67" t="s">
+        <v>530</v>
+      </c>
+      <c r="K67" t="s">
+        <v>531</v>
+      </c>
+      <c r="L67" t="s">
+        <v>532</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>533</v>
+      </c>
+      <c r="O67" t="s">
+        <v>86</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>534</v>
+      </c>
+      <c r="X67" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>537</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>538</v>
+      </c>
+      <c r="J68" t="s">
+        <v>539</v>
+      </c>
+      <c r="K68" t="s">
+        <v>540</v>
+      </c>
+      <c r="L68" t="s">
+        <v>541</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>542</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>543</v>
+      </c>
+      <c r="X68" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>546</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>547</v>
+      </c>
+      <c r="J69" t="s">
+        <v>548</v>
+      </c>
+      <c r="K69" t="s">
+        <v>549</v>
+      </c>
+      <c r="L69" t="s">
+        <v>550</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>542</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>543</v>
+      </c>
+      <c r="X69" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>552</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>553</v>
+      </c>
+      <c r="J70" t="s">
+        <v>554</v>
+      </c>
+      <c r="K70" t="s">
+        <v>555</v>
+      </c>
+      <c r="L70" t="s">
+        <v>556</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>557</v>
+      </c>
+      <c r="O70" t="s">
+        <v>76</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>558</v>
+      </c>
+      <c r="X70" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>561</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>562</v>
+      </c>
+      <c r="J71" t="s">
+        <v>563</v>
+      </c>
+      <c r="K71" t="s">
+        <v>564</v>
+      </c>
+      <c r="L71" t="s">
+        <v>565</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>566</v>
+      </c>
+      <c r="O71" t="s">
+        <v>86</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>567</v>
+      </c>
+      <c r="X71" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>570</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>571</v>
+      </c>
+      <c r="J72" t="s">
+        <v>572</v>
+      </c>
+      <c r="K72" t="s">
+        <v>573</v>
+      </c>
+      <c r="L72" t="s">
+        <v>574</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>575</v>
+      </c>
+      <c r="O72" t="s">
+        <v>86</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>567</v>
+      </c>
+      <c r="X72" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>577</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>578</v>
+      </c>
+      <c r="J73" t="s">
+        <v>572</v>
+      </c>
+      <c r="K73" t="s">
+        <v>579</v>
+      </c>
+      <c r="L73" t="s">
+        <v>580</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>575</v>
+      </c>
+      <c r="O73" t="s">
+        <v>86</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>567</v>
+      </c>
+      <c r="X73" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>582</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>583</v>
+      </c>
+      <c r="J74" t="s">
+        <v>584</v>
+      </c>
+      <c r="K74" t="s">
+        <v>585</v>
+      </c>
+      <c r="L74" t="s">
+        <v>586</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>557</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>567</v>
+      </c>
+      <c r="X74" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>588</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>589</v>
+      </c>
+      <c r="J75" t="s">
+        <v>590</v>
+      </c>
+      <c r="K75" t="s">
+        <v>591</v>
+      </c>
+      <c r="L75" t="s">
+        <v>592</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>593</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>594</v>
+      </c>
+      <c r="X75" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>597</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>598</v>
+      </c>
+      <c r="J76" t="s">
+        <v>599</v>
+      </c>
+      <c r="K76" t="s">
+        <v>600</v>
+      </c>
+      <c r="L76" t="s">
+        <v>601</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>602</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>603</v>
+      </c>
+      <c r="X76" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>606</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>607</v>
+      </c>
+      <c r="J77" t="s">
+        <v>608</v>
+      </c>
+      <c r="K77" t="s">
+        <v>609</v>
+      </c>
+      <c r="L77" t="s">
+        <v>610</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>611</v>
+      </c>
+      <c r="X77" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>614</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>615</v>
+      </c>
+      <c r="J78" t="s">
+        <v>616</v>
+      </c>
+      <c r="K78" t="s">
+        <v>617</v>
+      </c>
+      <c r="L78" t="s">
+        <v>618</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>619</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>620</v>
+      </c>
+      <c r="X78" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>623</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>624</v>
+      </c>
+      <c r="J79" t="s">
+        <v>625</v>
+      </c>
+      <c r="K79" t="s">
+        <v>626</v>
+      </c>
+      <c r="L79" t="s">
+        <v>627</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>619</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>628</v>
+      </c>
+      <c r="X79" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>631</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>632</v>
+      </c>
+      <c r="J80" t="s">
+        <v>633</v>
+      </c>
+      <c r="K80" t="s">
+        <v>634</v>
+      </c>
+      <c r="L80" t="s">
+        <v>635</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>602</v>
+      </c>
+      <c r="O80" t="s">
+        <v>86</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>637</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>638</v>
+      </c>
+      <c r="J81" t="s">
+        <v>639</v>
+      </c>
+      <c r="K81" t="s">
+        <v>640</v>
+      </c>
+      <c r="L81" t="s">
+        <v>641</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>642</v>
+      </c>
+      <c r="O81" t="s">
+        <v>235</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>643</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>644</v>
+      </c>
+      <c r="J82" t="s">
+        <v>645</v>
+      </c>
+      <c r="K82" t="s">
+        <v>646</v>
+      </c>
+      <c r="L82" t="s">
+        <v>647</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>648</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>650</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>651</v>
+      </c>
+      <c r="J83" t="s">
+        <v>652</v>
+      </c>
+      <c r="K83" t="s">
+        <v>653</v>
+      </c>
+      <c r="L83" t="s">
+        <v>654</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>655</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>656</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>657</v>
+      </c>
+      <c r="J84" t="s">
+        <v>658</v>
+      </c>
+      <c r="K84" t="s">
+        <v>659</v>
+      </c>
+      <c r="L84" t="s">
+        <v>660</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>661</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>663</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>664</v>
+      </c>
+      <c r="J85" t="s">
+        <v>665</v>
+      </c>
+      <c r="K85" t="s">
+        <v>666</v>
+      </c>
+      <c r="L85" t="s">
+        <v>667</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>668</v>
+      </c>
+      <c r="O85" t="s">
+        <v>86</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>669</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>670</v>
+      </c>
+      <c r="J86" t="s">
+        <v>671</v>
+      </c>
+      <c r="K86" t="s">
+        <v>540</v>
+      </c>
+      <c r="L86" t="s">
+        <v>672</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>673</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>674</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>675</v>
+      </c>
+      <c r="J87" t="s">
+        <v>676</v>
+      </c>
+      <c r="K87" t="s">
+        <v>677</v>
+      </c>
+      <c r="L87" t="s">
+        <v>678</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>679</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>680</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>681</v>
+      </c>
+      <c r="J88" t="s">
+        <v>682</v>
+      </c>
+      <c r="K88" t="s">
+        <v>683</v>
+      </c>
+      <c r="L88" t="s">
+        <v>684</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>685</v>
+      </c>
+      <c r="O88" t="s">
+        <v>76</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>686</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>687</v>
+      </c>
+      <c r="J89" t="s">
+        <v>688</v>
+      </c>
+      <c r="K89" t="s">
+        <v>689</v>
+      </c>
+      <c r="L89" t="s">
+        <v>690</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>691</v>
+      </c>
+      <c r="O89" t="s">
+        <v>76</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>692</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>693</v>
+      </c>
+      <c r="J90" t="s">
+        <v>694</v>
+      </c>
+      <c r="K90" t="s">
+        <v>695</v>
+      </c>
+      <c r="L90" t="s">
+        <v>696</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>697</v>
+      </c>
+      <c r="O90" t="s">
+        <v>76</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>699</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>700</v>
+      </c>
+      <c r="J91" t="s">
+        <v>701</v>
+      </c>
+      <c r="K91" t="s">
+        <v>702</v>
+      </c>
+      <c r="L91" t="s">
+        <v>703</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>697</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>705</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>706</v>
+      </c>
+      <c r="J92" t="s">
+        <v>707</v>
+      </c>
+      <c r="K92" t="s">
+        <v>708</v>
+      </c>
+      <c r="L92" t="s">
+        <v>709</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>711</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>712</v>
+      </c>
+      <c r="J93" t="s">
+        <v>713</v>
+      </c>
+      <c r="K93" t="s">
+        <v>714</v>
+      </c>
+      <c r="L93" t="s">
+        <v>715</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2711</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>717</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>718</v>
+      </c>
+      <c r="J94" t="s">
+        <v>719</v>
+      </c>
+      <c r="K94" t="s">
+        <v>720</v>
+      </c>
+      <c r="L94" t="s">
+        <v>721</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>721</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_143.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_143.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="814">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Tom A</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>RichRey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r572671487-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>Stayed here two night for work a few miles down the street. At check in, Pauline was great. Super polite, personable, helpful, and engaging. Most places I’ve stayed just want to check you in and get back to what ever they’ve got going on. She took the time to have a conversation with me which was kind of nice to not feel rushed.The room was the usual room for the Courtyards. It was clean and had a pleasant smell. Ac unit was quiet and never woke me up once when it kicked on. The bed was a bit on the firm side but still comfortable. Overall appearance was nice. For someone who travels regularly, the customer services is what makes or breaks a visit for the chain hotels. This was by far my most pleasant experience. Thanks again. More</t>
   </si>
   <si>
+    <t>cerberus2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r560145110-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>Booked for last minute business travel, great rate for same day booking.   Free in-room and lobby internet.  Hotel recently refreshed, all new including lobby, halls and rooms themselves.   Front desk on check in and check out could not have been nicer or more helpful.   Check in was a breeze, delivered on the requested items (feather pillows, higher floor).  Very nice fluffy towels, new shower head.   Would stay there again,More</t>
   </si>
   <si>
+    <t>guitardudeProdu... G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r525260716-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>Another amazing stay at the Courtyard Costa Mesa. Just a few minutes from the beach, this is gem! Front desk staff was amazing and made the check in painless and enjoyable! Whaaaat?? Yes, enjoyable! The surrounding area has everything to offer. Shopping and plenty o' food choices within minutes just west on Harbour Blvd. towards the beach. Beach area is only 5 to 10 minutes. Balcony rooms overlooking the pool are wonderful.More</t>
   </si>
   <si>
+    <t>Amber S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r515336296-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>I am at this hotel, which is in Santa Ana, right now.  My husband booked it after I had asked him to book the Marriot Courtyard in Irvine.  He tried to change the reservation a few minutes later, and Marriot refused, so we are stuck here.  It is an industrial area of Santa Ana, surrounded by mattress outlets and fast food chains.  It is 4.7 miles from Costa Mesa, so not sure why it's called Costa Mesa.  It is almost 7 miles from the beach.  Very disappointed...  Think carefully before you click confirm, because there is no going back if you made a mistake.  Their customer service is unforgiving.More</t>
   </si>
   <si>
+    <t>rlm_travelers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r500543552-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
     <t>I stayed here for 2 nights and had no issues. Lobby and guest room were very clean. Check in process was easy. I did mobile check in and my room key was ready when I arrived. Although I requested a room close to the elevator, my room was located at the very end of the hallway, furthest from elevator. Housekeeping staff was very friendly. Not sure why they charge $10/night for parking as the area seems to be industrial/business parks.More</t>
   </si>
   <si>
+    <t>ChangeAdvisor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r489722658-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -333,6 +354,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Travelguy9945</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r488196857-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -348,6 +372,9 @@
     <t>The staff was nice and very friendly. The hotel is clean and appears to have been recently updated.  Not a lot of hotels in the area.  The only downside of this hotel is no free breakfast,  Starbucks is the onsite restaurant vendor so there is a reasonably priced Starbucks breakfast and coffee, wine and snacks are available in the evening</t>
   </si>
   <si>
+    <t>myspacebobby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r483915757-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -369,6 +396,9 @@
     <t>Was in town for a show at The Observatory and a quick day at Disneyland and very glad this was my choice. Hotel is within a easy walking distance from the venue so you can skip the cost and hassle of trying to park at the venue and make a stay cation of out it!  Attempted to check in early but was certain I may not be able to due to it being early and busy but I was nicely greeted upon arrival and was asked to wait only about 20 minutes before my room was available. Rooms were very nice and looked recently renovated.  Not to many dining options nearby so you may have to plan a bit ahead for a late night bite to eat. We decided to skip the drive and parking to Disney and took an uber to and from.  So glad I did as it was only a $10ish ride each way and get dropped off and picked up at the door step to Disney, definitely the way to go!!!  Did have a minor billing issue I noticed a few days after my stay but I called in and they were apologetic and fixed issue immediately. The whole staff was great friendly in all my encounters with the and look forward to spending the night here again soon when in the area!More</t>
   </si>
   <si>
+    <t>SKR944</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r474142249-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -387,6 +417,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Jessica M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r473284650-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -405,6 +438,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>599allank</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r469169952-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -420,6 +456,9 @@
     <t>Comfortable and always consistent. This chain always performs as expected.  Rooms clean, safe and comfortable.  The market available for snacks and the restaurant available for food and drinks.  This hotel is located within driving distance of the beach, shopping and amusement parks. I've been here a few times and would gladly stay again.</t>
   </si>
   <si>
+    <t>AmySD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r456823357-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -447,6 +486,9 @@
     <t>This property is situated in a commercial/business park area. Lower than usual rate BUT they charge a $100 room deposit, front desk states it's due to a local concert hall that attracts Guests who get rowdy and trash the rooms and they require the large deposit. Beds comfy room a good size, not too many toiletries but they were able to give me a toothbrush and paste, since I forgot mine from home. Donut star down the street has great donuts.More</t>
   </si>
   <si>
+    <t>jim95125</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r447540855-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -465,6 +507,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>sandragant</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r445042027-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -489,6 +534,9 @@
     <t>Great staff.  Eric at the front desk was charming.  He gave us good recommendations of local restaurant.  The bistro barista was friendly.  Our room was spacious and the bed luxurious.  I think the pool will be great after they finish refurbishing it.More</t>
   </si>
   <si>
+    <t>Jose Luis V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r421242614-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -516,6 +564,9 @@
     <t>Small gym. No bike to train just 3 treadmill of course busy early in the morning. Place looks very old, smelly particularly on the rooms. Air conditioning is really bad, very noise actually I turned it off so I could sleep. More</t>
   </si>
   <si>
+    <t>Sail2fun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r420971693-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -534,6 +585,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>SoCalTravelers2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r419235272-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -561,6 +615,9 @@
     <t>Planned for numerous VPs to stay at this hotel because always thought it was nice. Not the case. They complained of:•	toilets flooding with gunk overnight•	bugs in bed•	blood on curtains Needless to stay, we will not be staying there again.More</t>
   </si>
   <si>
+    <t>Jo S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r401526115-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -579,6 +636,9 @@
     <t>We were at first a bit hesitant due to poor accessibility to freeways but after a day or two we loved it. We will always stay here when a room to accommodate 5 is needed. The room was clean, and the pool was warm and clean with supply of beach towels.  ( They do need to enforce the posted rule of no children under 14yrs without adult at the pool.. I called the front desk, Paulina, about 4 noisy kids all under 14yrs but nothing was done). Starbucks available in the lobby 24 /7 was also awesome. We liked that there were two separate rooms, so the night owls did not affect the sleepers ! SATISFIEDMore</t>
   </si>
   <si>
+    <t>Weeklytravelers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r400338072-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -594,6 +654,9 @@
     <t>We loved this hotel.  For the price, value and location it was hard to beat.  Every staff member we met was friendly, outgoing and went out of their way to help.  Plenty of free parking, and quality internet.  Definately will stay here next time we are in the area</t>
   </si>
   <si>
+    <t>Toni D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r399257727-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -615,6 +678,9 @@
     <t>I was visiting the area for a workshop and selected this hotel for its location in relationship to the workshop venue.  The hotel is in the midst of an industrial area so nowhere to walk for dining or shopping really but it's close to everything by car or uber.  About 20 minutes from John Wayne airport.  I requested a room facing the side parking lot to cut down on the street noise from Harbor Blvd.  The room was spacious and I had the best two nights of sleep I literally can remember.The staff was incredibly helpful.  There were four of us in our group spread across different arrival and departure times.  Some of our party had flight arrival issues, one wasn't able to get there at all and we needed to reorganize room sharing.  The staff, with whom we were on a first name basis in a matter of hours, was incredibly helpful throughout our entire stay.It felt like more of a business hotel in that it was quiet and we did not see many families however I think it would be a good choice for any type of traveler and a cheaper hotel option for seeing some of the family attractions in the area such as Disney.There is a small market in the lobby to buy food and supplies and a cafe for all meals and cocktails (though the cocktails were a bit pricey!).More</t>
   </si>
   <si>
+    <t>basketmommy34</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r378865107-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -636,6 +702,9 @@
     <t>We stayed at the courtyard in Santa Ana for my daughters basketball tournament. We got a great  group rate. My only complaint that i have is at check in they did not informed us we had a continental breakfast included with our group rate and the times it was available. Before heading out my daughter wanted a bagel so we went to the restaurant and the super nice young lady with a bright smile; she knew or had an idea we were with the group and she gave us all the information and times for the continental breakfast super helpful. We had missed the continental breakfast that day since it was only available for 1 hour and we were not informed but she apologized and was able to give us a bagel very nice of her. She has great customer service. The next morning we made it to the continental breakfast there was a lot of variety of items. Great hotel.More</t>
   </si>
   <si>
+    <t>CalGal12345</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r375495681-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -663,6 +732,9 @@
     <t>I've stayed here twice for business and have had a good experience.  I consider this a value hotel and so have adjusted my expectations accordingly.  The beds was comfortable and room was clean.  I would return.  I would say the main opportunities are bath related.  They give you those little bottles of shampoo and conditioner as most hotels do.  The issue here is that they are opaque and impossible to tell how much liquid is in them.  I found that they can be near empty since the housekeepers can't tell either.  The bottle for each (including lotion) are all the same color and I found extra lotion but no conditioner.  With long hair this is not good.  I left a note (and tip)  for housekeeping to leave leave more conditioner and upon return I had even more lotion and again, no conditioner.  I had to call the front desk for it.  Kind of a basic training opportunity for simply paying attention to details.  The other complaint is those tiny hair dryers. You know, the built in type. Clearly not spec-ed out with women in mind. Good luck trying to style your hair and plan on about 15 minutes. Guys, if you think this is petty, just ask your wife and daughters. And BTW, if you're all traveling together, you'll be waiting for them to finish. It matters!More</t>
   </si>
   <si>
+    <t>Jenna G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r374930651-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -684,6 +756,9 @@
     <t>This hotel is our go-to place when we are in town visiting family.  The location is central to all the necessary shopping/dining/excursions/freeways.  The staff are always friendly and accommodating.  The rooms are clean and comfortable, and noise is usually never a problem.  Some of the rooms facing Harbor Blvd can let in some of the road noise, but it dies down overnight.  On one occasion we requested a room away from the street and the front desk was more than happy to move us.  There is a bistro in the lobby, serving Starbucks coffee if that's your thing.  Food options are quite tasty, we usually sit down for a quick breakfast before heading out for the day.  Sitting areas inside and outside are comfortable, pool is good size, hot tub as well.  All the usual Marriott chain amenities here.  My husband and I settle in nicely here whether we're staying for a few days or an entire week.  I definitely recommend to anyone in the area... for business or vacation, or just needing a place to stretch out when visiting family.More</t>
   </si>
   <si>
+    <t>Bob R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r369261663-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -708,6 +783,9 @@
     <t>This is the second time I have stayed at this hotel, and will probably be my last. It is in a great location and the room was great, but the lack of hot water between 6AM and 7AM was not explainable. It took a long time to get hot water in the sink to shave. The only way I could keep hot water to rinse my razor was to leave the hot water on, letting it run wasting precious water.More</t>
   </si>
   <si>
+    <t>y2kbugme4u2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r368762308-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -735,6 +813,9 @@
     <t>It would have been a 4 1/2 star but...My hotel stay for 2 nights were prepaid by Orbitz.com. They took my credit card for incidentals. At the time of check out, I was told, I was "OK" since it was prepaid.Few weeks later while looking at my credit card charges, I saw ANOTHER charge of the same amount!!! I have called my credit card for dispute and they themselves saw 2 payments of the same kind.So be very careful. Asked for a receipt for $0 balance at the time of check-out!!! Buyer's beware!!!!More</t>
   </si>
   <si>
+    <t>Shanna L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r368001528-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -750,6 +831,9 @@
     <t>The staff upon check-in was very polite and helpful. The hotel was nicely decorated and up-to-date on the decor. The bed was one of the most comfortable beds I have ever slept in. The bathroom was also very nice. The balcony was small but enjoyable. Room service was very quick and I enjoyed the pizzas  that I had ordered. I would highly recommend this hotel to anyone that wanted to stay near the beach or travel there with their family. Also the hotel is wonderful for business trips.</t>
   </si>
   <si>
+    <t>Joseph S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r349992977-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -774,6 +858,9 @@
     <t>Best price by a lot for our stay here.  Rooms are great, nice TV and free wifi.  But a few things annoyed me.  The iron leaked.  Coffee was sparse only got two decaf pouches.  There is no room service.  The bar has only two stools, so most people have to order at the counter and sit at a table.  Two tiny tvs.  Limited choices for dinner cooked in a turbo oven.  Although the hamburger I had was really good.  Salads are great and humongous.  So although prices are great next time I'll choose a hotel with a great bar and a full restaurant.More</t>
   </si>
   <si>
+    <t>Stephan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r348162941-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -789,6 +876,9 @@
     <t>Really enjoyed the stay here on a business trip coming from Germany. nice rooms with good beds and a very good service team. Breakfast was also good - nearby Mall is just amazing. Looking forward to come back and jump into the pool again. Thanks!</t>
   </si>
   <si>
+    <t>maiboston</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r347614994-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -807,6 +897,9 @@
     <t>Pros - clean looking, starbucks coffee, bistro, nic I staff, nice landscape (saw some orange trees around the property, which takes you back to the days when the area was agricultural growing oranges. I find that even though it is built next a major street, it seems  more   quiet of the many courtyard marriotts in the area. Many courtyards are built sandwiched between a freeway and a major street or a mall.  So, you get double the noise. This courtyard is in an industrial center.Cons - you have to drive out of your way to get to the major shops and restaurants. There is way too much furniture polish or cleaning solutions in the lobby - the smell is so strong, it permeates the entire first floor. If you have allergies to perfumed smells, this is not your place. The laundry room has no table, its just 2 machine units and a trash can. I saw one person at the front desk during busy times instead of two. The computer terminals and the slow software needs an upgrade. The keyboard is way too small,  it looks like it was made for grade school not adults.More</t>
   </si>
   <si>
+    <t>Kathryn T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r339488984-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -825,6 +918,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Mattias E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r328079687-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -852,6 +948,9 @@
     <t>Location was ok, breakfast expensive, bier expensive, gym from the 80's and the pool was cold. Rooms where a bit old but clean.  The icemachine outside my room was way to loud. It was a short drive to shopping and beaches.More</t>
   </si>
   <si>
+    <t>Chris S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r326131968-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -870,6 +969,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>solg690</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r318762008-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -886,6 +988,9 @@
   </si>
   <si>
     <t>September 2015</t>
+  </si>
+  <si>
+    <t>Lvinstyle</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r317662824-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
@@ -920,6 +1025,9 @@
 The structure is rather flimsy and sound travels throught the thin walls and floors easily.  It is better to be on a higher floor and not deal with overhead noise....This is a clean spacious hotel with remodeled lobby and rooms, but it is still an older hotel.The room is big and I like the California King Size bed with plenty of room to stretch out.  Both sides of the bed are equipped with electrical outlets which is convenient.  My room had a pull out bed built into the couch.  It also had a small balcony that overlooked the courtyard and pool.  The desk is extra spacious with plenty of room to spread out and work.   Multiple AC outlets are available in the lamp to connect your devices.The free wifi is zippy and had decent download speeds.  It is the typical Marriott wifi setup and authentication.  The TV multimedia outlets are accessible to plugin your own media.  HDMI, RCA, and USB are all available on the LG 40in screen.  The Courtyard provides you with a small refrigerator in the cabinet to keep stuff cool, but no microwave to warm things up.  The closet is decently sized and is able to accomodate one valet.  I like that there are hooks available to hang your clothes on.  The bathroom had a regular tub with a shower.  The shower head is nice and big and has great pressure which unusual for California.  The structure is rather flimsy and sound travels throught the thin walls and floors easily.  It is better to be on a higher floor and not deal with overhead noise.  Overall this was a nice setup and I was pleased with the service and room.  The Courtyard has always been a pretty good value and this is no different.  Enjoy :)More</t>
   </si>
   <si>
+    <t>Samsac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r317327769-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -944,6 +1052,9 @@
     <t>I stayed 5 days , the location of the hotel is very good as it is 5 miles from Newport, 6 miles from Huntington Beach, 5 miles from Anahiem conference center, 5 minutes from the wander full south cost plaza .. The room is standees nothing special. I was suppose that the breakfast and coffee is not for free. Last year I stayed in courtyard hotel and I remember that the breakfast and coffee was completely. I stayed after that at the Hilton Huntington Beach which is better than this hotel with only extra $40 per night. The room rate is expensive for what you get. More</t>
   </si>
   <si>
+    <t>Magicvan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r297391937-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -962,6 +1073,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>GER4511</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r293444193-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -989,6 +1103,9 @@
     <t>This was as close to Newport as we could get. Having stayed often in marriotts I was disappointed with this one. Our room was on the road side and the noise was unbelievable. We were woken up before 6am with traffic noise. Also the wifi didn't work. Even when we upgraded to the $5/day, we didn't have a connection unless we were in the lobby.More</t>
   </si>
   <si>
+    <t>kingofchimps</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r288669286-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1013,6 +1130,9 @@
     <t>Asked for quiet room and got one.  Unfortunately, the family (or families) next to and across the hall were terrible.  Kids running, yelling, crying and no parents to be found.  Dealt with it for a couple hours since it was early evening.  But I was concerned their behavior would continue late into night.I called the front desk and spoke to Rafael.  Said no problem and would bring me the keys to new room.  He was there within 10 minutes!  Lifesaver, as I got a very quiet room and slept well.Hotel is clean, plenty of parking and a good location for me, as I attended concert withing walking distance.More</t>
   </si>
   <si>
+    <t>Clint W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r278202894-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1038,6 +1158,9 @@
   </si>
   <si>
     <t>Not the best Courtyard, but the location and price were right.Bistro bar is one of the better ones, with really nice staff.Rooms are ok, nicer ones face the courtyard and overlook the pool.Elevators are really slow.  This is a major problem in the morning when they are all jammed with housekeeping staff and their carts.  Try a lower floor and use the stairs, but tat is a pain when you have rolling bags.More</t>
+  </si>
+  <si>
+    <t>Victoria K</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r277117494-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
@@ -1067,6 +1190,9 @@
 The room was clean and ours was large. The staff was nice. We used the Marriott app to check in and told them we would be there around 11:00. Our room key was waiting even though it was officially still a few hours until...My son and his team stayed here recently for a soccer tournament taking place at UC Irvine. This hotel was easily $50 less than the hotels we found within 3 miles of the college. It sits 6 miles away, but it is an easy freeway ride to the school if you are visiting, and has free parking which many closer hotels charge for. Just take the 73S, and exit before the first toll exit. You don't need a pass or pay a fee, as long as you exit before the toll road begins.  The hotel itself was comfortable but not fancy, with a nice pool/outdoor courtyard perfect for the kids to run around and play in. There is a good gym, and a very nice lobby with a cafe and lots of seating. There is a kids menu on request, so be sure to ask. The breakfast actually cost less than the I-Hop we ended up at the day before, and was good.  They even serve Starbucks coffee. If you want to venture out there are many restaurants within a mile or two but none walkable. We were focused on kid friendly (Applebee's, Sonic's, fast food).  The room was clean and ours was large. The staff was nice. We used the Marriott app to check in and told them we would be there around 11:00. Our room key was waiting even though it was officially still a few hours until checkin.  It all worked great. I wouldn't hesitate to stay there again.More</t>
   </si>
   <si>
+    <t>MadhatterFL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r274320994-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1091,6 +1217,9 @@
     <t>Usually stay at the Costa Mesa Marriott, but was looking for something a bit more budget conscious. Nice enough property, seems a little older, and could use a freshening. Not much around it, as it is really in Santa Ana, not Costa Mesa.Quick two night stay, no problems, could have really used a room not facing a main thoroughfare.More</t>
   </si>
   <si>
+    <t>lullysuv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r269056119-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1118,6 +1247,9 @@
     <t>I stayed here for one night whilst in town to see a concert at the Observatory (just a few blocks away). We had 2 rooms total.We arrived early and enquired about checking in prior to the standard time of 3pm. The receptionist was really helpful and allowed us to check in just after 12pm, and managed to put our rooms next to each other which was awesome.The parking was widely available when we got there, but when we went out and came back later that evening, it got really full. We did find a space after driving around the hotel to the back. This was not a huge problem for us though, just worth a mention.The room was roomy and clean, the bed was super comfortable and the bathroom was spacious and clean. The room also had an iron and ironing board which was great.The main lobby was a very pleasant area to sit and relax in when we met some friends who were also staying in the same hotel.Overall a very pleasant experience. Would stay here again if I was visiting the area.More</t>
   </si>
   <si>
+    <t>Kayla S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r261286342-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1143,6 +1275,9 @@
   </si>
   <si>
     <t>I love when you get to be pleasantly surprised checking into hotels.As platinum members, we were upgraded to a suite, always a plus, plus they had this wheel thing and we earned more bonus points.Front desk staff was super friendly too.Bed was super comfortable, and it was nice having a separate room with a couch to work on in the morning.The only complaint was the constant flashing of the fire alarm in front of the bed that woke up both my husband and I several times through the night.More</t>
+  </si>
+  <si>
+    <t>naejjean</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r260584923-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
@@ -1173,6 +1308,9 @@
 Bistro food - I only tried...I am not a demanding traveler. I expect cleanliness, reasonable comfort, simple but pleasing decor, and easy access to simple foods. On the other hand, I am also a demading traveler in that I seek openable windows or balcony doors, and siting such that I can leave the curtains open and wake up to sky and (ideally) treetops. And in a new geography (which this was for me) I care about the complexity of the route from/to the airport, and the traffic patterns at the hotel entry. All good at this property. And the pluses included an elegant bathroom (with near-instant hot water), a convenient interior stairwell and an unusually appealing pool. [I rarely use hotel pools. And I didn't have the time to try this one. But it was tempting.] The hotels near the airport would have been closer to my local destinations. But this property was a far better choice for me... everything I needed, and consistent with the leisure nature of the trip.Location... I didn't click the location-rating button because the suitability depends totally on travel agenda. Others may describe the location as "in the middle of nowhere". And I certainly wouldn't book here without a car. But restaurants and stores are reasonably accessible. And the "nowhere" aspect is part of the relative quiet of this property in the general Southern California buzzyness. As a quiet base, it was great.Bistro food - I only tried breakfast. Yes, "overpriced". But good, and quick, and convenient, and eaten in a very pleasant morning-light space.More</t>
   </si>
   <si>
+    <t>EdieBreda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r255927656-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1200,6 +1338,9 @@
     <t>Wonderful place to stay. Personell upon check in was very friendly and helpful. Nice lobby area with a little 'market place'. Our room was quite spacious, with a little couch to sit on. Comfortable bed and shower. Conveniently located (you will need a car, though) close to South Coast Plaza and Newport Beach and beyond.Wifi in the room is of excellent quality.Nice hotel, would stay here again.More</t>
   </si>
   <si>
+    <t>RobDora</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r253607772-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1227,6 +1368,9 @@
     <t>We recently stayed here for 3 nights. The location on Harbor Blvd. gives good access to eateries. It is about 10-15 minutes north of Newport and Huntington Beaches. There is a restaurant in the hotel and there is a small convenience cubby which sells drinks, food - and the food prepared fresh! The room was clear, the bed was comfortable - the linens were fresh and clean which was nice. The few staff members that we interacted with were helpful - include a flat screen tv and a tub.People at the front desk was very pleasant and helpful. He represented the hotel well.  Ask for a high floor, away from the elevators, an inside room to avoid highway noise - facing the pool.We would definitely recommend this for business and vacation travelers!!!.More</t>
   </si>
   <si>
+    <t>Lisa L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r246265742-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1242,6 +1386,9 @@
     <t xml:space="preserve">The hotel has a lot of courtyard space for big family to hang out. Lovely setting at the lobby with more hangout space/TV. Rooms are spacious snd very clean. Cafe staff were very helpful. They let me buy a cup of tea after closing through the front desk cashier. I was pleasantly surprise. They even let me extend my check out for an extra hour without giving me a hard time. I had a peaceful and relaxing weekend here. Will certainly come back again. </t>
   </si>
   <si>
+    <t>rmnovak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r234451144-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1266,6 +1413,9 @@
     <t>This hotel was super convenient for my work trip and my early AM trip to Newport Beach . It's modern and nice but I had to document a few issues. 1- room had a funny odor like urine but could've been the cleaner used2- I had left a clean room and returned to new towels and a un flushed "used" toilet3. I was on the ground floor directly next to the exterior door which seems to be a perk for ease of coming and going but was anything but when I was up all night as guest would come and go and I heard each one like they were in my bed!4. Front desk was not able to check me out because my flight was early ( had to leave at 330 am) but advertised 24 hours Breakfast was awesome and starbucks coffee in house was great . Also can't stress enough that the locations was great !!More</t>
   </si>
   <si>
+    <t>Wendymcohen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r227586176-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1293,6 +1443,9 @@
     <t>This is a convenient hotel that is great for the business professional that likes straight forward, clean and cost effective lodging for a business trip.  Their lobby is updated and access to the hotel is easy just off the 405 freeway.  My only complaint from my recent stay was that the cnn channel on the tv did not work.  I called the front desk and received a less than eager response from someone at the front desk.  The TV's in the rooms are very nice, but without cnn it does me no good!  At the same time, I would say that the front desk staff when I checked in was really great.More</t>
   </si>
   <si>
+    <t>JBL303</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r226750903-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1314,6 +1467,9 @@
     <t>Stayed here for a business trip. Centrally located to Fountain Valley. Close to John Wayne Airport. Rooms are clean. Exercise room is top notch. Service was excellent. Free Wi-Fi and parking. Even the food at the bistro was good. Would stay here again.More</t>
   </si>
   <si>
+    <t>DRLMinneapolis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r221890748-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1338,6 +1494,9 @@
     <t>I recently stayed here for 4 nights over 2 separate stays.  Ask for an inside room to avoid highway noise.  Very comfortable beds, and an excellent shower experience.  Most of the staff, especially the guy at the front desk whose name begins with "R," are very pleasant.  He is an awesome customer service rep.The only negative was that one day our room wasn't cleaned until 4:30 PM, and the next day until 5:15 PM.  This cut into our getting ready for the evening.More</t>
   </si>
   <si>
+    <t>wlovemelody</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r219144501-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1365,6 +1524,9 @@
     <t>We stayed here on our family vacation. It was very clean. I had a quiet room with a balcony. It does come with a coffee maker or you can go downstairs and get a Starbucks ( which i personally thought was awesome). The staff respected my things when they came in and cleaned. Loved that they had the idea of a pull out couch however my boys complained in wasn't very comfortable and one even slept on the floor to avoid it. The front desk made a very quick check in check out. Oh and I have to say we love swimming in the salt water pool. Soft water.More</t>
   </si>
   <si>
+    <t>Christine S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r218231910-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1392,6 +1554,9 @@
     <t>We appreciate the clean hotel, and friendly staff at this Courtyard.   The pool is salt water, and was clean and enjoyable.   This hotel is located close to the airport, but charged less reward points than the Courtyard that is right by the airport.More</t>
   </si>
   <si>
+    <t>Craknzee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r200735689-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1419,6 +1584,9 @@
     <t>Business trip brought me here... a decent location related to other nearby hotels, and close to the business park. Hotel is clean, staff is nice, however no restaurant on site for supper... just a small counter type grill for simple sandwiches, etc..  The only real downfall is the price is too high for this hotel (Avg. 119-189).. this place in comparison is about a 99.-129 type hotel. Caters to business in the area and a better option than say the vagabond and quality in down the block.More</t>
   </si>
   <si>
+    <t>Susanlynn53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r197708459-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1446,6 +1614,9 @@
     <t>Average Courtyard, located near my meetings.  The problem with the hotel was the very noisy street which was horrible for getting any rest.  Traffic was very loud and it was difficult to sleep. Staff was ok.More</t>
   </si>
   <si>
+    <t>AMNINAZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r197553090-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1470,6 +1641,9 @@
     <t>The point of a hotel is a place to sleep. Yet knowing they had a wedding reception booked for their lobby, they gave us (non wedding guests) the room closest to the lobby. Guess how much sleep I got? And all the manager said was "they are winding down" as people are yelling and screaming and I still not asleep. Awful!More</t>
   </si>
   <si>
+    <t>481matthewn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r193864687-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1495,6 +1669,9 @@
   </si>
   <si>
     <t>The room was clear, the bed was comfortable, and the few staff members that I interacted with were helpful.  My stay was a quick business trip: I arrived late in the day, slept, had a small breakfast at the coffee shop in the lobby (I Starbucks if I remember correctly), and left early the next morning.  Nothing was "WOW," but that's not what I was looking for.  I wanted quick and easy, and that's what it was.More</t>
+  </si>
+  <si>
+    <t>Tracy Z</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r187931803-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
@@ -1530,6 +1707,9 @@
 WiFi was slow,  as were the business center computers.   This is probably my biggest complaint.....It's a fairly typical Courtyard. No deal breaker problems, but not stellar either. Fine for all practical purposes.  Usually there is a small mini fridge in rooms at Courtyards, not in my room here.The room had a little bit of an old,  dank smell. Not oppressive but certainly not great.  Staff was nice and professional.  Especially housekeeping,  My room was missing a luggage stand, when I tried calling the front desk twice with no answer either time. I walked out into the hallway and the housekeeper busy cleaning a room,  found an extra one in a room and gave it to me.  (you can judge for yourself about them not answering the front desk phone at 3:30 in the afternoon on a Tuesday, I let it ring at least 8 times each attempt).Not very pleased that they've removed the whirlpool to move the fitness room closer to the pool . I'm sure most people might like it, I'm not a fan.One issue I noticed is that doors sound as loud as thunder claps.  Not sure whether it's just guests slamming the doors or that the construction of the property is substandard where you can hear everything going on.  I did also  clearly hear conversations outside in the parking lot while I had the TV on. So I am leaning towards the latter.WiFi was slow,  as were the business center computers.   This is probably my biggest complaint.. as many people are here for business and  need the WiFi working well.  Overall fine,  not the worst by far,  and not the best.More</t>
   </si>
   <si>
+    <t>kozunaci</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r184537618-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1548,6 +1728,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>beachgirl60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r181193045-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1561,6 +1744,9 @@
   </si>
   <si>
     <t>We booked this hotel for a concert in LA,preferring to stay in Orange County.I  always try to book a Marriott as they rarely disappoint,and this one was no exception.Very nice ,very clean,great staff and good parking.As usual we prefer a top floor and we stayed on the fourth floor.The area was a little industrial which means it was very quiet at night,even daytime wasn't very noisy.We would stay here again.</t>
+  </si>
+  <si>
+    <t>rlee508</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r179233000-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
@@ -1592,6 +1778,9 @@
 Other than the noise, I had a quiet experience once everyone went to bed.  I was on the fourth floor facing the pool so no outside noise all night - lots of landscaping and garbage...I think this is a solid 4 out of 5 - not sure what the issues were from earlier lower ratings but I guess some things were improved.Location is great, just off the beaten path from the hectic South Coast Plaza area but still close enough to be convenient.  Right on the border of Costa Mesa and Santa Ana, but feels relatively safe being surround by mostly corporate buildings.  A good value for the price.The guy at the front desk was efficient and polite.  Lobby area had free popcorn and free iced cucumber water available near the Bistro which is a nice touch.I think a lot of people requested upper level rooms away from the elevators, since a whole bunch of guests were jam packed into my end of the floor, and the hotel couldn't have been more than 1/4 occupied.  Due to poor construction, I heard everything from everyone - all the hallway noise, doors slamming (very loud - you'd think people would have some courtesy to close their doors a little softer), and I heard everything room the unit next to me - the guy coughing/clearing his throat, conversations, TV noise, plumbing noise, drawers closing - everything.  Very thin walls.Other than the noise, I had a quiet experience once everyone went to bed.  I was on the fourth floor facing the pool so no outside noise all night - lots of landscaping and garbage truck noise in the morning though.I must say the bed sheets were the freshest I've experienced in a while from a Marriott branded property - I've stayed at a half dozen recently and there was always some musty smell or head smell.  The linens were fresh and clean which was nice.More</t>
   </si>
   <si>
+    <t>Qutihp4lyf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r178654942-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1610,6 +1799,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>carolanddavid_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r170945815-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1628,6 +1820,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>steph_ksufootball</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r170065530-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1646,6 +1841,9 @@
     <t>Our group stayed here because the US surf competition kept us out of Huntington Beach. It was close to Huntington Beach, Newport Beach and LA. The rooms were clean and the service was usually very good. Maid service was good, but they often didn't show up until after 3 pm. It seems like they have too much work to do. We requested a refrigerator and microwave. We never got the microwave, but there was one available in the lobby 24/7. Parking was free and the pool was great. We also enjoyed the balcony, although we did not have chair for the first couple days of the trip. I would stay here again. Hint: ask for a refrigerator before you arrive.More</t>
   </si>
   <si>
+    <t>Johnny V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r165828540-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1673,6 +1871,9 @@
     <t>Arrived about 1pm and was greated by an unfriendly clerk. She snickered when I asked if it was possible to check in. She said "check in is at 3" and stared me down. Not a good way to start. Drove about 5 miles to South Coast Plaza (thinking this place was near the South Coast Plaza as in the name) for lunch. Upon returning at 3:05 expecting the same wicked witch, I was pleasantly surprised to be greeted by Amanda. She got me to an upgraded room, pool view (larger 2 Q room over smaller 2 double bed room) and set the stay off right. Room was clean and updated. Pool as well. Spa was closed for repairs, appears to be permanent or at least for a long period of time. FYI.Wouldnt stay here again, too far from the beach, mall or anything else without driving a ways. But the condition was great.More</t>
   </si>
   <si>
+    <t>Bridgetpianos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r161330849-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1700,6 +1901,9 @@
     <t>I really like this hotel. The front desk staff are very knowledgable about directions and made me feel like family. The rooms and hotel have recently been renovated and everything in the room was new. I liked having a balcony.They don't have a free breakfast but the restaurant serves the best breakfast it is better than getting the same boring buffet breakfast. It would be nice if they would have coffee in the lobby. The hotel is 5 minutes from the John Wayne airport and 10 minutes from the Huntington Beach Pier. I stayed here 12 days for business and definitely will go back.More</t>
   </si>
   <si>
+    <t>Debbie K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r160326229-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1718,6 +1922,9 @@
     <t>We chose this hotel because it was convenient to our morning appointment in Tustin. It was a good choice as the hotel was off the beaten path a little but easy to find with GPS. It had an attractive appearance outside and a nice décor in the lobby area. The grounds were also very attractive. The check-in experience was easy and efficient. The rooms were well maintained, comfortable and spacious. The bed was comfortable and enabled a good night's sleep. The WiFi worked well during our stay. The Bistro in the morning was a nice option for breakfast as the prices were reasonable with some good, healthy choices. The checkout was also very efficient. The rates were pretty good for the area. I would recommend this hotel to anyone needing a hotel in this area.More</t>
   </si>
   <si>
+    <t>mokey1971</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r158518548-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1745,6 +1952,9 @@
     <t>this is a great hotel if you're going to a concert at The Observatory.  it's cross the street so no need to worry about parking or driving afterwards.  However note, that there's not much around as far as nightlife.The hotel has a nice lounge with beer, wine and some cocktails..the rooms have been re-done and are more modern.More</t>
   </si>
   <si>
+    <t>walkingnsunshine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r150791778-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1770,6 +1980,9 @@
   </si>
   <si>
     <t>Booked this through Priceline and I have used them about 10 times in past and have always been happy with the hotel. Well not this time, traveled with  just my daughter &amp; I and did not feel safe at all. They make the check in area look fresh and up to date, but once you leave that area boy does it change.  The pictures on there website are not true to the room either. Beds are very low to the ground and not comfortable, towels felt rough to touch , like they were well used. I booked and paid for 3 nights at this place &amp; checked out after 12 hrs......More</t>
+  </si>
+  <si>
+    <t>emsiess</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r144699247-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
@@ -1801,6 +2014,9 @@
 5.  Courtyard is the only Marriott chain we have seen that only has lobby coffee and morning's until 9AM and not all day and night.  All other times, you have to either make your own in your room...1.  Room was very comfortable, but nothing special.  Everything worked and the hotel was very quiet.  We enjoyed our stay and did stay for 4 nights during mid-October.  Shower, TV, small desk and even a small patio overlooking the pool were very nice.2.  Whirlpool did not work for 4 days.  A sign was posted first two days and we had to tell management it was not working.  Whirlpool is indoors and was hot, but could not be turned on.  This was very disappointing since I am recovering from severe strained leg muscles.3. Never saw anyone use the outdoor pool.  We tried, but it was ice cold and not heated.  The ocean is only 5 miles away and was warmer than the hotel pool which was unswimmable.4.  Maid service was dodgy.  We were still in the room until 8:30 AM one morning and the maid came to the door.  We stated we were leaving in 2 minutes.  When we returned back to the room around 5PM, the room had never been cleaned and we needed to change and head out.  The maid was just getting to the room.  What happened here. We had to change in the public restroom downstairs.5.  Courtyard is the only Marriott chain we have seen that only has lobby coffee and morning's until 9AM and not all day and night.  All other times, you have to either make your own in your room (Yuck!) or purchase it from the restaurant.  Not a good policy compared to other Marriott chains.  Courtyard never had complimentary food, but now has a bistro type restaurant that really doesn't cut it with us.  I like to eat, and the new Courtyard has done away with the buffet and gone to breakfast sandwiches and very light fare which also doesn't cut it with us.6.  The area is very nice with IKEA 1 mile away, and tons of restaurants, a Whole Foods, movies, Orange County Irvine convention center and tons of shopping and don't forget Newport Beach which is just a few minutes down the road and worthy of a visit anytime of the year with its niche restaurants and beautiful ocean views.7. We asked for a microwave and never received one even though the desk told us they could send one to our room.  Also, was asked for extra towels, since the small excercise room rarely had towels, we never received them.Overall average and didn't meet my needs.  I would select another hotel in the area, but the management appeared somewhat attentive but did not deliver for many circumstaces.More</t>
   </si>
   <si>
+    <t>Christy Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r144578181-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1834,6 +2050,9 @@
     <t>A beautiful lobby great little restaurant with really good food.Stayed here 14 days. The front desk staff were so helpful with directions etc.Very cloce to Huntington Beach where I worked and also only a few miles from the South Coast mall. The rooms need a face lift very clean but carpet and furniture seemed old, They said in the fall they are going renovate all the rooms.More</t>
   </si>
   <si>
+    <t>JTL61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r134155546-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1861,6 +2080,9 @@
     <t>Well managed, well maintained, clean and comfortable.  I even enjoyed an exceptionally nice whirlpool.  The maid service was prompt and thorough.  The location is a bit odd. Not close to much at al, but that helps keep things quiet.  Closest highway is I-405 so consider that if you use this place for business.  This would actually be a good location for a family trip to Disneyland (less than 10 miles).  I got a really good price on this stay, so my review also reflects my feelings about the deal.More</t>
   </si>
   <si>
+    <t>Skyler V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r133412461-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1888,6 +2110,9 @@
     <t>Stayed here with a group last summer and had a great stay. The staff was nice and very helpful. Hotel is conviently located near several attractions.More</t>
   </si>
   <si>
+    <t>spls76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r130942250-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1912,6 +2137,9 @@
     <t>While on a trip to Miami a few weeks back, I stumbled upon a cool set up to charge my phone. Little did I know it was a promotional spot to promote the redesigned courtyard. I liked the layout so much I booked my next trip at a courtyard and was happy I did. The costa Mesa location is in an ok spot but has great rooms and services. I get like I was in a much higher scale hotel  More</t>
   </si>
   <si>
+    <t>ColonelAudubon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r130176944-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1939,6 +2167,9 @@
     <t>Stayed 5 nights on business and overall thought that it was a comfortable hotel for a good value. Hotel backs to an industrial area, but I found that made for a quiet setting in the evening.  Only a few blocks from 405 so it was in a convenient location for getting around Orange County area at a price less than the hotels around the John Wayne airport.  Ate breakfast in the cafe one morning which was a little pricey, but food was good.  Also ate at a bagel shop and an IHOP for around the same price.  Pool area was clean, as well at the hot tub area (had plenty of clean towels). My room was on the second floor overlooking the pool courtyard.  I a couple of nights were I could hear the couple staying in the room next door and heavy walking in the room above me, but only a few disruptions for an overall good stay in a clean hotel with clean property, and what seemed to be a safe neighborhood.  I would stay there again.More</t>
   </si>
   <si>
+    <t>SoCa1l26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r129731952-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1963,6 +2194,9 @@
     <t>The hotel is very nice and clean with a very attractive lobby and bistro cafe. The guy who checked me in was personable and service was fine, unlike some of the reviews here. Property is clean. The room is attractive, though not quite as much so as the other Courtyard I recently stayed in on MacArthur. The room was well appointed, and the free wifi had the best speeds of many hotels I've stayed at in the area. The bed and pillows were very comfortable. There was some noise from Harbor Blve as I was staying in an outside-facing room. Not a whole lot to say, the hotel is quite competent and nice, but I didn't see anything that would put it up to five star rating. The area doesn't seem to be close to anything of great attraction, but if you are here for business it may be a good location depending upon where you are working.More</t>
   </si>
   <si>
+    <t>EuropeanFlair</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r118090637-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1981,6 +2215,9 @@
     <t>We stayed here at the end of the summer. Although we booked a room with a King bed for one night, by the time we arrived we received two queens instead, but the young lady checking us in was very apologetic and nice and we sure were tired. The next morning at about 9.30 we wanted to use the hot tub ( for some reason called spa) to relax our muscles a little before using a pool. Before heading there I checked a few things at the front desk, and extended for another night. He wasn't very friendly. I asked whether there were towels out there to which he said yes. The pool area was thrashed from the night before, pizza boxes, wet towels, beer cans, room service, etc. Nothing was cleaned up, no clean towels in sight. I called the front desk and he said he'd try and call for towels. After 20 minutes ( i swam in the cold pool expecting the towels) still nothing. I called from the poolside phone a number of times, no answer.  Then I called from my cell, the front desk picked up and I asked for the towels. He said he'd call it in again, but wasn't surprised when I mentioned they weren't there. About 40 minutes after I first requested them, the towels arrived by a cleaning lady pushing a giant trash bin, who left without taking a single plate or...We stayed here at the end of the summer. Although we booked a room with a King bed for one night, by the time we arrived we received two queens instead, but the young lady checking us in was very apologetic and nice and we sure were tired. The next morning at about 9.30 we wanted to use the hot tub ( for some reason called spa) to relax our muscles a little before using a pool. Before heading there I checked a few things at the front desk, and extended for another night. He wasn't very friendly. I asked whether there were towels out there to which he said yes. The pool area was thrashed from the night before, pizza boxes, wet towels, beer cans, room service, etc. Nothing was cleaned up, no clean towels in sight. I called the front desk and he said he'd try and call for towels. After 20 minutes ( i swam in the cold pool expecting the towels) still nothing. I called from the poolside phone a number of times, no answer.  Then I called from my cell, the front desk picked up and I asked for the towels. He said he'd call it in again, but wasn't surprised when I mentioned they weren't there. About 40 minutes after I first requested them, the towels arrived by a cleaning lady pushing a giant trash bin, who left without taking a single plate or wet towel. The hot tub, when turned on, became a giant bubble bath, courtesy of the bathers from the previous night. Although we enjoyed the pool, we hoped for a cleaner experience the next day.The next morning the poolside was clean, but without towels once again.While the hotel looks great, the pool area is updated, calm, and even gorgeous when cleaned up, the very low quality of service soured this otherwise nice two day stay.More</t>
   </si>
   <si>
+    <t>davechri</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r117316496-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -1999,6 +2236,9 @@
     <t>January 2011</t>
   </si>
   <si>
+    <t>PELOWELOMAN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r114724805-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2020,6 +2260,9 @@
     <t>Stayed here for 2 weeks during a business trip. The room was clean and standard for a courtyard room. Almost all rooms that are facing the garden &amp; pool area have a balcony with a few chairs and a small table. The pool &amp; garden area is pretty nice with a lounge corner, several sets of chairs/table on the grass, palmtres and some small banana plants. Pool looked ok, was too cold for me to swim. Jazcuzzi is on the side in a covered / semi open area. Disappointing I found that there was no normal restaurant / breakfast buffet in the hotel.. Just a small snackcounter where small snacks at night and some breakfast could be bought. So not included in your room. Free wifi and a modern lobby with a sitting area. The 'gym' consists of 3 machines cramped in a small room. With the 'spa' I guess they refer to the jacuzzi. Nice hot water though. Free parking but the hotel is a bit in an area with just companies and offices, ideal if you have to be there, otherwise not too inviting maybe.More</t>
   </si>
   <si>
+    <t>GaryKlimeck</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r75105538-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2038,6 +2281,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>tiflabruno</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r71485342-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2059,6 +2305,9 @@
     <t>I arrived at 8am on a Monday and found I was too early for the IBM class I had to take.  Daniel at the front desk allowed me to check in at 8 in the moring!  That completely surprised me.  He continued to provide fantastic service to me for the remainder of the week including remembering my name.  The hotel is very nice and the pool is great.  I enjoyed my stay there.  Comfortable beds, fluffly pillows, etc.Complaints?  There buffet for $12.95 is a joke.  They serve a great variety of cold eggs and even colder sausage or what appearded to be french toast. I ended up at the IHOP down the street for $7.  The hotel is a bit out of the way, but nothing major.  It's about 3 miles to the major mall and there are great sushi restaurants nearby.  Also try a place across the street called 8 Steers.  Terrible name for a place with a great scallop dinner.More</t>
   </si>
   <si>
+    <t>BleednBlu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r67086747-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2077,6 +2326,9 @@
     <t>June 2010</t>
   </si>
   <si>
+    <t>ochrisr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r36811153-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2092,6 +2344,9 @@
     <t>August 2009</t>
   </si>
   <si>
+    <t>Ant4fatony</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r30912420-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2110,6 +2365,9 @@
     <t>October 2008</t>
   </si>
   <si>
+    <t>Lv2shop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r29261768-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2128,6 +2386,9 @@
     <t>May 2009</t>
   </si>
   <si>
+    <t>Fl0rida_TraveleR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r13064085-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2146,6 +2407,9 @@
     <t>January 2008</t>
   </si>
   <si>
+    <t>BeniLana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r12157734-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2165,6 +2429,9 @@
   </si>
   <si>
     <t>My husband and I stayed here for one night in December 2007 while attending a concert at the nearby Galaxy Theatre. It's convenient to the 405 Fwy. Nice hotel but I found the room (king with a sleeper sofa) on the small side, although it was otherwise comfortable. Also we could hear quite a bit of noise from the hall and neighboring rooms. No mini fridge but I think that's typical for Courtyards. No free continental breakfast: they have a buffet breakfast which was good but expensive (almost $11.00). There's a small concession area near the front desk where you can buy snacks and even beer. I saw two fast food restaurants within walking distance but other restaurants require a short drive or a longer walk. Staff were polite, the grounds were clean. Note that the Marriott website calls this hotel the Courtyard Costa Mesa South Coast Metro but it's in Santa Ana, not Costa Mesa.More</t>
+  </si>
+  <si>
+    <t>DrDMC</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r11692087-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
@@ -2191,6 +2458,9 @@
 The greatest difficulty I experienced had to do with noise. Street noise from traffic was very pronounced.  In addition, the room door did not filter sound from the...The hotel grounds are attractive and clean. Each day of my 5-night stay, I observed grounds staff engaged in a variety of tasks.  There is ample parking available on three sides of the property.  The location of the Courtyard Inn is central to various shopping and dining locations, as well as the airport.  It is essential to have a car, however, as it can be several blocks to a couple of miles to any shopping or dining. In addition, there is no shuttle for the airport, requiring an $18 cab fare each way.The staff at the hotel were great. Check-in personnel were helpful and friendly.  On the first day of my stay, I was tied up in preparing reports and asked that housekeeping only leave fresh towels; the housekeeping staff asked three times if I as sure that everything was okay. Each day following, housekeeping kept my room spotless.The room itself was typical Courtyard; a little small, but with several nice touches such as a large work area, ethernet internet access and a very comfortable bed. The thermostat seemed to have a mind of its own, however. Setting the controls for 71 degrees would result in a very cool room during the day and a rather warm room at night.The greatest difficulty I experienced had to do with noise. Street noise from traffic was very pronounced.  In addition, the room door did not filter sound from the hall very well. On two separate occasions, I answered a knock on my door only to find someone knocking at the door across the hall.  It was also possible to hear conversation in the hall from several doors away.Overall, I had a pleasant stay for a business trip.  If I were looking for a place to stay for a pleasure trip, I might look for something a little closer or upscale.More</t>
   </si>
   <si>
+    <t>Kelly O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r5222808-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2209,6 +2479,9 @@
     <t>This particular Courtyard is one of the older, original prototype designed ones with the outdoor pool in the center courtyard along with a partially enclosed jacuzzi.I had not been to the hotel in several years and found it in very nice shape with what looked like a recent remodel.  For being at least 15 years old, the hotel looks sparkling.  Rooms, hallways and grounds were all perfect.  The only downsides here are that the rooms are very small, say, compared to a similarly priced Hilton Garden Inn, and the location is not exactly perfect.  There's nowhere to walk to - you're pretty much trapped at the hotel unless you want to get in the car.  For those who are traveling between San Diego and Los Angeles, it's a good stopping off point and it's very close to the 405 freeway, IKEA, and South Coast Plaza.  The staff was all wonderful with no exceptions.  I don't often see that at the moderately priced chains anymore so it was quite refreshing.  The onsite restaurant currently only serves breakfast, and for $8.95 it's not a bad buffet and very convenient.  As with all Courtyards, there is free internet access both in the rooms and in the lobby along with a free laser printer.  Marriott has also added the small "market" for sundries in the lobby which was nice to have.More</t>
   </si>
   <si>
+    <t>tiki-t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r4148129-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -2225,6 +2498,9 @@
   </si>
   <si>
     <t>The room looked recently remodeled and the bed was comfortable but it didn’t seem to matter because the windows didn’t do much to block the sound of traffic from the busy street. Car alarms from the parking lot below also awoke us in the early a.m. hours. We were also given a “non-smoking” room but when we entered it, it smelled of smoke and there was an ash tray and matches on the desk. After our long trip, we were too tired to complain so that is partially our fault. If you hate the smell of smoke, make sure you verify that your room is located no where near smoking rooms during check in.More</t>
+  </si>
+  <si>
+    <t>ltrio</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d78076-r3087206-Courtyard_by_Marriott_Costa_Mesa_South_Coast_Metro-Santa_Ana_California.html</t>
@@ -2744,43 +3020,47 @@
       <c r="A2" t="n">
         <v>2711</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>8085</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2800,50 +3080,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2711</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>132059</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2857,50 +3141,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2711</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>132060</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2916,56 +3204,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2711</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>67374</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2981,56 +3273,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2711</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>14666</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3042,56 +3338,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>2711</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>132061</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -3109,56 +3409,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>2711</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>132062</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3176,50 +3480,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>2711</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>132063</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3239,50 +3547,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>2711</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>132064</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3302,50 +3614,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>2711</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>132065</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -3365,50 +3681,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>2711</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>1401</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3422,50 +3742,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>2711</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>132066</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>132</v>
       </c>
-      <c r="L13" t="s">
-        <v>133</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>122</v>
-      </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3479,50 +3803,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>2711</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>32083</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -3538,56 +3866,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>2711</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>132067</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3601,50 +3933,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>2711</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>132068</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="O16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3662,56 +3998,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="X16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>2711</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>132069</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3723,56 +4063,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="X17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>2711</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>35286</v>
+      </c>
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3790,50 +4134,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>2711</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>132070</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3849,56 +4197,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="X19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="Y19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>2711</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>69109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>199</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="O20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3918,50 +4270,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>2711</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>132071</v>
+      </c>
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="J21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3975,50 +4331,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>2711</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>35979</v>
+      </c>
+      <c r="C22" t="s">
+        <v>212</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="J22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="K22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -4038,50 +4398,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>2711</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>132072</v>
+      </c>
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4095,50 +4459,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>2711</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>132073</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -4156,56 +4524,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="X24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="Y24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>2711</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>132074</v>
+      </c>
+      <c r="C25" t="s">
+        <v>238</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="J25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="O25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4225,50 +4597,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>2711</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>14942</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="K26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4286,56 +4662,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="X26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="Y26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>2711</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>132075</v>
+      </c>
+      <c r="C27" t="s">
+        <v>255</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="O27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -4353,56 +4733,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="X27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="Y27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>2711</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>100399</v>
+      </c>
+      <c r="C28" t="s">
+        <v>265</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="J28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="K28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4416,50 +4800,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>2711</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>1539</v>
+      </c>
+      <c r="C29" t="s">
+        <v>271</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="J29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="K29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="O29" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4477,56 +4865,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="X29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="Y29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>2711</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>132076</v>
+      </c>
+      <c r="C30" t="s">
+        <v>280</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="J30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="K30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4540,50 +4932,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>2711</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>132077</v>
+      </c>
+      <c r="C31" t="s">
+        <v>286</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="J31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="O31" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4597,50 +4993,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>2711</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>11770</v>
+      </c>
+      <c r="C32" t="s">
+        <v>293</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="J32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="K32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="O32" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4660,50 +5060,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>2711</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>132078</v>
+      </c>
+      <c r="C33" t="s">
+        <v>300</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="J33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4715,56 +5119,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="X33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="Y33" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>2711</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>1652</v>
+      </c>
+      <c r="C34" t="s">
+        <v>310</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="K34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="O34" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4778,50 +5186,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>2711</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>39231</v>
+      </c>
+      <c r="C35" t="s">
+        <v>317</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="J35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="K35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="L35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="O35" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4841,50 +5253,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>2711</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>132079</v>
+      </c>
+      <c r="C36" t="s">
+        <v>324</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="O36" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4904,50 +5320,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>2711</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>132080</v>
+      </c>
+      <c r="C37" t="s">
+        <v>331</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="J37" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="K37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4959,56 +5379,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="X37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="Y37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>2711</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>132081</v>
+      </c>
+      <c r="C38" t="s">
+        <v>340</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="J38" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="K38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="L38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="O38" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5022,50 +5446,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>2711</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>132082</v>
+      </c>
+      <c r="C39" t="s">
+        <v>347</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="J39" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="K39" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="L39" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="O39" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5083,56 +5511,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="X39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="Y39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>2711</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>132083</v>
+      </c>
+      <c r="C40" t="s">
+        <v>357</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="J40" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="K40" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="L40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="O40" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5150,56 +5582,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="X40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="Y40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>2711</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>132084</v>
+      </c>
+      <c r="C41" t="s">
+        <v>366</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="J41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5211,56 +5647,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="X41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="Y41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>2711</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>85368</v>
+      </c>
+      <c r="C42" t="s">
+        <v>376</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="J42" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="K42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="L42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="O42" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5274,50 +5714,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>2711</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>132085</v>
+      </c>
+      <c r="C43" t="s">
+        <v>384</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="J43" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="K43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="L43" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5335,56 +5779,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="X43" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="Y43" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>2711</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>132086</v>
+      </c>
+      <c r="C44" t="s">
+        <v>393</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="J44" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="K44" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="L44" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="O44" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5402,56 +5850,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="X44" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="Y44" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>2711</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>19364</v>
+      </c>
+      <c r="C45" t="s">
+        <v>403</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="J45" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="K45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="L45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="O45" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5463,56 +5915,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="X45" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="Y45" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>2711</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>132087</v>
+      </c>
+      <c r="C46" t="s">
+        <v>413</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="J46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="K46" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="L46" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="O46" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5528,56 +5984,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="X46" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="Y46" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>2711</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>2088</v>
+      </c>
+      <c r="C47" t="s">
+        <v>422</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="J47" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="K47" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="L47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="O47" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5595,56 +6055,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="X47" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="Y47" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>2711</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>132088</v>
+      </c>
+      <c r="C48" t="s">
+        <v>432</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="J48" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="K48" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="L48" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="O48" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5662,47 +6126,51 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="X48" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="Y48" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>2711</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>442</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="J49" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="K49" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="L49" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
@@ -5721,41 +6189,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>2711</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>132089</v>
+      </c>
+      <c r="C50" t="s">
+        <v>448</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="J50" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="K50" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="L50" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -5782,56 +6254,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="X50" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="Y50" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>2711</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>132090</v>
+      </c>
+      <c r="C51" t="s">
+        <v>457</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="J51" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="K51" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="L51" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5843,56 +6319,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="X51" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="Y51" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>2711</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>132091</v>
+      </c>
+      <c r="C52" t="s">
+        <v>467</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="J52" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="K52" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="L52" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5910,56 +6390,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="X52" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="Y52" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>2711</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>132092</v>
+      </c>
+      <c r="C53" t="s">
+        <v>475</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="J53" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="K53" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="L53" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="O53" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5975,56 +6459,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="X53" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="Y53" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>2711</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>132093</v>
+      </c>
+      <c r="C54" t="s">
+        <v>484</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="J54" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="K54" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="L54" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="O54" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6036,56 +6524,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="X54" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="Y54" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>2711</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>19275</v>
+      </c>
+      <c r="C55" t="s">
+        <v>494</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="J55" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="K55" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="L55" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="O55" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6103,56 +6595,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="X55" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="Y55" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>2711</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>132094</v>
+      </c>
+      <c r="C56" t="s">
+        <v>504</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="J56" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="K56" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="L56" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>2</v>
@@ -6174,56 +6670,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="X56" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="Y56" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>2711</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>132095</v>
+      </c>
+      <c r="C57" t="s">
+        <v>514</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="J57" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="K57" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="L57" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6245,47 +6745,51 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="X57" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="Y57" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>2711</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>132096</v>
+      </c>
+      <c r="C58" t="s">
+        <v>524</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="J58" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="K58" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="L58" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
@@ -6312,56 +6816,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="X58" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="Y58" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>2711</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>132097</v>
+      </c>
+      <c r="C59" t="s">
+        <v>533</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="J59" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="K59" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="L59" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6383,56 +6891,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="X59" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="Y59" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>2711</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>132098</v>
+      </c>
+      <c r="C60" t="s">
+        <v>543</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="J60" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="K60" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="L60" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="O60" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -6456,50 +6968,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>2711</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>132099</v>
+      </c>
+      <c r="C61" t="s">
+        <v>551</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
       <c r="J61" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
       <c r="K61" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="L61" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6523,50 +7039,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>2711</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>132100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>558</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="J62" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="K62" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="L62" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="O62" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6590,50 +7110,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>2711</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>132101</v>
+      </c>
+      <c r="C63" t="s">
+        <v>564</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>503</v>
+        <v>565</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>504</v>
+        <v>566</v>
       </c>
       <c r="J63" t="s">
-        <v>505</v>
+        <v>567</v>
       </c>
       <c r="K63" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="L63" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6657,50 +7181,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>509</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>2711</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>132102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>572</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="J64" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
       <c r="K64" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="L64" t="s">
-        <v>514</v>
+        <v>577</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6724,50 +7252,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>514</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>2711</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>132103</v>
+      </c>
+      <c r="C65" t="s">
+        <v>579</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>516</v>
+        <v>580</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>517</v>
+        <v>581</v>
       </c>
       <c r="J65" t="s">
-        <v>518</v>
+        <v>582</v>
       </c>
       <c r="K65" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="L65" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>521</v>
+        <v>585</v>
       </c>
       <c r="O65" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6791,50 +7323,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>2711</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>132104</v>
+      </c>
+      <c r="C66" t="s">
+        <v>586</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>523</v>
+        <v>588</v>
       </c>
       <c r="J66" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
       <c r="K66" t="s">
-        <v>525</v>
+        <v>590</v>
       </c>
       <c r="L66" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="O66" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6858,50 +7394,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>527</v>
+        <v>592</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>2711</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>132105</v>
+      </c>
+      <c r="C67" t="s">
+        <v>593</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>529</v>
+        <v>595</v>
       </c>
       <c r="J67" t="s">
-        <v>530</v>
+        <v>596</v>
       </c>
       <c r="K67" t="s">
-        <v>531</v>
+        <v>597</v>
       </c>
       <c r="L67" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="O67" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6923,56 +7463,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
       <c r="X67" t="s">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="Y67" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>2711</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>118133</v>
+      </c>
+      <c r="C68" t="s">
+        <v>603</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>537</v>
+        <v>604</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>538</v>
+        <v>605</v>
       </c>
       <c r="J68" t="s">
-        <v>539</v>
+        <v>606</v>
       </c>
       <c r="K68" t="s">
-        <v>540</v>
+        <v>607</v>
       </c>
       <c r="L68" t="s">
-        <v>541</v>
+        <v>608</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6994,56 +7538,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>543</v>
+        <v>610</v>
       </c>
       <c r="X68" t="s">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="Y68" t="s">
-        <v>545</v>
+        <v>612</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>2711</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>18624</v>
+      </c>
+      <c r="C69" t="s">
+        <v>613</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>546</v>
+        <v>614</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>547</v>
+        <v>615</v>
       </c>
       <c r="J69" t="s">
-        <v>548</v>
+        <v>616</v>
       </c>
       <c r="K69" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="L69" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7065,56 +7613,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>543</v>
+        <v>610</v>
       </c>
       <c r="X69" t="s">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="Y69" t="s">
-        <v>551</v>
+        <v>619</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>2711</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>132106</v>
+      </c>
+      <c r="C70" t="s">
+        <v>620</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>553</v>
+        <v>622</v>
       </c>
       <c r="J70" t="s">
-        <v>554</v>
+        <v>623</v>
       </c>
       <c r="K70" t="s">
-        <v>555</v>
+        <v>624</v>
       </c>
       <c r="L70" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
       <c r="O70" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7136,56 +7688,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="X70" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
       <c r="Y70" t="s">
-        <v>560</v>
+        <v>629</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>2711</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>132107</v>
+      </c>
+      <c r="C71" t="s">
+        <v>630</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>561</v>
+        <v>631</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>562</v>
+        <v>632</v>
       </c>
       <c r="J71" t="s">
-        <v>563</v>
+        <v>633</v>
       </c>
       <c r="K71" t="s">
-        <v>564</v>
+        <v>634</v>
       </c>
       <c r="L71" t="s">
-        <v>565</v>
+        <v>635</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>566</v>
+        <v>636</v>
       </c>
       <c r="O71" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7197,56 +7753,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>567</v>
+        <v>637</v>
       </c>
       <c r="X71" t="s">
-        <v>568</v>
+        <v>638</v>
       </c>
       <c r="Y71" t="s">
-        <v>569</v>
+        <v>639</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>2711</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>132108</v>
+      </c>
+      <c r="C72" t="s">
+        <v>640</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>570</v>
+        <v>641</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>571</v>
+        <v>642</v>
       </c>
       <c r="J72" t="s">
-        <v>572</v>
+        <v>643</v>
       </c>
       <c r="K72" t="s">
-        <v>573</v>
+        <v>644</v>
       </c>
       <c r="L72" t="s">
-        <v>574</v>
+        <v>645</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>575</v>
+        <v>646</v>
       </c>
       <c r="O72" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -7268,56 +7828,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>567</v>
+        <v>637</v>
       </c>
       <c r="X72" t="s">
-        <v>568</v>
+        <v>638</v>
       </c>
       <c r="Y72" t="s">
-        <v>576</v>
+        <v>647</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>2711</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>132109</v>
+      </c>
+      <c r="C73" t="s">
+        <v>648</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>577</v>
+        <v>649</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>578</v>
+        <v>650</v>
       </c>
       <c r="J73" t="s">
-        <v>572</v>
+        <v>643</v>
       </c>
       <c r="K73" t="s">
-        <v>579</v>
+        <v>651</v>
       </c>
       <c r="L73" t="s">
-        <v>580</v>
+        <v>652</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>575</v>
+        <v>646</v>
       </c>
       <c r="O73" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7339,56 +7903,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>567</v>
+        <v>637</v>
       </c>
       <c r="X73" t="s">
-        <v>568</v>
+        <v>638</v>
       </c>
       <c r="Y73" t="s">
-        <v>581</v>
+        <v>653</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>2711</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>118133</v>
+      </c>
+      <c r="C74" t="s">
+        <v>603</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>582</v>
+        <v>654</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>583</v>
+        <v>655</v>
       </c>
       <c r="J74" t="s">
-        <v>584</v>
+        <v>656</v>
       </c>
       <c r="K74" t="s">
-        <v>585</v>
+        <v>657</v>
       </c>
       <c r="L74" t="s">
-        <v>586</v>
+        <v>658</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7410,56 +7978,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>567</v>
+        <v>637</v>
       </c>
       <c r="X74" t="s">
-        <v>568</v>
+        <v>638</v>
       </c>
       <c r="Y74" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>2711</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>132110</v>
+      </c>
+      <c r="C75" t="s">
+        <v>660</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>588</v>
+        <v>661</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>589</v>
+        <v>662</v>
       </c>
       <c r="J75" t="s">
-        <v>590</v>
+        <v>663</v>
       </c>
       <c r="K75" t="s">
-        <v>591</v>
+        <v>664</v>
       </c>
       <c r="L75" t="s">
-        <v>592</v>
+        <v>665</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>593</v>
+        <v>666</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7481,56 +8053,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>594</v>
+        <v>667</v>
       </c>
       <c r="X75" t="s">
-        <v>595</v>
+        <v>668</v>
       </c>
       <c r="Y75" t="s">
-        <v>596</v>
+        <v>669</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>2711</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>132111</v>
+      </c>
+      <c r="C76" t="s">
+        <v>670</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>597</v>
+        <v>671</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="J76" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
       <c r="K76" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
       <c r="L76" t="s">
-        <v>601</v>
+        <v>675</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>602</v>
+        <v>676</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -7542,47 +8118,51 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>603</v>
+        <v>677</v>
       </c>
       <c r="X76" t="s">
-        <v>604</v>
+        <v>678</v>
       </c>
       <c r="Y76" t="s">
-        <v>605</v>
+        <v>679</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>2711</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>132112</v>
+      </c>
+      <c r="C77" t="s">
+        <v>680</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
       <c r="J77" t="s">
-        <v>608</v>
+        <v>683</v>
       </c>
       <c r="K77" t="s">
-        <v>609</v>
+        <v>684</v>
       </c>
       <c r="L77" t="s">
-        <v>610</v>
+        <v>685</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
@@ -7609,56 +8189,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>611</v>
+        <v>686</v>
       </c>
       <c r="X77" t="s">
-        <v>612</v>
+        <v>687</v>
       </c>
       <c r="Y77" t="s">
-        <v>613</v>
+        <v>688</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>2711</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>132113</v>
+      </c>
+      <c r="C78" t="s">
+        <v>689</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>615</v>
+        <v>691</v>
       </c>
       <c r="J78" t="s">
-        <v>616</v>
+        <v>692</v>
       </c>
       <c r="K78" t="s">
-        <v>617</v>
+        <v>693</v>
       </c>
       <c r="L78" t="s">
-        <v>618</v>
+        <v>694</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>619</v>
+        <v>695</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7680,56 +8264,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>620</v>
+        <v>696</v>
       </c>
       <c r="X78" t="s">
-        <v>621</v>
+        <v>697</v>
       </c>
       <c r="Y78" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>2711</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>132114</v>
+      </c>
+      <c r="C79" t="s">
+        <v>699</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>623</v>
+        <v>700</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>624</v>
+        <v>701</v>
       </c>
       <c r="J79" t="s">
-        <v>625</v>
+        <v>702</v>
       </c>
       <c r="K79" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="L79" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>619</v>
+        <v>695</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7751,56 +8339,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="X79" t="s">
-        <v>629</v>
+        <v>706</v>
       </c>
       <c r="Y79" t="s">
-        <v>630</v>
+        <v>707</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>2711</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>132115</v>
+      </c>
+      <c r="C80" t="s">
+        <v>708</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>631</v>
+        <v>709</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>632</v>
+        <v>710</v>
       </c>
       <c r="J80" t="s">
-        <v>633</v>
+        <v>711</v>
       </c>
       <c r="K80" t="s">
-        <v>634</v>
+        <v>712</v>
       </c>
       <c r="L80" t="s">
-        <v>635</v>
+        <v>713</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>602</v>
+        <v>676</v>
       </c>
       <c r="O80" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -7822,50 +8414,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>636</v>
+        <v>714</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>2711</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>132116</v>
+      </c>
+      <c r="C81" t="s">
+        <v>715</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>637</v>
+        <v>716</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>638</v>
+        <v>717</v>
       </c>
       <c r="J81" t="s">
-        <v>639</v>
+        <v>718</v>
       </c>
       <c r="K81" t="s">
-        <v>640</v>
+        <v>719</v>
       </c>
       <c r="L81" t="s">
-        <v>641</v>
+        <v>720</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>642</v>
+        <v>721</v>
       </c>
       <c r="O81" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7885,50 +8481,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>641</v>
+        <v>720</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>2711</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>132117</v>
+      </c>
+      <c r="C82" t="s">
+        <v>722</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>643</v>
+        <v>723</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>644</v>
+        <v>724</v>
       </c>
       <c r="J82" t="s">
-        <v>645</v>
+        <v>725</v>
       </c>
       <c r="K82" t="s">
-        <v>646</v>
+        <v>726</v>
       </c>
       <c r="L82" t="s">
-        <v>647</v>
+        <v>727</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>648</v>
+        <v>728</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -7948,50 +8548,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>649</v>
+        <v>729</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>2711</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>19571</v>
+      </c>
+      <c r="C83" t="s">
+        <v>730</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>650</v>
+        <v>731</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>651</v>
+        <v>732</v>
       </c>
       <c r="J83" t="s">
-        <v>652</v>
+        <v>733</v>
       </c>
       <c r="K83" t="s">
-        <v>653</v>
+        <v>734</v>
       </c>
       <c r="L83" t="s">
-        <v>654</v>
+        <v>735</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>655</v>
+        <v>736</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -8015,50 +8619,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>654</v>
+        <v>735</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>2711</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>132118</v>
+      </c>
+      <c r="C84" t="s">
+        <v>737</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>656</v>
+        <v>738</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>657</v>
+        <v>739</v>
       </c>
       <c r="J84" t="s">
-        <v>658</v>
+        <v>740</v>
       </c>
       <c r="K84" t="s">
-        <v>659</v>
+        <v>741</v>
       </c>
       <c r="L84" t="s">
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8082,50 +8690,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>2711</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>132119</v>
+      </c>
+      <c r="C85" t="s">
+        <v>745</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>663</v>
+        <v>746</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="J85" t="s">
-        <v>665</v>
+        <v>748</v>
       </c>
       <c r="K85" t="s">
-        <v>666</v>
+        <v>749</v>
       </c>
       <c r="L85" t="s">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>668</v>
+        <v>751</v>
       </c>
       <c r="O85" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -8149,50 +8761,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>667</v>
+        <v>750</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>2711</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>132120</v>
+      </c>
+      <c r="C86" t="s">
+        <v>752</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>669</v>
+        <v>753</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>670</v>
+        <v>754</v>
       </c>
       <c r="J86" t="s">
-        <v>671</v>
+        <v>755</v>
       </c>
       <c r="K86" t="s">
-        <v>540</v>
+        <v>607</v>
       </c>
       <c r="L86" t="s">
-        <v>672</v>
+        <v>756</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>673</v>
+        <v>757</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8216,50 +8832,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>672</v>
+        <v>756</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>2711</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>132121</v>
+      </c>
+      <c r="C87" t="s">
+        <v>758</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>674</v>
+        <v>759</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>675</v>
+        <v>760</v>
       </c>
       <c r="J87" t="s">
-        <v>676</v>
+        <v>761</v>
       </c>
       <c r="K87" t="s">
-        <v>677</v>
+        <v>762</v>
       </c>
       <c r="L87" t="s">
-        <v>678</v>
+        <v>763</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>679</v>
+        <v>764</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -8283,50 +8903,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>678</v>
+        <v>763</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>2711</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>132122</v>
+      </c>
+      <c r="C88" t="s">
+        <v>765</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>680</v>
+        <v>766</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>681</v>
+        <v>767</v>
       </c>
       <c r="J88" t="s">
-        <v>682</v>
+        <v>768</v>
       </c>
       <c r="K88" t="s">
-        <v>683</v>
+        <v>769</v>
       </c>
       <c r="L88" t="s">
-        <v>684</v>
+        <v>770</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>685</v>
+        <v>771</v>
       </c>
       <c r="O88" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8350,50 +8974,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>684</v>
+        <v>770</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>2711</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>132123</v>
+      </c>
+      <c r="C89" t="s">
+        <v>772</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>686</v>
+        <v>773</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>687</v>
+        <v>774</v>
       </c>
       <c r="J89" t="s">
-        <v>688</v>
+        <v>775</v>
       </c>
       <c r="K89" t="s">
-        <v>689</v>
+        <v>776</v>
       </c>
       <c r="L89" t="s">
-        <v>690</v>
+        <v>777</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>691</v>
+        <v>778</v>
       </c>
       <c r="O89" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8417,50 +9045,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>690</v>
+        <v>777</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>2711</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>132124</v>
+      </c>
+      <c r="C90" t="s">
+        <v>779</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>692</v>
+        <v>780</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>693</v>
+        <v>781</v>
       </c>
       <c r="J90" t="s">
-        <v>694</v>
+        <v>782</v>
       </c>
       <c r="K90" t="s">
-        <v>695</v>
+        <v>783</v>
       </c>
       <c r="L90" t="s">
-        <v>696</v>
+        <v>784</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>697</v>
+        <v>785</v>
       </c>
       <c r="O90" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8482,50 +9114,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>698</v>
+        <v>786</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>2711</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>132125</v>
+      </c>
+      <c r="C91" t="s">
+        <v>787</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>699</v>
+        <v>788</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>700</v>
+        <v>789</v>
       </c>
       <c r="J91" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="K91" t="s">
-        <v>702</v>
+        <v>791</v>
       </c>
       <c r="L91" t="s">
-        <v>703</v>
+        <v>792</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>697</v>
+        <v>785</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8549,41 +9185,45 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>704</v>
+        <v>793</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>2711</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>4825</v>
+      </c>
+      <c r="C92" t="s">
+        <v>794</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>705</v>
+        <v>795</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>706</v>
+        <v>796</v>
       </c>
       <c r="J92" t="s">
-        <v>707</v>
+        <v>797</v>
       </c>
       <c r="K92" t="s">
-        <v>708</v>
+        <v>798</v>
       </c>
       <c r="L92" t="s">
-        <v>709</v>
+        <v>799</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
@@ -8610,41 +9250,45 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>710</v>
+        <v>800</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>2711</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>132126</v>
+      </c>
+      <c r="C93" t="s">
+        <v>801</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>711</v>
+        <v>802</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>712</v>
+        <v>803</v>
       </c>
       <c r="J93" t="s">
-        <v>713</v>
+        <v>804</v>
       </c>
       <c r="K93" t="s">
-        <v>714</v>
+        <v>805</v>
       </c>
       <c r="L93" t="s">
-        <v>715</v>
+        <v>806</v>
       </c>
       <c r="M93" t="n">
         <v>2</v>
@@ -8671,41 +9315,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>716</v>
+        <v>807</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>2711</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>132127</v>
+      </c>
+      <c r="C94" t="s">
+        <v>808</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>717</v>
+        <v>809</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>718</v>
+        <v>810</v>
       </c>
       <c r="J94" t="s">
-        <v>719</v>
+        <v>811</v>
       </c>
       <c r="K94" t="s">
-        <v>720</v>
+        <v>812</v>
       </c>
       <c r="L94" t="s">
-        <v>721</v>
+        <v>813</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
@@ -8724,7 +9372,7 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>721</v>
+        <v>813</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_143.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_143.xlsx
@@ -3088,7 +3088,7 @@
         <v>2711</v>
       </c>
       <c r="B3" t="n">
-        <v>132059</v>
+        <v>162848</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -3149,7 +3149,7 @@
         <v>2711</v>
       </c>
       <c r="B4" t="n">
-        <v>132060</v>
+        <v>162849</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -3352,7 +3352,7 @@
         <v>2711</v>
       </c>
       <c r="B7" t="n">
-        <v>132061</v>
+        <v>162850</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
@@ -3423,7 +3423,7 @@
         <v>2711</v>
       </c>
       <c r="B8" t="n">
-        <v>132062</v>
+        <v>162851</v>
       </c>
       <c r="C8" t="s">
         <v>105</v>
@@ -3488,7 +3488,7 @@
         <v>2711</v>
       </c>
       <c r="B9" t="n">
-        <v>132063</v>
+        <v>162852</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
@@ -3555,7 +3555,7 @@
         <v>2711</v>
       </c>
       <c r="B10" t="n">
-        <v>132064</v>
+        <v>162853</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
@@ -3622,7 +3622,7 @@
         <v>2711</v>
       </c>
       <c r="B11" t="n">
-        <v>132065</v>
+        <v>162854</v>
       </c>
       <c r="C11" t="s">
         <v>126</v>
@@ -3750,7 +3750,7 @@
         <v>2711</v>
       </c>
       <c r="B13" t="n">
-        <v>132066</v>
+        <v>162855</v>
       </c>
       <c r="C13" t="s">
         <v>140</v>
@@ -3880,7 +3880,7 @@
         <v>2711</v>
       </c>
       <c r="B15" t="n">
-        <v>132067</v>
+        <v>162856</v>
       </c>
       <c r="C15" t="s">
         <v>156</v>
@@ -3941,7 +3941,7 @@
         <v>2711</v>
       </c>
       <c r="B16" t="n">
-        <v>132068</v>
+        <v>162857</v>
       </c>
       <c r="C16" t="s">
         <v>163</v>
@@ -4012,7 +4012,7 @@
         <v>2711</v>
       </c>
       <c r="B17" t="n">
-        <v>132069</v>
+        <v>162858</v>
       </c>
       <c r="C17" t="s">
         <v>172</v>
@@ -4142,7 +4142,7 @@
         <v>2711</v>
       </c>
       <c r="B19" t="n">
-        <v>132070</v>
+        <v>162859</v>
       </c>
       <c r="C19" t="s">
         <v>189</v>
@@ -4278,7 +4278,7 @@
         <v>2711</v>
       </c>
       <c r="B21" t="n">
-        <v>132071</v>
+        <v>162860</v>
       </c>
       <c r="C21" t="s">
         <v>206</v>
@@ -4406,7 +4406,7 @@
         <v>2711</v>
       </c>
       <c r="B23" t="n">
-        <v>132072</v>
+        <v>162861</v>
       </c>
       <c r="C23" t="s">
         <v>220</v>
@@ -4467,7 +4467,7 @@
         <v>2711</v>
       </c>
       <c r="B24" t="n">
-        <v>132073</v>
+        <v>162862</v>
       </c>
       <c r="C24" t="s">
         <v>228</v>
@@ -4538,7 +4538,7 @@
         <v>2711</v>
       </c>
       <c r="B25" t="n">
-        <v>132074</v>
+        <v>162863</v>
       </c>
       <c r="C25" t="s">
         <v>238</v>
@@ -4676,7 +4676,7 @@
         <v>2711</v>
       </c>
       <c r="B27" t="n">
-        <v>132075</v>
+        <v>162864</v>
       </c>
       <c r="C27" t="s">
         <v>255</v>
@@ -4879,7 +4879,7 @@
         <v>2711</v>
       </c>
       <c r="B30" t="n">
-        <v>132076</v>
+        <v>162865</v>
       </c>
       <c r="C30" t="s">
         <v>280</v>
@@ -4940,7 +4940,7 @@
         <v>2711</v>
       </c>
       <c r="B31" t="n">
-        <v>132077</v>
+        <v>162866</v>
       </c>
       <c r="C31" t="s">
         <v>286</v>
@@ -5068,7 +5068,7 @@
         <v>2711</v>
       </c>
       <c r="B33" t="n">
-        <v>132078</v>
+        <v>162867</v>
       </c>
       <c r="C33" t="s">
         <v>300</v>
@@ -5261,7 +5261,7 @@
         <v>2711</v>
       </c>
       <c r="B36" t="n">
-        <v>132079</v>
+        <v>162868</v>
       </c>
       <c r="C36" t="s">
         <v>324</v>
@@ -5328,7 +5328,7 @@
         <v>2711</v>
       </c>
       <c r="B37" t="n">
-        <v>132080</v>
+        <v>162869</v>
       </c>
       <c r="C37" t="s">
         <v>331</v>
@@ -5393,7 +5393,7 @@
         <v>2711</v>
       </c>
       <c r="B38" t="n">
-        <v>132081</v>
+        <v>162870</v>
       </c>
       <c r="C38" t="s">
         <v>340</v>
@@ -5454,7 +5454,7 @@
         <v>2711</v>
       </c>
       <c r="B39" t="n">
-        <v>132082</v>
+        <v>162871</v>
       </c>
       <c r="C39" t="s">
         <v>347</v>
@@ -5525,7 +5525,7 @@
         <v>2711</v>
       </c>
       <c r="B40" t="n">
-        <v>132083</v>
+        <v>162872</v>
       </c>
       <c r="C40" t="s">
         <v>357</v>
@@ -5596,7 +5596,7 @@
         <v>2711</v>
       </c>
       <c r="B41" t="n">
-        <v>132084</v>
+        <v>162873</v>
       </c>
       <c r="C41" t="s">
         <v>366</v>
@@ -5722,7 +5722,7 @@
         <v>2711</v>
       </c>
       <c r="B43" t="n">
-        <v>132085</v>
+        <v>162874</v>
       </c>
       <c r="C43" t="s">
         <v>384</v>
@@ -5793,7 +5793,7 @@
         <v>2711</v>
       </c>
       <c r="B44" t="n">
-        <v>132086</v>
+        <v>162875</v>
       </c>
       <c r="C44" t="s">
         <v>393</v>
@@ -5929,7 +5929,7 @@
         <v>2711</v>
       </c>
       <c r="B46" t="n">
-        <v>132087</v>
+        <v>162876</v>
       </c>
       <c r="C46" t="s">
         <v>413</v>
@@ -6069,7 +6069,7 @@
         <v>2711</v>
       </c>
       <c r="B48" t="n">
-        <v>132088</v>
+        <v>162877</v>
       </c>
       <c r="C48" t="s">
         <v>432</v>
@@ -6197,7 +6197,7 @@
         <v>2711</v>
       </c>
       <c r="B50" t="n">
-        <v>132089</v>
+        <v>162878</v>
       </c>
       <c r="C50" t="s">
         <v>448</v>
@@ -6268,7 +6268,7 @@
         <v>2711</v>
       </c>
       <c r="B51" t="n">
-        <v>132090</v>
+        <v>162879</v>
       </c>
       <c r="C51" t="s">
         <v>457</v>
@@ -6333,7 +6333,7 @@
         <v>2711</v>
       </c>
       <c r="B52" t="n">
-        <v>132091</v>
+        <v>162880</v>
       </c>
       <c r="C52" t="s">
         <v>467</v>
@@ -6404,7 +6404,7 @@
         <v>2711</v>
       </c>
       <c r="B53" t="n">
-        <v>132092</v>
+        <v>162881</v>
       </c>
       <c r="C53" t="s">
         <v>475</v>
@@ -6473,7 +6473,7 @@
         <v>2711</v>
       </c>
       <c r="B54" t="n">
-        <v>132093</v>
+        <v>162882</v>
       </c>
       <c r="C54" t="s">
         <v>484</v>
@@ -6609,7 +6609,7 @@
         <v>2711</v>
       </c>
       <c r="B56" t="n">
-        <v>132094</v>
+        <v>162883</v>
       </c>
       <c r="C56" t="s">
         <v>504</v>
@@ -6684,7 +6684,7 @@
         <v>2711</v>
       </c>
       <c r="B57" t="n">
-        <v>132095</v>
+        <v>162884</v>
       </c>
       <c r="C57" t="s">
         <v>514</v>
@@ -6759,7 +6759,7 @@
         <v>2711</v>
       </c>
       <c r="B58" t="n">
-        <v>132096</v>
+        <v>162885</v>
       </c>
       <c r="C58" t="s">
         <v>524</v>
@@ -6830,7 +6830,7 @@
         <v>2711</v>
       </c>
       <c r="B59" t="n">
-        <v>132097</v>
+        <v>162886</v>
       </c>
       <c r="C59" t="s">
         <v>533</v>
@@ -6905,7 +6905,7 @@
         <v>2711</v>
       </c>
       <c r="B60" t="n">
-        <v>132098</v>
+        <v>162887</v>
       </c>
       <c r="C60" t="s">
         <v>543</v>
@@ -6976,7 +6976,7 @@
         <v>2711</v>
       </c>
       <c r="B61" t="n">
-        <v>132099</v>
+        <v>162888</v>
       </c>
       <c r="C61" t="s">
         <v>551</v>
@@ -7047,7 +7047,7 @@
         <v>2711</v>
       </c>
       <c r="B62" t="n">
-        <v>132100</v>
+        <v>162889</v>
       </c>
       <c r="C62" t="s">
         <v>558</v>
@@ -7118,7 +7118,7 @@
         <v>2711</v>
       </c>
       <c r="B63" t="n">
-        <v>132101</v>
+        <v>162890</v>
       </c>
       <c r="C63" t="s">
         <v>564</v>
@@ -7189,7 +7189,7 @@
         <v>2711</v>
       </c>
       <c r="B64" t="n">
-        <v>132102</v>
+        <v>162891</v>
       </c>
       <c r="C64" t="s">
         <v>572</v>
@@ -7260,7 +7260,7 @@
         <v>2711</v>
       </c>
       <c r="B65" t="n">
-        <v>132103</v>
+        <v>162892</v>
       </c>
       <c r="C65" t="s">
         <v>579</v>
@@ -7331,7 +7331,7 @@
         <v>2711</v>
       </c>
       <c r="B66" t="n">
-        <v>132104</v>
+        <v>162893</v>
       </c>
       <c r="C66" t="s">
         <v>586</v>
@@ -7402,7 +7402,7 @@
         <v>2711</v>
       </c>
       <c r="B67" t="n">
-        <v>132105</v>
+        <v>162894</v>
       </c>
       <c r="C67" t="s">
         <v>593</v>
@@ -7627,7 +7627,7 @@
         <v>2711</v>
       </c>
       <c r="B70" t="n">
-        <v>132106</v>
+        <v>162895</v>
       </c>
       <c r="C70" t="s">
         <v>620</v>
@@ -7702,7 +7702,7 @@
         <v>2711</v>
       </c>
       <c r="B71" t="n">
-        <v>132107</v>
+        <v>162896</v>
       </c>
       <c r="C71" t="s">
         <v>630</v>
@@ -7767,7 +7767,7 @@
         <v>2711</v>
       </c>
       <c r="B72" t="n">
-        <v>132108</v>
+        <v>162897</v>
       </c>
       <c r="C72" t="s">
         <v>640</v>
@@ -7842,7 +7842,7 @@
         <v>2711</v>
       </c>
       <c r="B73" t="n">
-        <v>132109</v>
+        <v>162898</v>
       </c>
       <c r="C73" t="s">
         <v>648</v>
@@ -7992,7 +7992,7 @@
         <v>2711</v>
       </c>
       <c r="B75" t="n">
-        <v>132110</v>
+        <v>162899</v>
       </c>
       <c r="C75" t="s">
         <v>660</v>
@@ -8067,7 +8067,7 @@
         <v>2711</v>
       </c>
       <c r="B76" t="n">
-        <v>132111</v>
+        <v>162900</v>
       </c>
       <c r="C76" t="s">
         <v>670</v>
@@ -8132,7 +8132,7 @@
         <v>2711</v>
       </c>
       <c r="B77" t="n">
-        <v>132112</v>
+        <v>162901</v>
       </c>
       <c r="C77" t="s">
         <v>680</v>
@@ -8203,7 +8203,7 @@
         <v>2711</v>
       </c>
       <c r="B78" t="n">
-        <v>132113</v>
+        <v>162902</v>
       </c>
       <c r="C78" t="s">
         <v>689</v>
@@ -8278,7 +8278,7 @@
         <v>2711</v>
       </c>
       <c r="B79" t="n">
-        <v>132114</v>
+        <v>162903</v>
       </c>
       <c r="C79" t="s">
         <v>699</v>
@@ -8353,7 +8353,7 @@
         <v>2711</v>
       </c>
       <c r="B80" t="n">
-        <v>132115</v>
+        <v>162904</v>
       </c>
       <c r="C80" t="s">
         <v>708</v>
@@ -8422,7 +8422,7 @@
         <v>2711</v>
       </c>
       <c r="B81" t="n">
-        <v>132116</v>
+        <v>162905</v>
       </c>
       <c r="C81" t="s">
         <v>715</v>
@@ -8489,7 +8489,7 @@
         <v>2711</v>
       </c>
       <c r="B82" t="n">
-        <v>132117</v>
+        <v>162906</v>
       </c>
       <c r="C82" t="s">
         <v>722</v>
@@ -8627,7 +8627,7 @@
         <v>2711</v>
       </c>
       <c r="B84" t="n">
-        <v>132118</v>
+        <v>162907</v>
       </c>
       <c r="C84" t="s">
         <v>737</v>
@@ -8698,7 +8698,7 @@
         <v>2711</v>
       </c>
       <c r="B85" t="n">
-        <v>132119</v>
+        <v>162908</v>
       </c>
       <c r="C85" t="s">
         <v>745</v>
@@ -8769,7 +8769,7 @@
         <v>2711</v>
       </c>
       <c r="B86" t="n">
-        <v>132120</v>
+        <v>162909</v>
       </c>
       <c r="C86" t="s">
         <v>752</v>
@@ -8840,7 +8840,7 @@
         <v>2711</v>
       </c>
       <c r="B87" t="n">
-        <v>132121</v>
+        <v>162910</v>
       </c>
       <c r="C87" t="s">
         <v>758</v>
@@ -8911,7 +8911,7 @@
         <v>2711</v>
       </c>
       <c r="B88" t="n">
-        <v>132122</v>
+        <v>162911</v>
       </c>
       <c r="C88" t="s">
         <v>765</v>
@@ -8982,7 +8982,7 @@
         <v>2711</v>
       </c>
       <c r="B89" t="n">
-        <v>132123</v>
+        <v>162912</v>
       </c>
       <c r="C89" t="s">
         <v>772</v>
@@ -9053,7 +9053,7 @@
         <v>2711</v>
       </c>
       <c r="B90" t="n">
-        <v>132124</v>
+        <v>162913</v>
       </c>
       <c r="C90" t="s">
         <v>779</v>
@@ -9122,7 +9122,7 @@
         <v>2711</v>
       </c>
       <c r="B91" t="n">
-        <v>132125</v>
+        <v>162914</v>
       </c>
       <c r="C91" t="s">
         <v>787</v>
@@ -9258,7 +9258,7 @@
         <v>2711</v>
       </c>
       <c r="B93" t="n">
-        <v>132126</v>
+        <v>162915</v>
       </c>
       <c r="C93" t="s">
         <v>801</v>
@@ -9323,7 +9323,7 @@
         <v>2711</v>
       </c>
       <c r="B94" t="n">
-        <v>132127</v>
+        <v>162916</v>
       </c>
       <c r="C94" t="s">
         <v>808</v>
